--- a/files/separadas/repeat_p16.xlsx
+++ b/files/separadas/repeat_p16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="460">
   <si>
     <t>p16_rom</t>
   </si>
@@ -109,7 +109,10 @@
     <t>c3</t>
   </si>
   <si>
-    <t>nota_iniciativa</t>
+    <t>s_i</t>
+  </si>
+  <si>
+    <t>c4</t>
   </si>
   <si>
     <t>mejorar la articulación mediante la interdisciplinariedad</t>
@@ -1773,13 +1776,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF163"/>
+  <dimension ref="A1:AG163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1876,13 +1879,16 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:32">
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1900,16 +1906,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T2">
         <v>2</v>
@@ -1918,13 +1924,13 @@
         <v>6</v>
       </c>
       <c r="V2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="W2" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="Z2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1938,13 +1944,16 @@
       <c r="AF2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:32">
+      <c r="AG2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1962,16 +1971,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="R3">
         <v>2</v>
       </c>
       <c r="S3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T3">
         <v>3</v>
@@ -1980,13 +1989,13 @@
         <v>7</v>
       </c>
       <c r="V3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="W3" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="Z3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -2000,13 +2009,16 @@
       <c r="AF3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:32">
+      <c r="AG3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2024,16 +2036,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R4">
         <v>3</v>
       </c>
       <c r="S4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T4">
         <v>3</v>
@@ -2042,13 +2054,13 @@
         <v>7</v>
       </c>
       <c r="V4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="W4" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="Z4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -2062,13 +2074,16 @@
       <c r="AF4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:32">
+      <c r="AG4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2086,19 +2101,19 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R5">
         <v>4</v>
       </c>
       <c r="S5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T5">
         <v>4</v>
@@ -2107,13 +2122,13 @@
         <v>9</v>
       </c>
       <c r="V5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="W5" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="Z5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -2127,13 +2142,16 @@
       <c r="AF5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:32">
+      <c r="AG5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2151,16 +2169,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="R6">
         <v>5</v>
       </c>
       <c r="S6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T6">
         <v>5</v>
@@ -2169,13 +2187,13 @@
         <v>10</v>
       </c>
       <c r="V6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="W6" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -2189,13 +2207,16 @@
       <c r="AF6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:32">
+      <c r="AG6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2213,16 +2234,16 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R7">
         <v>6</v>
       </c>
       <c r="S7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T7">
         <v>5</v>
@@ -2231,13 +2252,13 @@
         <v>10</v>
       </c>
       <c r="V7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="W7" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -2251,13 +2272,16 @@
       <c r="AF7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:32">
+      <c r="AG7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2275,16 +2299,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="R8">
         <v>7</v>
       </c>
       <c r="S8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T8">
         <v>5</v>
@@ -2293,13 +2317,13 @@
         <v>10</v>
       </c>
       <c r="V8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="W8" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -2313,13 +2337,16 @@
       <c r="AF8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:32">
+      <c r="AG8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2337,16 +2364,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="R9">
         <v>8</v>
       </c>
       <c r="S9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T9">
         <v>5</v>
@@ -2355,13 +2382,13 @@
         <v>10</v>
       </c>
       <c r="V9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="W9" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -2375,13 +2402,16 @@
       <c r="AF9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:32">
+      <c r="AG9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2399,16 +2429,16 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="R10">
         <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T10">
         <v>5</v>
@@ -2417,13 +2447,13 @@
         <v>10</v>
       </c>
       <c r="V10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="W10" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -2437,13 +2467,16 @@
       <c r="AF10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:32">
+      <c r="AG10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2461,16 +2494,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R11">
         <v>10</v>
       </c>
       <c r="S11" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T11">
         <v>6</v>
@@ -2479,13 +2512,13 @@
         <v>12</v>
       </c>
       <c r="V11" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="W11" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="Z11" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -2499,13 +2532,16 @@
       <c r="AF11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:32">
+      <c r="AG11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2523,16 +2559,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R12">
         <v>11</v>
       </c>
       <c r="S12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T12">
         <v>7</v>
@@ -2541,13 +2577,13 @@
         <v>13</v>
       </c>
       <c r="V12" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="W12" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="Z12" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -2561,13 +2597,16 @@
       <c r="AF12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:32">
+      <c r="AG12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2585,16 +2624,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R13">
         <v>12</v>
       </c>
       <c r="S13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T13">
         <v>9</v>
@@ -2603,13 +2642,13 @@
         <v>15</v>
       </c>
       <c r="V13" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="W13" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Z13" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -2623,13 +2662,16 @@
       <c r="AF13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:32">
+      <c r="AG13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2647,16 +2689,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R14">
         <v>13</v>
       </c>
       <c r="S14" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T14">
         <v>9</v>
@@ -2665,13 +2707,13 @@
         <v>15</v>
       </c>
       <c r="V14" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="W14" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Z14" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -2685,13 +2727,16 @@
       <c r="AF14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:32">
+      <c r="AG14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2709,16 +2754,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R15">
         <v>14</v>
       </c>
       <c r="S15" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T15">
         <v>10</v>
@@ -2727,13 +2772,13 @@
         <v>16</v>
       </c>
       <c r="V15" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="W15" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="Z15" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -2747,13 +2792,16 @@
       <c r="AF15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:32">
+      <c r="AG15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2771,19 +2819,19 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J16" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R16">
         <v>15</v>
       </c>
       <c r="S16" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T16">
         <v>10</v>
@@ -2792,13 +2840,13 @@
         <v>16</v>
       </c>
       <c r="V16" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="W16" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="Z16" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -2812,13 +2860,16 @@
       <c r="AF16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:32">
+      <c r="AG16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2836,16 +2887,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J17" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="R17">
         <v>16</v>
       </c>
       <c r="S17" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T17">
         <v>11</v>
@@ -2854,13 +2905,13 @@
         <v>17</v>
       </c>
       <c r="V17" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="W17" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z17" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -2874,13 +2925,16 @@
       <c r="AF17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:32">
+      <c r="AG17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2898,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J18" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="R18">
         <v>17</v>
       </c>
       <c r="S18" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T18">
         <v>11</v>
@@ -2916,13 +2970,13 @@
         <v>17</v>
       </c>
       <c r="V18" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="W18" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z18" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC18">
         <v>0</v>
@@ -2936,13 +2990,16 @@
       <c r="AF18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:32">
+      <c r="AG18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2960,16 +3017,16 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="R19">
         <v>18</v>
       </c>
       <c r="S19" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T19">
         <v>11</v>
@@ -2978,13 +3035,13 @@
         <v>17</v>
       </c>
       <c r="V19" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="W19" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z19" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -2998,13 +3055,16 @@
       <c r="AF19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:32">
+      <c r="AG19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -3022,16 +3082,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J20" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R20">
         <v>19</v>
       </c>
       <c r="S20" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T20">
         <v>11</v>
@@ -3040,13 +3100,13 @@
         <v>17</v>
       </c>
       <c r="V20" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="W20" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z20" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -3060,13 +3120,16 @@
       <c r="AF20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:32">
+      <c r="AG20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -3084,16 +3147,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J21" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R21">
         <v>20</v>
       </c>
       <c r="S21" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T21">
         <v>11</v>
@@ -3102,13 +3165,13 @@
         <v>17</v>
       </c>
       <c r="V21" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="W21" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z21" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -3122,13 +3185,16 @@
       <c r="AF21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:32">
+      <c r="AG21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -3146,16 +3212,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="R22">
         <v>21</v>
       </c>
       <c r="S22" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T22">
         <v>11</v>
@@ -3164,13 +3230,13 @@
         <v>17</v>
       </c>
       <c r="V22" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="W22" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z22" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -3184,13 +3250,16 @@
       <c r="AF22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:32">
+      <c r="AG22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -3208,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J23" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="R23">
         <v>22</v>
       </c>
       <c r="S23" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T23">
         <v>11</v>
@@ -3226,13 +3295,13 @@
         <v>17</v>
       </c>
       <c r="V23" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="W23" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z23" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC23">
         <v>0</v>
@@ -3246,13 +3315,16 @@
       <c r="AF23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:32">
+      <c r="AG23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3270,16 +3342,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J24" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="R24">
         <v>23</v>
       </c>
       <c r="S24" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T24">
         <v>11</v>
@@ -3288,13 +3360,13 @@
         <v>17</v>
       </c>
       <c r="V24" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="W24" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z24" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -3308,13 +3380,16 @@
       <c r="AF24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:32">
+      <c r="AG24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -3332,19 +3407,19 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J25" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="R25">
         <v>24</v>
       </c>
       <c r="S25" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T25">
         <v>12</v>
@@ -3353,13 +3428,13 @@
         <v>18</v>
       </c>
       <c r="V25" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="W25" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="Z25" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -3373,13 +3448,16 @@
       <c r="AF25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:32">
+      <c r="AG25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -3397,16 +3475,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J26" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="R26">
         <v>25</v>
       </c>
       <c r="S26" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T26">
         <v>13</v>
@@ -3415,13 +3493,13 @@
         <v>20</v>
       </c>
       <c r="V26" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="W26" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="Z26" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -3435,13 +3513,16 @@
       <c r="AF26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:32">
+      <c r="AG26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -3459,16 +3540,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J27" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R27">
         <v>26</v>
       </c>
       <c r="S27" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T27">
         <v>13</v>
@@ -3477,13 +3558,13 @@
         <v>20</v>
       </c>
       <c r="V27" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="W27" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="Z27" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -3497,13 +3578,16 @@
       <c r="AF27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:32">
+      <c r="AG27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -3521,16 +3605,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J28" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="R28">
         <v>27</v>
       </c>
       <c r="S28" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T28">
         <v>14</v>
@@ -3539,13 +3623,13 @@
         <v>21</v>
       </c>
       <c r="V28" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="W28" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="Z28" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -3559,13 +3643,16 @@
       <c r="AF28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:32">
+      <c r="AG28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -3583,16 +3670,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J29" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="R29">
         <v>28</v>
       </c>
       <c r="S29" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T29">
         <v>15</v>
@@ -3601,13 +3688,13 @@
         <v>22</v>
       </c>
       <c r="V29" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="W29" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Z29" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -3621,13 +3708,16 @@
       <c r="AF29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:32">
+      <c r="AG29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -3645,16 +3735,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J30" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="R30">
         <v>29</v>
       </c>
       <c r="S30" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T30">
         <v>15</v>
@@ -3663,13 +3753,13 @@
         <v>22</v>
       </c>
       <c r="V30" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="W30" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Z30" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC30">
         <v>0</v>
@@ -3683,13 +3773,16 @@
       <c r="AF30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:32">
+      <c r="AG30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -3707,16 +3800,16 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J31" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="R31">
         <v>30</v>
       </c>
       <c r="S31" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T31">
         <v>15</v>
@@ -3725,13 +3818,13 @@
         <v>22</v>
       </c>
       <c r="V31" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="W31" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Z31" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -3745,13 +3838,16 @@
       <c r="AF31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:32">
+      <c r="AG31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3769,16 +3865,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J32" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="R32">
         <v>31</v>
       </c>
       <c r="S32" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T32">
         <v>16</v>
@@ -3787,13 +3883,13 @@
         <v>25</v>
       </c>
       <c r="V32" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="W32" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="Z32" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC32">
         <v>0</v>
@@ -3807,13 +3903,16 @@
       <c r="AF32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:32">
+      <c r="AG32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3831,16 +3930,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J33" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R33">
         <v>32</v>
       </c>
       <c r="S33" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T33">
         <v>17</v>
@@ -3849,13 +3948,13 @@
         <v>26</v>
       </c>
       <c r="V33" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="W33" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z33" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -3869,13 +3968,16 @@
       <c r="AF33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:32">
+      <c r="AG33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -3893,19 +3995,19 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I34" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J34" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="R34">
         <v>33</v>
       </c>
       <c r="S34" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T34">
         <v>18</v>
@@ -3914,13 +4016,13 @@
         <v>27</v>
       </c>
       <c r="V34" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="W34" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="Z34" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC34">
         <v>0</v>
@@ -3934,13 +4036,16 @@
       <c r="AF34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:32">
+      <c r="AG34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3958,19 +4063,19 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I35" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J35" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="R35">
         <v>34</v>
       </c>
       <c r="S35" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T35">
         <v>19</v>
@@ -3979,13 +4084,13 @@
         <v>30</v>
       </c>
       <c r="V35" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="W35" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z35" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC35">
         <v>0</v>
@@ -3999,13 +4104,16 @@
       <c r="AF35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:32">
+      <c r="AG35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -4023,19 +4131,19 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I36" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J36" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="R36">
         <v>35</v>
       </c>
       <c r="S36" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T36">
         <v>19</v>
@@ -4044,13 +4152,13 @@
         <v>30</v>
       </c>
       <c r="V36" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="W36" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z36" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC36">
         <v>0</v>
@@ -4064,13 +4172,16 @@
       <c r="AF36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:32">
+      <c r="AG36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -4088,19 +4199,19 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I37" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J37" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R37">
         <v>36</v>
       </c>
       <c r="S37" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T37">
         <v>19</v>
@@ -4109,13 +4220,13 @@
         <v>30</v>
       </c>
       <c r="V37" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="W37" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z37" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC37">
         <v>0</v>
@@ -4129,13 +4240,16 @@
       <c r="AF37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:32">
+      <c r="AG37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -4153,16 +4267,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J38" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="R38">
         <v>37</v>
       </c>
       <c r="S38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T38">
         <v>20</v>
@@ -4171,13 +4285,13 @@
         <v>33</v>
       </c>
       <c r="V38" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="W38" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="Z38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC38">
         <v>0</v>
@@ -4191,13 +4305,16 @@
       <c r="AF38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:32">
+      <c r="AG38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4215,16 +4332,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J39" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="R39">
         <v>38</v>
       </c>
       <c r="S39" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T39">
         <v>20</v>
@@ -4233,13 +4350,13 @@
         <v>33</v>
       </c>
       <c r="V39" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="W39" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="Z39" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC39">
         <v>0</v>
@@ -4253,13 +4370,16 @@
       <c r="AF39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:32">
+      <c r="AG39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -4277,16 +4397,16 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J40" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="R40">
         <v>39</v>
       </c>
       <c r="S40" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T40">
         <v>20</v>
@@ -4295,13 +4415,13 @@
         <v>33</v>
       </c>
       <c r="V40" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="W40" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="Z40" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC40">
         <v>0</v>
@@ -4315,13 +4435,16 @@
       <c r="AF40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:32">
+      <c r="AG40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -4339,16 +4462,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J41" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="R41">
         <v>40</v>
       </c>
       <c r="S41" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T41">
         <v>20</v>
@@ -4357,13 +4480,13 @@
         <v>33</v>
       </c>
       <c r="V41" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="W41" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="Z41" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC41">
         <v>0</v>
@@ -4377,13 +4500,16 @@
       <c r="AF41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:32">
+      <c r="AG41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -4401,16 +4527,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J42" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="R42">
         <v>41</v>
       </c>
       <c r="S42" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T42">
         <v>21</v>
@@ -4419,13 +4545,13 @@
         <v>34</v>
       </c>
       <c r="V42" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="W42" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Z42" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC42">
         <v>0</v>
@@ -4439,13 +4565,16 @@
       <c r="AF42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:32">
+      <c r="AG42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4463,16 +4592,16 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J43" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="R43">
         <v>42</v>
       </c>
       <c r="S43" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T43">
         <v>22</v>
@@ -4481,13 +4610,13 @@
         <v>37</v>
       </c>
       <c r="V43" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="W43" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z43" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC43">
         <v>0</v>
@@ -4501,13 +4630,16 @@
       <c r="AF43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:32">
+      <c r="AG43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4525,16 +4657,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J44" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="R44">
         <v>43</v>
       </c>
       <c r="S44" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T44">
         <v>23</v>
@@ -4543,13 +4675,13 @@
         <v>38</v>
       </c>
       <c r="V44" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W44" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z44" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC44">
         <v>0</v>
@@ -4563,13 +4695,16 @@
       <c r="AF44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:32">
+      <c r="AG44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4587,16 +4722,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J45" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="R45">
         <v>44</v>
       </c>
       <c r="S45" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T45">
         <v>23</v>
@@ -4605,13 +4740,13 @@
         <v>38</v>
       </c>
       <c r="V45" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W45" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z45" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC45">
         <v>0</v>
@@ -4625,13 +4760,16 @@
       <c r="AF45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:32">
+      <c r="AG45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4649,16 +4787,16 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J46" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R46">
         <v>45</v>
       </c>
       <c r="S46" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T46">
         <v>23</v>
@@ -4667,13 +4805,13 @@
         <v>38</v>
       </c>
       <c r="V46" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W46" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z46" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC46">
         <v>0</v>
@@ -4687,13 +4825,16 @@
       <c r="AF46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:32">
+      <c r="AG46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4711,16 +4852,16 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J47" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="R47">
         <v>46</v>
       </c>
       <c r="S47" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T47">
         <v>23</v>
@@ -4729,13 +4870,13 @@
         <v>38</v>
       </c>
       <c r="V47" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W47" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z47" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC47">
         <v>0</v>
@@ -4749,13 +4890,16 @@
       <c r="AF47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:32">
+      <c r="AG47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4773,16 +4917,16 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J48" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="R48">
         <v>47</v>
       </c>
       <c r="S48" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T48">
         <v>23</v>
@@ -4791,13 +4935,13 @@
         <v>38</v>
       </c>
       <c r="V48" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W48" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z48" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC48">
         <v>0</v>
@@ -4811,13 +4955,16 @@
       <c r="AF48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:32">
+      <c r="AG48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B49" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4835,16 +4982,16 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J49" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="R49">
         <v>48</v>
       </c>
       <c r="S49" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T49">
         <v>23</v>
@@ -4853,13 +5000,13 @@
         <v>38</v>
       </c>
       <c r="V49" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W49" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z49" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC49">
         <v>0</v>
@@ -4873,13 +5020,16 @@
       <c r="AF49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:32">
+      <c r="AG49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -4897,16 +5047,16 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J50" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="R50">
         <v>49</v>
       </c>
       <c r="S50" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T50">
         <v>23</v>
@@ -4915,13 +5065,13 @@
         <v>38</v>
       </c>
       <c r="V50" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W50" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z50" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC50">
         <v>0</v>
@@ -4935,13 +5085,16 @@
       <c r="AF50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:32">
+      <c r="AG50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4959,16 +5112,16 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J51" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="R51">
         <v>50</v>
       </c>
       <c r="S51" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T51">
         <v>23</v>
@@ -4977,13 +5130,13 @@
         <v>38</v>
       </c>
       <c r="V51" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W51" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z51" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC51">
         <v>0</v>
@@ -4997,13 +5150,16 @@
       <c r="AF51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:32">
+      <c r="AG51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -5021,16 +5177,16 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J52" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="R52">
         <v>51</v>
       </c>
       <c r="S52" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T52">
         <v>23</v>
@@ -5039,13 +5195,13 @@
         <v>38</v>
       </c>
       <c r="V52" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W52" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z52" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC52">
         <v>0</v>
@@ -5059,13 +5215,16 @@
       <c r="AF52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:32">
+      <c r="AG52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -5083,16 +5242,16 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J53" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="R53">
         <v>52</v>
       </c>
       <c r="S53" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T53">
         <v>23</v>
@@ -5101,13 +5260,13 @@
         <v>38</v>
       </c>
       <c r="V53" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W53" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z53" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC53">
         <v>0</v>
@@ -5121,13 +5280,16 @@
       <c r="AF53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:32">
+      <c r="AG53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -5145,16 +5307,16 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J54" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R54">
         <v>53</v>
       </c>
       <c r="S54" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T54">
         <v>23</v>
@@ -5163,13 +5325,13 @@
         <v>38</v>
       </c>
       <c r="V54" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W54" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z54" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC54">
         <v>0</v>
@@ -5183,13 +5345,16 @@
       <c r="AF54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:32">
+      <c r="AG54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B55" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -5207,16 +5372,16 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J55" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R55">
         <v>54</v>
       </c>
       <c r="S55" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T55">
         <v>23</v>
@@ -5225,13 +5390,13 @@
         <v>38</v>
       </c>
       <c r="V55" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W55" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z55" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC55">
         <v>0</v>
@@ -5245,13 +5410,16 @@
       <c r="AF55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:32">
+      <c r="AG55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -5269,16 +5437,16 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J56" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R56">
         <v>55</v>
       </c>
       <c r="S56" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T56">
         <v>23</v>
@@ -5287,13 +5455,13 @@
         <v>38</v>
       </c>
       <c r="V56" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W56" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z56" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC56">
         <v>0</v>
@@ -5307,13 +5475,16 @@
       <c r="AF56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:32">
+      <c r="AG56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B57" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -5331,16 +5502,16 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J57" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="R57">
         <v>56</v>
       </c>
       <c r="S57" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T57">
         <v>23</v>
@@ -5349,13 +5520,13 @@
         <v>38</v>
       </c>
       <c r="V57" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W57" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z57" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC57">
         <v>0</v>
@@ -5369,13 +5540,16 @@
       <c r="AF57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:32">
+      <c r="AG57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B58" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -5393,16 +5567,16 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J58" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R58">
         <v>57</v>
       </c>
       <c r="S58" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T58">
         <v>23</v>
@@ -5411,13 +5585,13 @@
         <v>38</v>
       </c>
       <c r="V58" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W58" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z58" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC58">
         <v>0</v>
@@ -5431,13 +5605,16 @@
       <c r="AF58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:32">
+      <c r="AG58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33">
       <c r="A59" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -5455,19 +5632,19 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I59" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J59" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R59">
         <v>58</v>
       </c>
       <c r="S59" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T59">
         <v>24</v>
@@ -5476,13 +5653,13 @@
         <v>51</v>
       </c>
       <c r="V59" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="W59" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z59" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC59">
         <v>0</v>
@@ -5496,13 +5673,16 @@
       <c r="AF59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:32">
+      <c r="AG59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33">
       <c r="A60" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -5520,19 +5700,19 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I60" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J60" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="R60">
         <v>59</v>
       </c>
       <c r="S60" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T60">
         <v>24</v>
@@ -5541,13 +5721,13 @@
         <v>51</v>
       </c>
       <c r="V60" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="W60" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z60" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC60">
         <v>0</v>
@@ -5561,13 +5741,16 @@
       <c r="AF60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:32">
+      <c r="AG60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B61" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -5585,19 +5768,19 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I61" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J61" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R61">
         <v>60</v>
       </c>
       <c r="S61" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T61">
         <v>24</v>
@@ -5606,13 +5789,13 @@
         <v>51</v>
       </c>
       <c r="V61" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="W61" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z61" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC61">
         <v>0</v>
@@ -5626,13 +5809,16 @@
       <c r="AF61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:32">
+      <c r="AG61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33">
       <c r="A62" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B62" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -5650,19 +5836,19 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I62" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J62" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R62">
         <v>61</v>
       </c>
       <c r="S62" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T62">
         <v>24</v>
@@ -5671,13 +5857,13 @@
         <v>51</v>
       </c>
       <c r="V62" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="W62" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z62" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC62">
         <v>0</v>
@@ -5691,13 +5877,16 @@
       <c r="AF62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:32">
+      <c r="AG62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33">
       <c r="A63" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B63" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -5715,19 +5904,19 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I63" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J63" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R63">
         <v>62</v>
       </c>
       <c r="S63" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T63">
         <v>24</v>
@@ -5736,13 +5925,13 @@
         <v>51</v>
       </c>
       <c r="V63" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="W63" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z63" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC63">
         <v>0</v>
@@ -5756,13 +5945,16 @@
       <c r="AF63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:32">
+      <c r="AG63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33">
       <c r="A64" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B64" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -5780,19 +5972,19 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I64" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J64" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R64">
         <v>63</v>
       </c>
       <c r="S64" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T64">
         <v>24</v>
@@ -5801,13 +5993,13 @@
         <v>51</v>
       </c>
       <c r="V64" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="W64" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z64" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC64">
         <v>0</v>
@@ -5821,13 +6013,16 @@
       <c r="AF64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:32">
+      <c r="AG64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B65" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -5845,16 +6040,16 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J65" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="R65">
         <v>64</v>
       </c>
       <c r="S65" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T65">
         <v>24</v>
@@ -5863,13 +6058,13 @@
         <v>51</v>
       </c>
       <c r="V65" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="W65" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z65" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC65">
         <v>0</v>
@@ -5883,13 +6078,16 @@
       <c r="AF65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:32">
+      <c r="AG65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33">
       <c r="A66" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B66" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -5907,19 +6105,19 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I66" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J66" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R66">
         <v>65</v>
       </c>
       <c r="S66" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T66">
         <v>24</v>
@@ -5928,13 +6126,13 @@
         <v>51</v>
       </c>
       <c r="V66" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="W66" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z66" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC66">
         <v>0</v>
@@ -5948,13 +6146,16 @@
       <c r="AF66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:32">
+      <c r="AG66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B67" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -5972,19 +6173,19 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I67" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J67" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R67">
         <v>66</v>
       </c>
       <c r="S67" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T67">
         <v>24</v>
@@ -5993,13 +6194,13 @@
         <v>51</v>
       </c>
       <c r="V67" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="W67" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z67" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC67">
         <v>0</v>
@@ -6013,13 +6214,16 @@
       <c r="AF67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:32">
+      <c r="AG67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B68" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -6037,19 +6241,19 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I68" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J68" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="R68">
         <v>67</v>
       </c>
       <c r="S68" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T68">
         <v>24</v>
@@ -6058,13 +6262,13 @@
         <v>51</v>
       </c>
       <c r="V68" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="W68" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z68" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC68">
         <v>0</v>
@@ -6078,13 +6282,16 @@
       <c r="AF68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:32">
+      <c r="AG68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B69" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -6102,16 +6309,16 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J69" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="R69">
         <v>68</v>
       </c>
       <c r="S69" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T69">
         <v>26</v>
@@ -6120,13 +6327,13 @@
         <v>55</v>
       </c>
       <c r="V69" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="W69" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="Z69" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC69">
         <v>0</v>
@@ -6140,13 +6347,16 @@
       <c r="AF69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:32">
+      <c r="AG69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B70" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -6164,16 +6374,16 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J70" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="R70">
         <v>69</v>
       </c>
       <c r="S70" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T70">
         <v>26</v>
@@ -6182,13 +6392,13 @@
         <v>55</v>
       </c>
       <c r="V70" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="W70" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="Z70" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC70">
         <v>0</v>
@@ -6202,13 +6412,16 @@
       <c r="AF70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:32">
+      <c r="AG70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33">
       <c r="A71" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B71" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -6226,16 +6439,16 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J71" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="R71">
         <v>70</v>
       </c>
       <c r="S71" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T71">
         <v>26</v>
@@ -6244,13 +6457,13 @@
         <v>55</v>
       </c>
       <c r="V71" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="W71" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="Z71" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC71">
         <v>0</v>
@@ -6264,13 +6477,16 @@
       <c r="AF71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:32">
+      <c r="AG71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33">
       <c r="A72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B72" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -6288,19 +6504,19 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I72" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J72" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="R72">
         <v>71</v>
       </c>
       <c r="S72" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T72">
         <v>27</v>
@@ -6309,13 +6525,13 @@
         <v>56</v>
       </c>
       <c r="V72" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="W72" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="Z72" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC72">
         <v>0</v>
@@ -6329,13 +6545,16 @@
       <c r="AF72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:32">
+      <c r="AG72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33">
       <c r="A73" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B73" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -6353,19 +6572,19 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I73" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J73" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="R73">
         <v>72</v>
       </c>
       <c r="S73" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T73">
         <v>28</v>
@@ -6374,13 +6593,13 @@
         <v>57</v>
       </c>
       <c r="V73" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="W73" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z73" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC73">
         <v>0</v>
@@ -6394,13 +6613,16 @@
       <c r="AF73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:32">
+      <c r="AG73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33">
       <c r="A74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B74" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -6418,19 +6640,19 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I74" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J74" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="R74">
         <v>73</v>
       </c>
       <c r="S74" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T74">
         <v>28</v>
@@ -6439,13 +6661,13 @@
         <v>57</v>
       </c>
       <c r="V74" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="W74" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z74" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC74">
         <v>0</v>
@@ -6459,13 +6681,16 @@
       <c r="AF74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:32">
+      <c r="AG74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B75" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -6483,19 +6708,19 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I75" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J75" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="R75">
         <v>74</v>
       </c>
       <c r="S75" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T75">
         <v>28</v>
@@ -6504,13 +6729,13 @@
         <v>57</v>
       </c>
       <c r="V75" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="W75" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z75" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC75">
         <v>0</v>
@@ -6524,13 +6749,16 @@
       <c r="AF75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:32">
+      <c r="AG75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B76" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -6548,16 +6776,16 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J76" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="R76">
         <v>75</v>
       </c>
       <c r="S76" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T76">
         <v>29</v>
@@ -6566,13 +6794,13 @@
         <v>58</v>
       </c>
       <c r="V76" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="W76" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Z76" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC76">
         <v>0</v>
@@ -6586,13 +6814,16 @@
       <c r="AF76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:32">
+      <c r="AG76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33">
       <c r="A77" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B77" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -6610,16 +6841,16 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J77" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R77">
         <v>76</v>
       </c>
       <c r="S77" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T77">
         <v>29</v>
@@ -6628,13 +6859,13 @@
         <v>58</v>
       </c>
       <c r="V77" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="W77" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Z77" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC77">
         <v>0</v>
@@ -6648,13 +6879,16 @@
       <c r="AF77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:32">
+      <c r="AG77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33">
       <c r="A78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -6672,16 +6906,16 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J78" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="R78">
         <v>77</v>
       </c>
       <c r="S78" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T78">
         <v>29</v>
@@ -6690,13 +6924,13 @@
         <v>58</v>
       </c>
       <c r="V78" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="W78" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Z78" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC78">
         <v>0</v>
@@ -6710,13 +6944,16 @@
       <c r="AF78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:32">
+      <c r="AG78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33">
       <c r="A79" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -6734,16 +6971,16 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J79" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R79">
         <v>78</v>
       </c>
       <c r="S79" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T79">
         <v>29</v>
@@ -6752,13 +6989,13 @@
         <v>58</v>
       </c>
       <c r="V79" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="W79" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Z79" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC79">
         <v>0</v>
@@ -6772,13 +7009,16 @@
       <c r="AF79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:32">
+      <c r="AG79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33">
       <c r="A80" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B80" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -6796,16 +7036,16 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J80" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="R80">
         <v>79</v>
       </c>
       <c r="S80" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T80">
         <v>30</v>
@@ -6814,13 +7054,13 @@
         <v>59</v>
       </c>
       <c r="V80" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="W80" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z80" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC80">
         <v>0</v>
@@ -6834,13 +7074,16 @@
       <c r="AF80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:32">
+      <c r="AG80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B81" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -6858,16 +7101,16 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J81" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="R81">
         <v>80</v>
       </c>
       <c r="S81" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T81">
         <v>30</v>
@@ -6876,13 +7119,13 @@
         <v>59</v>
       </c>
       <c r="V81" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="W81" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z81" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC81">
         <v>0</v>
@@ -6896,13 +7139,16 @@
       <c r="AF81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:32">
+      <c r="AG81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B82" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -6920,16 +7166,16 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J82" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="R82">
         <v>81</v>
       </c>
       <c r="S82" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T82">
         <v>30</v>
@@ -6938,13 +7184,13 @@
         <v>59</v>
       </c>
       <c r="V82" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="W82" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z82" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC82">
         <v>0</v>
@@ -6958,13 +7204,16 @@
       <c r="AF82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:32">
+      <c r="AG82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B83" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -6982,16 +7231,16 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J83" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="R83">
         <v>82</v>
       </c>
       <c r="S83" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T83">
         <v>30</v>
@@ -7000,13 +7249,13 @@
         <v>59</v>
       </c>
       <c r="V83" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="W83" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z83" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC83">
         <v>0</v>
@@ -7020,13 +7269,16 @@
       <c r="AF83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:32">
+      <c r="AG83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33">
       <c r="A84" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B84" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -7044,16 +7296,16 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J84" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="R84">
         <v>83</v>
       </c>
       <c r="S84" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T84">
         <v>30</v>
@@ -7062,13 +7314,13 @@
         <v>59</v>
       </c>
       <c r="V84" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="W84" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z84" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC84">
         <v>0</v>
@@ -7082,13 +7334,16 @@
       <c r="AF84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:32">
+      <c r="AG84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33">
       <c r="A85" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B85" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -7106,16 +7361,16 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J85" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="R85">
         <v>84</v>
       </c>
       <c r="S85" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T85">
         <v>31</v>
@@ -7124,13 +7379,13 @@
         <v>60</v>
       </c>
       <c r="V85" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="W85" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Z85" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC85">
         <v>0</v>
@@ -7144,13 +7399,16 @@
       <c r="AF85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:32">
+      <c r="AG85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33">
       <c r="A86" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B86" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -7168,16 +7426,16 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J86" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="R86">
         <v>85</v>
       </c>
       <c r="S86" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T86">
         <v>32</v>
@@ -7186,13 +7444,13 @@
         <v>61</v>
       </c>
       <c r="V86" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="W86" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Z86" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC86">
         <v>0</v>
@@ -7206,13 +7464,16 @@
       <c r="AF86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:32">
+      <c r="AG86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33">
       <c r="A87" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B87" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -7230,16 +7491,16 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J87" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="R87">
         <v>86</v>
       </c>
       <c r="S87" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T87">
         <v>33</v>
@@ -7248,13 +7509,13 @@
         <v>63</v>
       </c>
       <c r="V87" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="W87" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z87" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC87">
         <v>0</v>
@@ -7268,13 +7529,16 @@
       <c r="AF87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:32">
+      <c r="AG87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33">
       <c r="A88" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B88" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -7292,16 +7556,16 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J88" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R88">
         <v>87</v>
       </c>
       <c r="S88" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T88">
         <v>33</v>
@@ -7310,13 +7574,13 @@
         <v>63</v>
       </c>
       <c r="V88" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="W88" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z88" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC88">
         <v>0</v>
@@ -7330,13 +7594,16 @@
       <c r="AF88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:32">
+      <c r="AG88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33">
       <c r="A89" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B89" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7354,16 +7621,16 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J89" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="R89">
         <v>88</v>
       </c>
       <c r="S89" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T89">
         <v>33</v>
@@ -7372,13 +7639,13 @@
         <v>63</v>
       </c>
       <c r="V89" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="W89" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z89" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC89">
         <v>0</v>
@@ -7392,13 +7659,16 @@
       <c r="AF89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:32">
+      <c r="AG89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33">
       <c r="A90" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B90" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7416,16 +7686,16 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J90" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="R90">
         <v>89</v>
       </c>
       <c r="S90" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T90">
         <v>33</v>
@@ -7434,13 +7704,13 @@
         <v>63</v>
       </c>
       <c r="V90" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="W90" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z90" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC90">
         <v>0</v>
@@ -7454,13 +7724,16 @@
       <c r="AF90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:32">
+      <c r="AG90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33">
       <c r="A91" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B91" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7478,19 +7751,19 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I91" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J91" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="R91">
         <v>90</v>
       </c>
       <c r="S91" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T91">
         <v>33</v>
@@ -7499,13 +7772,13 @@
         <v>63</v>
       </c>
       <c r="V91" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="W91" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z91" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC91">
         <v>0</v>
@@ -7519,13 +7792,16 @@
       <c r="AF91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:32">
+      <c r="AG91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33">
       <c r="A92" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B92" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -7543,16 +7819,16 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J92" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R92">
         <v>91</v>
       </c>
       <c r="S92" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T92">
         <v>34</v>
@@ -7561,13 +7837,13 @@
         <v>64</v>
       </c>
       <c r="V92" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="W92" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="Z92" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC92">
         <v>0</v>
@@ -7581,13 +7857,16 @@
       <c r="AF92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:32">
+      <c r="AG92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33">
       <c r="A93" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B93" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -7605,16 +7884,16 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J93" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="R93">
         <v>92</v>
       </c>
       <c r="S93" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T93">
         <v>34</v>
@@ -7623,13 +7902,13 @@
         <v>64</v>
       </c>
       <c r="V93" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="W93" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="Z93" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC93">
         <v>0</v>
@@ -7643,13 +7922,16 @@
       <c r="AF93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:32">
+      <c r="AG93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33">
       <c r="A94" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B94" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -7667,16 +7949,16 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J94" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="R94">
         <v>93</v>
       </c>
       <c r="S94" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T94">
         <v>34</v>
@@ -7685,13 +7967,13 @@
         <v>64</v>
       </c>
       <c r="V94" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="W94" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="Z94" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC94">
         <v>0</v>
@@ -7705,13 +7987,16 @@
       <c r="AF94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:32">
+      <c r="AG94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33">
       <c r="A95" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B95" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -7729,16 +8014,16 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J95" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R95">
         <v>94</v>
       </c>
       <c r="S95" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T95">
         <v>34</v>
@@ -7747,13 +8032,13 @@
         <v>64</v>
       </c>
       <c r="V95" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="W95" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="Z95" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC95">
         <v>0</v>
@@ -7767,13 +8052,16 @@
       <c r="AF95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:32">
+      <c r="AG95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33">
       <c r="A96" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B96" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -7791,16 +8079,16 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J96" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="R96">
         <v>95</v>
       </c>
       <c r="S96" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T96">
         <v>36</v>
@@ -7809,13 +8097,13 @@
         <v>77</v>
       </c>
       <c r="V96" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="W96" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z96" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC96">
         <v>0</v>
@@ -7829,13 +8117,16 @@
       <c r="AF96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:32">
+      <c r="AG96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33">
       <c r="A97" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B97" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -7853,16 +8144,16 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J97" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R97">
         <v>96</v>
       </c>
       <c r="S97" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T97">
         <v>36</v>
@@ -7871,13 +8162,13 @@
         <v>77</v>
       </c>
       <c r="V97" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="W97" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z97" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC97">
         <v>0</v>
@@ -7891,13 +8182,16 @@
       <c r="AF97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:32">
+      <c r="AG97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33">
       <c r="A98" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B98" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -7915,16 +8209,16 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J98" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="R98">
         <v>97</v>
       </c>
       <c r="S98" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T98">
         <v>36</v>
@@ -7933,13 +8227,13 @@
         <v>77</v>
       </c>
       <c r="V98" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="W98" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z98" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC98">
         <v>0</v>
@@ -7953,13 +8247,16 @@
       <c r="AF98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:32">
+      <c r="AG98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33">
       <c r="A99" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B99" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -7977,19 +8274,19 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I99" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J99" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="R99">
         <v>98</v>
       </c>
       <c r="S99" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T99">
         <v>37</v>
@@ -7998,13 +8295,13 @@
         <v>78</v>
       </c>
       <c r="V99" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="W99" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="Z99" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC99">
         <v>0</v>
@@ -8018,13 +8315,16 @@
       <c r="AF99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:32">
+      <c r="AG99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33">
       <c r="A100" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B100" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8042,16 +8342,16 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J100" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R100">
         <v>99</v>
       </c>
       <c r="S100" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T100">
         <v>38</v>
@@ -8060,13 +8360,13 @@
         <v>80</v>
       </c>
       <c r="V100" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="W100" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="Z100" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC100">
         <v>0</v>
@@ -8080,13 +8380,16 @@
       <c r="AF100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:32">
+      <c r="AG100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33">
       <c r="A101" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B101" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8104,19 +8407,19 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I101" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J101" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="R101">
         <v>100</v>
       </c>
       <c r="S101" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T101">
         <v>39</v>
@@ -8125,13 +8428,13 @@
         <v>81</v>
       </c>
       <c r="V101" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="W101" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z101" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC101">
         <v>0</v>
@@ -8145,13 +8448,16 @@
       <c r="AF101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:32">
+      <c r="AG101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33">
       <c r="A102" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B102" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8169,19 +8475,19 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I102" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J102" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="R102">
         <v>101</v>
       </c>
       <c r="S102" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T102">
         <v>39</v>
@@ -8190,13 +8496,13 @@
         <v>81</v>
       </c>
       <c r="V102" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="W102" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z102" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC102">
         <v>0</v>
@@ -8210,13 +8516,16 @@
       <c r="AF102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:32">
+      <c r="AG102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33">
       <c r="A103" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B103" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8234,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I103" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J103" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R103">
         <v>102</v>
       </c>
       <c r="S103" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T103">
         <v>39</v>
@@ -8255,13 +8564,13 @@
         <v>81</v>
       </c>
       <c r="V103" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="W103" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z103" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC103">
         <v>0</v>
@@ -8275,13 +8584,16 @@
       <c r="AF103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:32">
+      <c r="AG103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33">
       <c r="A104" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B104" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8299,19 +8611,19 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I104" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J104" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R104">
         <v>103</v>
       </c>
       <c r="S104" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T104">
         <v>39</v>
@@ -8320,13 +8632,13 @@
         <v>81</v>
       </c>
       <c r="V104" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="W104" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z104" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC104">
         <v>0</v>
@@ -8340,13 +8652,16 @@
       <c r="AF104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:32">
+      <c r="AG104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33">
       <c r="A105" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B105" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8364,19 +8679,19 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I105" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J105" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R105">
         <v>104</v>
       </c>
       <c r="S105" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T105">
         <v>39</v>
@@ -8385,13 +8700,13 @@
         <v>81</v>
       </c>
       <c r="V105" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="W105" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z105" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC105">
         <v>0</v>
@@ -8405,13 +8720,16 @@
       <c r="AF105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:32">
+      <c r="AG105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33">
       <c r="A106" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B106" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8429,19 +8747,19 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I106" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J106" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="R106">
         <v>105</v>
       </c>
       <c r="S106" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T106">
         <v>39</v>
@@ -8450,13 +8768,13 @@
         <v>81</v>
       </c>
       <c r="V106" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="W106" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z106" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC106">
         <v>0</v>
@@ -8470,13 +8788,16 @@
       <c r="AF106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:32">
+      <c r="AG106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33">
       <c r="A107" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B107" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8494,19 +8815,19 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I107" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J107" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="R107">
         <v>106</v>
       </c>
       <c r="S107" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T107">
         <v>39</v>
@@ -8515,13 +8836,13 @@
         <v>81</v>
       </c>
       <c r="V107" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="W107" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z107" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC107">
         <v>0</v>
@@ -8535,13 +8856,16 @@
       <c r="AF107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:32">
+      <c r="AG107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33">
       <c r="A108" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B108" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -8559,16 +8883,16 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J108" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="R108">
         <v>107</v>
       </c>
       <c r="S108" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T108">
         <v>39</v>
@@ -8577,13 +8901,13 @@
         <v>81</v>
       </c>
       <c r="V108" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="W108" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z108" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC108">
         <v>0</v>
@@ -8597,13 +8921,16 @@
       <c r="AF108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:32">
+      <c r="AG108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33">
       <c r="A109" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B109" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -8621,16 +8948,16 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J109" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="R109">
         <v>108</v>
       </c>
       <c r="S109" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T109">
         <v>39</v>
@@ -8639,13 +8966,13 @@
         <v>81</v>
       </c>
       <c r="V109" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="W109" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z109" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC109">
         <v>0</v>
@@ -8659,13 +8986,16 @@
       <c r="AF109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:32">
+      <c r="AG109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33">
       <c r="A110" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B110" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8683,16 +9013,16 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J110" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="R110">
         <v>109</v>
       </c>
       <c r="S110" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T110">
         <v>39</v>
@@ -8701,13 +9031,13 @@
         <v>81</v>
       </c>
       <c r="V110" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="W110" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z110" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC110">
         <v>0</v>
@@ -8721,13 +9051,16 @@
       <c r="AF110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:32">
+      <c r="AG110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:33">
       <c r="A111" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B111" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8745,16 +9078,16 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J111" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="R111">
         <v>110</v>
       </c>
       <c r="S111" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T111">
         <v>40</v>
@@ -8763,13 +9096,13 @@
         <v>82</v>
       </c>
       <c r="V111" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="W111" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="Z111" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC111">
         <v>0</v>
@@ -8783,13 +9116,16 @@
       <c r="AF111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:32">
+      <c r="AG111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:33">
       <c r="A112" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B112" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8807,16 +9143,16 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J112" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="R112">
         <v>111</v>
       </c>
       <c r="S112" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T112">
         <v>40</v>
@@ -8825,13 +9161,13 @@
         <v>82</v>
       </c>
       <c r="V112" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="W112" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="Z112" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC112">
         <v>0</v>
@@ -8845,13 +9181,16 @@
       <c r="AF112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:32">
+      <c r="AG112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:33">
       <c r="A113" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B113" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8869,16 +9208,16 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J113" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="R113">
         <v>112</v>
       </c>
       <c r="S113" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T113">
         <v>42</v>
@@ -8887,13 +9226,13 @@
         <v>84</v>
       </c>
       <c r="V113" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="W113" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Z113" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC113">
         <v>0</v>
@@ -8907,13 +9246,16 @@
       <c r="AF113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:32">
+      <c r="AG113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:33">
       <c r="A114" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B114" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8931,16 +9273,16 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J114" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="R114">
         <v>113</v>
       </c>
       <c r="S114" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T114">
         <v>44</v>
@@ -8949,13 +9291,13 @@
         <v>87</v>
       </c>
       <c r="V114" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="W114" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z114" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC114">
         <v>0</v>
@@ -8969,13 +9311,16 @@
       <c r="AF114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:32">
+      <c r="AG114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:33">
       <c r="A115" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B115" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -8993,16 +9338,16 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J115" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="R115">
         <v>114</v>
       </c>
       <c r="S115" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T115">
         <v>44</v>
@@ -9011,13 +9356,13 @@
         <v>87</v>
       </c>
       <c r="V115" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="W115" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z115" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC115">
         <v>0</v>
@@ -9031,13 +9376,16 @@
       <c r="AF115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:32">
+      <c r="AG115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:33">
       <c r="A116" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B116" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -9055,16 +9403,16 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J116" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="R116">
         <v>115</v>
       </c>
       <c r="S116" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T116">
         <v>44</v>
@@ -9073,13 +9421,13 @@
         <v>87</v>
       </c>
       <c r="V116" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="W116" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z116" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC116">
         <v>0</v>
@@ -9093,13 +9441,16 @@
       <c r="AF116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:32">
+      <c r="AG116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:33">
       <c r="A117" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B117" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -9117,16 +9468,16 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J117" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="R117">
         <v>116</v>
       </c>
       <c r="S117" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T117">
         <v>44</v>
@@ -9135,13 +9486,13 @@
         <v>87</v>
       </c>
       <c r="V117" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="W117" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z117" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC117">
         <v>0</v>
@@ -9155,13 +9506,16 @@
       <c r="AF117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:32">
+      <c r="AG117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:33">
       <c r="A118" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B118" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -9179,16 +9533,16 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J118" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="R118">
         <v>117</v>
       </c>
       <c r="S118" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T118">
         <v>44</v>
@@ -9197,13 +9551,13 @@
         <v>87</v>
       </c>
       <c r="V118" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="W118" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z118" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC118">
         <v>0</v>
@@ -9217,13 +9571,16 @@
       <c r="AF118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:32">
+      <c r="AG118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:33">
       <c r="A119" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B119" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9241,16 +9598,16 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J119" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="R119">
         <v>118</v>
       </c>
       <c r="S119" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T119">
         <v>45</v>
@@ -9259,13 +9616,13 @@
         <v>88</v>
       </c>
       <c r="V119" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="W119" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z119" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC119">
         <v>0</v>
@@ -9279,13 +9636,16 @@
       <c r="AF119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:32">
+      <c r="AG119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:33">
       <c r="A120" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B120" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9303,16 +9663,16 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J120" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="R120">
         <v>119</v>
       </c>
       <c r="S120" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T120">
         <v>45</v>
@@ -9321,13 +9681,13 @@
         <v>88</v>
       </c>
       <c r="V120" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="W120" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z120" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC120">
         <v>0</v>
@@ -9341,13 +9701,16 @@
       <c r="AF120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:32">
+      <c r="AG120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:33">
       <c r="A121" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B121" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9365,16 +9728,16 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J121" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="R121">
         <v>120</v>
       </c>
       <c r="S121" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T121">
         <v>46</v>
@@ -9383,13 +9746,13 @@
         <v>90</v>
       </c>
       <c r="V121" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="W121" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z121" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC121">
         <v>0</v>
@@ -9403,13 +9766,16 @@
       <c r="AF121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:32">
+      <c r="AG121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:33">
       <c r="A122" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B122" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9427,16 +9793,16 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J122" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="R122">
         <v>121</v>
       </c>
       <c r="S122" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T122">
         <v>46</v>
@@ -9445,13 +9811,13 @@
         <v>90</v>
       </c>
       <c r="V122" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="W122" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z122" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC122">
         <v>0</v>
@@ -9465,13 +9831,16 @@
       <c r="AF122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:32">
+      <c r="AG122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:33">
       <c r="A123" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B123" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9489,16 +9858,16 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J123" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="R123">
         <v>122</v>
       </c>
       <c r="S123" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T123">
         <v>46</v>
@@ -9507,13 +9876,13 @@
         <v>90</v>
       </c>
       <c r="V123" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="W123" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z123" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC123">
         <v>0</v>
@@ -9527,13 +9896,16 @@
       <c r="AF123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:32">
+      <c r="AG123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:33">
       <c r="A124" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B124" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -9551,16 +9923,16 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J124" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="R124">
         <v>123</v>
       </c>
       <c r="S124" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T124">
         <v>47</v>
@@ -9569,13 +9941,13 @@
         <v>91</v>
       </c>
       <c r="V124" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="W124" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Z124" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC124">
         <v>0</v>
@@ -9589,13 +9961,16 @@
       <c r="AF124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:32">
+      <c r="AG124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:33">
       <c r="A125" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B125" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -9613,16 +9988,16 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J125" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="R125">
         <v>124</v>
       </c>
       <c r="S125" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T125">
         <v>47</v>
@@ -9631,13 +10006,13 @@
         <v>91</v>
       </c>
       <c r="V125" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="W125" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Z125" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC125">
         <v>0</v>
@@ -9651,13 +10026,16 @@
       <c r="AF125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:32">
+      <c r="AG125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:33">
       <c r="A126" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B126" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -9675,16 +10053,16 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J126" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="R126">
         <v>125</v>
       </c>
       <c r="S126" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T126">
         <v>47</v>
@@ -9693,13 +10071,13 @@
         <v>91</v>
       </c>
       <c r="V126" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="W126" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Z126" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC126">
         <v>0</v>
@@ -9713,13 +10091,16 @@
       <c r="AF126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:32">
+      <c r="AG126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:33">
       <c r="A127" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B127" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9737,16 +10118,16 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J127" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="R127">
         <v>126</v>
       </c>
       <c r="S127" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T127">
         <v>48</v>
@@ -9755,13 +10136,13 @@
         <v>92</v>
       </c>
       <c r="V127" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="W127" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="Z127" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC127">
         <v>0</v>
@@ -9775,13 +10156,16 @@
       <c r="AF127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:32">
+      <c r="AG127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:33">
       <c r="A128" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B128" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -9799,19 +10183,19 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I128" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J128" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="R128">
         <v>127</v>
       </c>
       <c r="S128" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T128">
         <v>49</v>
@@ -9820,13 +10204,13 @@
         <v>93</v>
       </c>
       <c r="V128" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="W128" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z128" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC128">
         <v>0</v>
@@ -9840,13 +10224,16 @@
       <c r="AF128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:32">
+      <c r="AG128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:33">
       <c r="A129" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B129" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -9864,19 +10251,19 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I129" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J129" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="R129">
         <v>128</v>
       </c>
       <c r="S129" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T129">
         <v>49</v>
@@ -9885,13 +10272,13 @@
         <v>93</v>
       </c>
       <c r="V129" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="W129" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z129" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC129">
         <v>0</v>
@@ -9905,13 +10292,16 @@
       <c r="AF129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:32">
+      <c r="AG129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:33">
       <c r="A130" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B130" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -9929,19 +10319,19 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I130" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J130" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="R130">
         <v>129</v>
       </c>
       <c r="S130" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T130">
         <v>49</v>
@@ -9950,13 +10340,13 @@
         <v>93</v>
       </c>
       <c r="V130" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="W130" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z130" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC130">
         <v>0</v>
@@ -9970,13 +10360,16 @@
       <c r="AF130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:32">
+      <c r="AG130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:33">
       <c r="A131" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B131" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -9994,19 +10387,19 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I131" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J131" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="R131">
         <v>130</v>
       </c>
       <c r="S131" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T131">
         <v>49</v>
@@ -10015,13 +10408,13 @@
         <v>93</v>
       </c>
       <c r="V131" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="W131" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z131" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC131">
         <v>0</v>
@@ -10035,13 +10428,16 @@
       <c r="AF131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:32">
+      <c r="AG131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:33">
       <c r="A132" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B132" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -10059,16 +10455,16 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J132" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="R132">
         <v>131</v>
       </c>
       <c r="S132" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T132">
         <v>50</v>
@@ -10077,13 +10473,13 @@
         <v>94</v>
       </c>
       <c r="V132" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="W132" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="Z132" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC132">
         <v>0</v>
@@ -10097,13 +10493,16 @@
       <c r="AF132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:32">
+      <c r="AG132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:33">
       <c r="A133" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B133" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -10121,16 +10520,16 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J133" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="R133">
         <v>132</v>
       </c>
       <c r="S133" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T133">
         <v>50</v>
@@ -10139,13 +10538,13 @@
         <v>94</v>
       </c>
       <c r="V133" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="W133" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="Z133" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC133">
         <v>0</v>
@@ -10159,13 +10558,16 @@
       <c r="AF133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:32">
+      <c r="AG133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:33">
       <c r="A134" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B134" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -10183,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J134" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="R134">
         <v>133</v>
       </c>
       <c r="S134" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T134">
         <v>50</v>
@@ -10201,13 +10603,13 @@
         <v>94</v>
       </c>
       <c r="V134" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="W134" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="Z134" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC134">
         <v>0</v>
@@ -10221,13 +10623,16 @@
       <c r="AF134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:32">
+      <c r="AG134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:33">
       <c r="A135" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B135" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -10245,16 +10650,16 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J135" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="R135">
         <v>134</v>
       </c>
       <c r="S135" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T135">
         <v>50</v>
@@ -10263,13 +10668,13 @@
         <v>94</v>
       </c>
       <c r="V135" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="W135" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="Z135" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC135">
         <v>0</v>
@@ -10283,13 +10688,16 @@
       <c r="AF135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:32">
+      <c r="AG135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:33">
       <c r="A136" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B136" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10307,16 +10715,16 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J136" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="R136">
         <v>135</v>
       </c>
       <c r="S136" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T136">
         <v>51</v>
@@ -10325,13 +10733,13 @@
         <v>95</v>
       </c>
       <c r="V136" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="W136" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z136" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC136">
         <v>0</v>
@@ -10345,13 +10753,16 @@
       <c r="AF136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:32">
+      <c r="AG136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:33">
       <c r="A137" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B137" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10369,16 +10780,16 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J137" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="R137">
         <v>136</v>
       </c>
       <c r="S137" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T137">
         <v>51</v>
@@ -10387,13 +10798,13 @@
         <v>95</v>
       </c>
       <c r="V137" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="W137" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z137" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC137">
         <v>0</v>
@@ -10407,13 +10818,16 @@
       <c r="AF137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:32">
+      <c r="AG137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:33">
       <c r="A138" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B138" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10431,16 +10845,16 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J138" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="R138">
         <v>137</v>
       </c>
       <c r="S138" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T138">
         <v>52</v>
@@ -10449,13 +10863,13 @@
         <v>96</v>
       </c>
       <c r="V138" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="W138" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="Z138" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC138">
         <v>0</v>
@@ -10469,13 +10883,16 @@
       <c r="AF138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:32">
+      <c r="AG138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:33">
       <c r="A139" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B139" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -10493,16 +10910,16 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J139" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="R139">
         <v>138</v>
       </c>
       <c r="S139" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T139">
         <v>53</v>
@@ -10511,13 +10928,13 @@
         <v>98</v>
       </c>
       <c r="V139" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="W139" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="Z139" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC139">
         <v>0</v>
@@ -10531,13 +10948,16 @@
       <c r="AF139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:32">
+      <c r="AG139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:33">
       <c r="A140" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B140" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10555,16 +10975,16 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J140" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="R140">
         <v>139</v>
       </c>
       <c r="S140" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T140">
         <v>54</v>
@@ -10573,13 +10993,13 @@
         <v>99</v>
       </c>
       <c r="V140" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="W140" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z140" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC140">
         <v>0</v>
@@ -10593,13 +11013,16 @@
       <c r="AF140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:32">
+      <c r="AG140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:33">
       <c r="A141" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B141" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10617,16 +11040,16 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J141" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="R141">
         <v>140</v>
       </c>
       <c r="S141" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T141">
         <v>54</v>
@@ -10635,13 +11058,13 @@
         <v>99</v>
       </c>
       <c r="V141" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="W141" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z141" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC141">
         <v>0</v>
@@ -10655,13 +11078,16 @@
       <c r="AF141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:32">
+      <c r="AG141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:33">
       <c r="A142" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B142" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10679,16 +11105,16 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J142" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="R142">
         <v>141</v>
       </c>
       <c r="S142" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T142">
         <v>54</v>
@@ -10697,13 +11123,13 @@
         <v>99</v>
       </c>
       <c r="V142" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="W142" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z142" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC142">
         <v>0</v>
@@ -10717,13 +11143,16 @@
       <c r="AF142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:32">
+      <c r="AG142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:33">
       <c r="A143" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B143" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10741,16 +11170,16 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J143" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="R143">
         <v>142</v>
       </c>
       <c r="S143" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T143">
         <v>54</v>
@@ -10759,13 +11188,13 @@
         <v>99</v>
       </c>
       <c r="V143" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="W143" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z143" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC143">
         <v>0</v>
@@ -10779,13 +11208,16 @@
       <c r="AF143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:32">
+      <c r="AG143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:33">
       <c r="A144" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B144" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -10803,16 +11235,16 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J144" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="R144">
         <v>143</v>
       </c>
       <c r="S144" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T144">
         <v>55</v>
@@ -10821,13 +11253,13 @@
         <v>100</v>
       </c>
       <c r="V144" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="W144" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z144" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC144">
         <v>0</v>
@@ -10841,13 +11273,16 @@
       <c r="AF144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:32">
+      <c r="AG144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:33">
       <c r="A145" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B145" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -10865,16 +11300,16 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J145" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="R145">
         <v>144</v>
       </c>
       <c r="S145" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T145">
         <v>55</v>
@@ -10883,13 +11318,13 @@
         <v>100</v>
       </c>
       <c r="V145" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="W145" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z145" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC145">
         <v>0</v>
@@ -10903,13 +11338,16 @@
       <c r="AF145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:32">
+      <c r="AG145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:33">
       <c r="A146" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B146" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -10927,16 +11365,16 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J146" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="R146">
         <v>145</v>
       </c>
       <c r="S146" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T146">
         <v>55</v>
@@ -10945,13 +11383,13 @@
         <v>100</v>
       </c>
       <c r="V146" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="W146" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z146" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC146">
         <v>0</v>
@@ -10965,13 +11403,16 @@
       <c r="AF146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:32">
+      <c r="AG146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:33">
       <c r="A147" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B147" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -10989,16 +11430,16 @@
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J147" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="R147">
         <v>146</v>
       </c>
       <c r="S147" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T147">
         <v>56</v>
@@ -11007,13 +11448,13 @@
         <v>101</v>
       </c>
       <c r="V147" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="W147" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Z147" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC147">
         <v>0</v>
@@ -11027,13 +11468,16 @@
       <c r="AF147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:32">
+      <c r="AG147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:33">
       <c r="A148" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B148" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -11051,16 +11495,16 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J148" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="R148">
         <v>147</v>
       </c>
       <c r="S148" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T148">
         <v>57</v>
@@ -11069,13 +11513,13 @@
         <v>102</v>
       </c>
       <c r="V148" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="W148" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Z148" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC148">
         <v>0</v>
@@ -11089,13 +11533,16 @@
       <c r="AF148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:32">
+      <c r="AG148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:33">
       <c r="A149" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B149" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -11113,16 +11560,16 @@
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J149" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="R149">
         <v>148</v>
       </c>
       <c r="S149" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T149">
         <v>57</v>
@@ -11131,13 +11578,13 @@
         <v>102</v>
       </c>
       <c r="V149" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="W149" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Z149" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC149">
         <v>0</v>
@@ -11151,13 +11598,16 @@
       <c r="AF149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:32">
+      <c r="AG149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:33">
       <c r="A150" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B150" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -11175,16 +11625,16 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J150" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="R150">
         <v>149</v>
       </c>
       <c r="S150" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T150">
         <v>57</v>
@@ -11193,13 +11643,13 @@
         <v>102</v>
       </c>
       <c r="V150" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="W150" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Z150" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC150">
         <v>0</v>
@@ -11213,13 +11663,16 @@
       <c r="AF150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:32">
+      <c r="AG150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:33">
       <c r="A151" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B151" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -11237,16 +11690,16 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J151" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="R151">
         <v>150</v>
       </c>
       <c r="S151" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T151">
         <v>58</v>
@@ -11255,13 +11708,13 @@
         <v>103</v>
       </c>
       <c r="V151" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="W151" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="Z151" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC151">
         <v>0</v>
@@ -11275,13 +11728,16 @@
       <c r="AF151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:32">
+      <c r="AG151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:33">
       <c r="A152" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B152" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -11299,16 +11755,16 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J152" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="R152">
         <v>151</v>
       </c>
       <c r="S152" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T152">
         <v>59</v>
@@ -11317,13 +11773,13 @@
         <v>104</v>
       </c>
       <c r="V152" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="W152" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z152" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC152">
         <v>0</v>
@@ -11337,13 +11793,16 @@
       <c r="AF152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:32">
+      <c r="AG152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:33">
       <c r="A153" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B153" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -11361,16 +11820,16 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J153" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="R153">
         <v>152</v>
       </c>
       <c r="S153" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T153">
         <v>59</v>
@@ -11379,13 +11838,13 @@
         <v>104</v>
       </c>
       <c r="V153" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="W153" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z153" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC153">
         <v>0</v>
@@ -11399,13 +11858,16 @@
       <c r="AF153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:32">
+      <c r="AG153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:33">
       <c r="A154" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B154" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -11423,16 +11885,16 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J154" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="R154">
         <v>153</v>
       </c>
       <c r="S154" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T154">
         <v>59</v>
@@ -11441,13 +11903,13 @@
         <v>104</v>
       </c>
       <c r="V154" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="W154" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z154" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC154">
         <v>0</v>
@@ -11461,13 +11923,16 @@
       <c r="AF154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:32">
+      <c r="AG154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:33">
       <c r="A155" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B155" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -11485,16 +11950,16 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J155" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="R155">
         <v>154</v>
       </c>
       <c r="S155" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T155">
         <v>59</v>
@@ -11503,13 +11968,13 @@
         <v>104</v>
       </c>
       <c r="V155" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="W155" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z155" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC155">
         <v>0</v>
@@ -11523,13 +11988,16 @@
       <c r="AF155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:32">
+      <c r="AG155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:33">
       <c r="A156" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B156" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -11547,16 +12015,16 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J156" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="R156">
         <v>155</v>
       </c>
       <c r="S156" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T156">
         <v>60</v>
@@ -11565,13 +12033,13 @@
         <v>105</v>
       </c>
       <c r="V156" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="W156" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="Z156" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC156">
         <v>0</v>
@@ -11585,13 +12053,16 @@
       <c r="AF156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:32">
+      <c r="AG156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:33">
       <c r="A157" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B157" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -11609,16 +12080,16 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J157" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="R157">
         <v>156</v>
       </c>
       <c r="S157" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T157">
         <v>61</v>
@@ -11627,13 +12098,13 @@
         <v>106</v>
       </c>
       <c r="V157" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="W157" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="Z157" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC157">
         <v>0</v>
@@ -11647,13 +12118,16 @@
       <c r="AF157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:32">
+      <c r="AG157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:33">
       <c r="A158" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B158" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -11671,16 +12145,16 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J158" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="R158">
         <v>157</v>
       </c>
       <c r="S158" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T158">
         <v>64</v>
@@ -11689,13 +12163,13 @@
         <v>110</v>
       </c>
       <c r="V158" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="W158" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="Z158" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC158">
         <v>0</v>
@@ -11709,13 +12183,16 @@
       <c r="AF158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:32">
+      <c r="AG158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:33">
       <c r="A159" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B159" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -11733,16 +12210,16 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J159" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="R159">
         <v>158</v>
       </c>
       <c r="S159" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T159">
         <v>65</v>
@@ -11751,13 +12228,13 @@
         <v>111</v>
       </c>
       <c r="V159" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="W159" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="Z159" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC159">
         <v>0</v>
@@ -11771,13 +12248,16 @@
       <c r="AF159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:32">
+      <c r="AG159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:33">
       <c r="A160" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B160" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -11795,16 +12275,16 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J160" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="R160">
         <v>159</v>
       </c>
       <c r="S160" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T160">
         <v>66</v>
@@ -11813,13 +12293,13 @@
         <v>113</v>
       </c>
       <c r="V160" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="W160" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="Z160" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC160">
         <v>0</v>
@@ -11833,13 +12313,16 @@
       <c r="AF160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:32">
+      <c r="AG160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:33">
       <c r="A161" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B161" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -11857,19 +12340,19 @@
         <v>0</v>
       </c>
       <c r="H161" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I161" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J161" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="R161">
         <v>160</v>
       </c>
       <c r="S161" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T161">
         <v>68</v>
@@ -11878,13 +12361,13 @@
         <v>115</v>
       </c>
       <c r="V161" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="W161" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="Z161" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC161">
         <v>0</v>
@@ -11898,13 +12381,16 @@
       <c r="AF161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:32">
+      <c r="AG161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:33">
       <c r="A162" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B162" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -11922,16 +12408,16 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J162" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="R162">
         <v>161</v>
       </c>
       <c r="S162" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T162">
         <v>71</v>
@@ -11940,13 +12426,13 @@
         <v>119</v>
       </c>
       <c r="V162" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="W162" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z162" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC162">
         <v>0</v>
@@ -11960,13 +12446,16 @@
       <c r="AF162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:32">
+      <c r="AG162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:33">
       <c r="A163" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B163" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -11984,16 +12473,16 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J163" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="R163">
         <v>162</v>
       </c>
       <c r="S163" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T163">
         <v>71</v>
@@ -12002,13 +12491,13 @@
         <v>119</v>
       </c>
       <c r="V163" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="W163" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z163" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC163">
         <v>0</v>
@@ -12020,6 +12509,9 @@
         <v>0</v>
       </c>
       <c r="AF163">
+        <v>0</v>
+      </c>
+      <c r="AG163">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p16.xlsx
+++ b/files/separadas/repeat_p16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="459">
   <si>
     <t>p16_rom</t>
   </si>
@@ -107,12 +107,6 @@
   </si>
   <si>
     <t>c3</t>
-  </si>
-  <si>
-    <t>s_i</t>
-  </si>
-  <si>
-    <t>c4</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1779,13 +1773,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH163"/>
+  <dimension ref="A1:AF163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1882,19 +1876,13 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1912,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J2" t="s">
         <v>234</v>
       </c>
-      <c r="J2" t="s">
-        <v>236</v>
-      </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T2">
         <v>2</v>
@@ -1930,13 +1918,13 @@
         <v>6</v>
       </c>
       <c r="V2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="W2" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="Z2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1950,19 +1938,13 @@
       <c r="AF2">
         <v>0</v>
       </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
+    </row>
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1980,16 +1962,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="R3">
         <v>2</v>
       </c>
       <c r="S3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T3">
         <v>3</v>
@@ -1998,13 +1980,13 @@
         <v>7</v>
       </c>
       <c r="V3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="W3" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="Z3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -2018,19 +2000,13 @@
       <c r="AF3">
         <v>0</v>
       </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34">
+    </row>
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2048,16 +2024,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="R4">
         <v>3</v>
       </c>
       <c r="S4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T4">
         <v>3</v>
@@ -2066,13 +2042,13 @@
         <v>7</v>
       </c>
       <c r="V4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="W4" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="Z4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -2086,19 +2062,13 @@
       <c r="AF4">
         <v>0</v>
       </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34">
+    </row>
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2116,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="R5">
         <v>4</v>
       </c>
       <c r="S5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T5">
         <v>4</v>
@@ -2137,13 +2107,13 @@
         <v>9</v>
       </c>
       <c r="V5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="W5" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="Z5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -2157,19 +2127,13 @@
       <c r="AF5">
         <v>0</v>
       </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34">
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2187,16 +2151,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="R6">
         <v>5</v>
       </c>
       <c r="S6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T6">
         <v>5</v>
@@ -2205,13 +2169,13 @@
         <v>10</v>
       </c>
       <c r="V6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="W6" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -2225,19 +2189,13 @@
       <c r="AF6">
         <v>0</v>
       </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34">
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2255,16 +2213,16 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="R7">
         <v>6</v>
       </c>
       <c r="S7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T7">
         <v>5</v>
@@ -2273,13 +2231,13 @@
         <v>10</v>
       </c>
       <c r="V7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="W7" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -2293,19 +2251,13 @@
       <c r="AF7">
         <v>0</v>
       </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34">
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2323,16 +2275,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="R8">
         <v>7</v>
       </c>
       <c r="S8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T8">
         <v>5</v>
@@ -2341,13 +2293,13 @@
         <v>10</v>
       </c>
       <c r="V8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="W8" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -2361,19 +2313,13 @@
       <c r="AF8">
         <v>0</v>
       </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34">
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2391,16 +2337,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="R9">
         <v>8</v>
       </c>
       <c r="S9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T9">
         <v>5</v>
@@ -2409,13 +2355,13 @@
         <v>10</v>
       </c>
       <c r="V9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="W9" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -2429,19 +2375,13 @@
       <c r="AF9">
         <v>0</v>
       </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34">
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2459,16 +2399,16 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="R10">
         <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T10">
         <v>5</v>
@@ -2477,13 +2417,13 @@
         <v>10</v>
       </c>
       <c r="V10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="W10" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -2497,19 +2437,13 @@
       <c r="AF10">
         <v>0</v>
       </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34">
+    </row>
+    <row r="11" spans="1:32">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2527,16 +2461,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="R11">
         <v>10</v>
       </c>
       <c r="S11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T11">
         <v>6</v>
@@ -2545,13 +2479,13 @@
         <v>12</v>
       </c>
       <c r="V11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="W11" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="Z11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -2565,19 +2499,13 @@
       <c r="AF11">
         <v>0</v>
       </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34">
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2595,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="R12">
         <v>11</v>
       </c>
       <c r="S12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T12">
         <v>7</v>
@@ -2613,13 +2541,13 @@
         <v>13</v>
       </c>
       <c r="V12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="W12" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="Z12" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -2633,19 +2561,13 @@
       <c r="AF12">
         <v>0</v>
       </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34">
+    </row>
+    <row r="13" spans="1:32">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2663,16 +2585,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="R13">
         <v>12</v>
       </c>
       <c r="S13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T13">
         <v>9</v>
@@ -2681,13 +2603,13 @@
         <v>15</v>
       </c>
       <c r="V13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="W13" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Z13" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -2701,19 +2623,13 @@
       <c r="AF13">
         <v>0</v>
       </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34">
+    </row>
+    <row r="14" spans="1:32">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2731,16 +2647,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="R14">
         <v>13</v>
       </c>
       <c r="S14" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T14">
         <v>9</v>
@@ -2749,13 +2665,13 @@
         <v>15</v>
       </c>
       <c r="V14" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="W14" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Z14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -2769,19 +2685,13 @@
       <c r="AF14">
         <v>0</v>
       </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34">
+    </row>
+    <row r="15" spans="1:32">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2799,16 +2709,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="R15">
         <v>14</v>
       </c>
       <c r="S15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T15">
         <v>10</v>
@@ -2817,13 +2727,13 @@
         <v>16</v>
       </c>
       <c r="V15" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="W15" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="Z15" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -2837,19 +2747,13 @@
       <c r="AF15">
         <v>0</v>
       </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34">
+    </row>
+    <row r="16" spans="1:32">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2867,19 +2771,19 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="R16">
         <v>15</v>
       </c>
       <c r="S16" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T16">
         <v>10</v>
@@ -2888,13 +2792,13 @@
         <v>16</v>
       </c>
       <c r="V16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="W16" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="Z16" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -2908,19 +2812,13 @@
       <c r="AF16">
         <v>0</v>
       </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34">
+    </row>
+    <row r="17" spans="1:32">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2938,16 +2836,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="R17">
         <v>16</v>
       </c>
       <c r="S17" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T17">
         <v>11</v>
@@ -2956,13 +2854,13 @@
         <v>17</v>
       </c>
       <c r="V17" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="W17" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -2976,19 +2874,13 @@
       <c r="AF17">
         <v>0</v>
       </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34">
+    </row>
+    <row r="18" spans="1:32">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3006,16 +2898,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="R18">
         <v>17</v>
       </c>
       <c r="S18" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T18">
         <v>11</v>
@@ -3024,13 +2916,13 @@
         <v>17</v>
       </c>
       <c r="V18" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="W18" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z18" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC18">
         <v>0</v>
@@ -3044,19 +2936,13 @@
       <c r="AF18">
         <v>0</v>
       </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34">
+    </row>
+    <row r="19" spans="1:32">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3074,16 +2960,16 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="R19">
         <v>18</v>
       </c>
       <c r="S19" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T19">
         <v>11</v>
@@ -3092,13 +2978,13 @@
         <v>17</v>
       </c>
       <c r="V19" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="W19" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z19" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -3112,19 +2998,13 @@
       <c r="AF19">
         <v>0</v>
       </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34">
+    </row>
+    <row r="20" spans="1:32">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -3142,16 +3022,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="R20">
         <v>19</v>
       </c>
       <c r="S20" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T20">
         <v>11</v>
@@ -3160,13 +3040,13 @@
         <v>17</v>
       </c>
       <c r="V20" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="W20" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z20" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -3180,19 +3060,13 @@
       <c r="AF20">
         <v>0</v>
       </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34">
+    </row>
+    <row r="21" spans="1:32">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -3210,16 +3084,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="R21">
         <v>20</v>
       </c>
       <c r="S21" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T21">
         <v>11</v>
@@ -3228,13 +3102,13 @@
         <v>17</v>
       </c>
       <c r="V21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="W21" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z21" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -3248,19 +3122,13 @@
       <c r="AF21">
         <v>0</v>
       </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34">
+    </row>
+    <row r="22" spans="1:32">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -3278,16 +3146,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J22" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="R22">
         <v>21</v>
       </c>
       <c r="S22" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T22">
         <v>11</v>
@@ -3296,13 +3164,13 @@
         <v>17</v>
       </c>
       <c r="V22" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="W22" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z22" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -3316,19 +3184,13 @@
       <c r="AF22">
         <v>0</v>
       </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34">
+    </row>
+    <row r="23" spans="1:32">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -3346,16 +3208,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="R23">
         <v>22</v>
       </c>
       <c r="S23" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T23">
         <v>11</v>
@@ -3364,13 +3226,13 @@
         <v>17</v>
       </c>
       <c r="V23" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="W23" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z23" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC23">
         <v>0</v>
@@ -3384,19 +3246,13 @@
       <c r="AF23">
         <v>0</v>
       </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34">
+    </row>
+    <row r="24" spans="1:32">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3414,16 +3270,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J24" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="R24">
         <v>23</v>
       </c>
       <c r="S24" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T24">
         <v>11</v>
@@ -3432,13 +3288,13 @@
         <v>17</v>
       </c>
       <c r="V24" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="W24" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z24" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -3452,19 +3308,13 @@
       <c r="AF24">
         <v>0</v>
       </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34">
+    </row>
+    <row r="25" spans="1:32">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -3482,19 +3332,19 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J25" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="R25">
         <v>24</v>
       </c>
       <c r="S25" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T25">
         <v>12</v>
@@ -3503,13 +3353,13 @@
         <v>18</v>
       </c>
       <c r="V25" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="W25" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="Z25" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -3523,19 +3373,13 @@
       <c r="AF25">
         <v>0</v>
       </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34">
+    </row>
+    <row r="26" spans="1:32">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -3553,16 +3397,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J26" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="R26">
         <v>25</v>
       </c>
       <c r="S26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T26">
         <v>13</v>
@@ -3571,13 +3415,13 @@
         <v>20</v>
       </c>
       <c r="V26" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="W26" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="Z26" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -3591,19 +3435,13 @@
       <c r="AF26">
         <v>0</v>
       </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34">
+    </row>
+    <row r="27" spans="1:32">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -3621,16 +3459,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J27" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="R27">
         <v>26</v>
       </c>
       <c r="S27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T27">
         <v>13</v>
@@ -3639,13 +3477,13 @@
         <v>20</v>
       </c>
       <c r="V27" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="W27" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="Z27" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -3659,19 +3497,13 @@
       <c r="AF27">
         <v>0</v>
       </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34">
+    </row>
+    <row r="28" spans="1:32">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -3689,16 +3521,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J28" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="R28">
         <v>27</v>
       </c>
       <c r="S28" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T28">
         <v>14</v>
@@ -3707,13 +3539,13 @@
         <v>21</v>
       </c>
       <c r="V28" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="W28" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="Z28" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -3727,19 +3559,13 @@
       <c r="AF28">
         <v>0</v>
       </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34">
+    </row>
+    <row r="29" spans="1:32">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -3757,16 +3583,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J29" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="R29">
         <v>28</v>
       </c>
       <c r="S29" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T29">
         <v>15</v>
@@ -3775,13 +3601,13 @@
         <v>22</v>
       </c>
       <c r="V29" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="W29" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Z29" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -3795,19 +3621,13 @@
       <c r="AF29">
         <v>0</v>
       </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34">
+    </row>
+    <row r="30" spans="1:32">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -3825,16 +3645,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="R30">
         <v>29</v>
       </c>
       <c r="S30" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T30">
         <v>15</v>
@@ -3843,13 +3663,13 @@
         <v>22</v>
       </c>
       <c r="V30" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="W30" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Z30" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AC30">
         <v>0</v>
@@ -3863,19 +3683,13 @@
       <c r="AF30">
         <v>0</v>
       </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34">
+    </row>
+    <row r="31" spans="1:32">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -3893,16 +3707,16 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J31" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="R31">
         <v>30</v>
       </c>
       <c r="S31" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T31">
         <v>15</v>
@@ -3911,13 +3725,13 @@
         <v>22</v>
       </c>
       <c r="V31" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="W31" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Z31" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -3931,19 +3745,13 @@
       <c r="AF31">
         <v>0</v>
       </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34">
+    </row>
+    <row r="32" spans="1:32">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3961,16 +3769,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J32" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="R32">
         <v>31</v>
       </c>
       <c r="S32" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T32">
         <v>16</v>
@@ -3979,13 +3787,13 @@
         <v>25</v>
       </c>
       <c r="V32" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="W32" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="Z32" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC32">
         <v>0</v>
@@ -3999,19 +3807,13 @@
       <c r="AF32">
         <v>0</v>
       </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:34">
+    </row>
+    <row r="33" spans="1:32">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -4029,16 +3831,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J33" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="R33">
         <v>32</v>
       </c>
       <c r="S33" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T33">
         <v>17</v>
@@ -4047,13 +3849,13 @@
         <v>26</v>
       </c>
       <c r="V33" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="W33" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z33" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -4067,19 +3869,13 @@
       <c r="AF33">
         <v>0</v>
       </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:34">
+    </row>
+    <row r="34" spans="1:32">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -4097,19 +3893,19 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J34" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="R34">
         <v>33</v>
       </c>
       <c r="S34" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T34">
         <v>18</v>
@@ -4118,13 +3914,13 @@
         <v>27</v>
       </c>
       <c r="V34" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="W34" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="Z34" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC34">
         <v>0</v>
@@ -4138,19 +3934,13 @@
       <c r="AF34">
         <v>0</v>
       </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
-      <c r="AH34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:34">
+    </row>
+    <row r="35" spans="1:32">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -4168,19 +3958,19 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I35" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J35" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="R35">
         <v>34</v>
       </c>
       <c r="S35" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T35">
         <v>19</v>
@@ -4189,13 +3979,13 @@
         <v>30</v>
       </c>
       <c r="V35" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="W35" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z35" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC35">
         <v>0</v>
@@ -4209,19 +3999,13 @@
       <c r="AF35">
         <v>0</v>
       </c>
-      <c r="AG35">
-        <v>0</v>
-      </c>
-      <c r="AH35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:34">
+    </row>
+    <row r="36" spans="1:32">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -4239,19 +4023,19 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I36" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J36" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="R36">
         <v>35</v>
       </c>
       <c r="S36" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T36">
         <v>19</v>
@@ -4260,13 +4044,13 @@
         <v>30</v>
       </c>
       <c r="V36" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="W36" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z36" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC36">
         <v>0</v>
@@ -4280,19 +4064,13 @@
       <c r="AF36">
         <v>0</v>
       </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
-      <c r="AH36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34">
+    </row>
+    <row r="37" spans="1:32">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -4310,19 +4088,19 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I37" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J37" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="R37">
         <v>36</v>
       </c>
       <c r="S37" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T37">
         <v>19</v>
@@ -4331,13 +4109,13 @@
         <v>30</v>
       </c>
       <c r="V37" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="W37" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z37" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC37">
         <v>0</v>
@@ -4351,19 +4129,13 @@
       <c r="AF37">
         <v>0</v>
       </c>
-      <c r="AG37">
-        <v>0</v>
-      </c>
-      <c r="AH37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34">
+    </row>
+    <row r="38" spans="1:32">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -4381,16 +4153,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J38" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="R38">
         <v>37</v>
       </c>
       <c r="S38" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T38">
         <v>20</v>
@@ -4399,13 +4171,13 @@
         <v>33</v>
       </c>
       <c r="V38" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="W38" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="Z38" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC38">
         <v>0</v>
@@ -4419,19 +4191,13 @@
       <c r="AF38">
         <v>0</v>
       </c>
-      <c r="AG38">
-        <v>0</v>
-      </c>
-      <c r="AH38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:34">
+    </row>
+    <row r="39" spans="1:32">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4449,16 +4215,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J39" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="R39">
         <v>38</v>
       </c>
       <c r="S39" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T39">
         <v>20</v>
@@ -4467,13 +4233,13 @@
         <v>33</v>
       </c>
       <c r="V39" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="W39" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="Z39" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC39">
         <v>0</v>
@@ -4487,19 +4253,13 @@
       <c r="AF39">
         <v>0</v>
       </c>
-      <c r="AG39">
-        <v>0</v>
-      </c>
-      <c r="AH39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:34">
+    </row>
+    <row r="40" spans="1:32">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -4517,16 +4277,16 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J40" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="R40">
         <v>39</v>
       </c>
       <c r="S40" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T40">
         <v>20</v>
@@ -4535,13 +4295,13 @@
         <v>33</v>
       </c>
       <c r="V40" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="W40" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="Z40" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC40">
         <v>0</v>
@@ -4555,19 +4315,13 @@
       <c r="AF40">
         <v>0</v>
       </c>
-      <c r="AG40">
-        <v>0</v>
-      </c>
-      <c r="AH40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:34">
+    </row>
+    <row r="41" spans="1:32">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -4585,16 +4339,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J41" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="R41">
         <v>40</v>
       </c>
       <c r="S41" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T41">
         <v>20</v>
@@ -4603,13 +4357,13 @@
         <v>33</v>
       </c>
       <c r="V41" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="W41" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="Z41" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC41">
         <v>0</v>
@@ -4623,19 +4377,13 @@
       <c r="AF41">
         <v>0</v>
       </c>
-      <c r="AG41">
-        <v>0</v>
-      </c>
-      <c r="AH41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:34">
+    </row>
+    <row r="42" spans="1:32">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -4653,16 +4401,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J42" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="R42">
         <v>41</v>
       </c>
       <c r="S42" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T42">
         <v>21</v>
@@ -4671,13 +4419,13 @@
         <v>34</v>
       </c>
       <c r="V42" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="W42" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Z42" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC42">
         <v>0</v>
@@ -4691,19 +4439,13 @@
       <c r="AF42">
         <v>0</v>
       </c>
-      <c r="AG42">
-        <v>0</v>
-      </c>
-      <c r="AH42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:34">
+    </row>
+    <row r="43" spans="1:32">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4721,16 +4463,16 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J43" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="R43">
         <v>42</v>
       </c>
       <c r="S43" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T43">
         <v>22</v>
@@ -4739,13 +4481,13 @@
         <v>37</v>
       </c>
       <c r="V43" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="W43" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z43" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC43">
         <v>0</v>
@@ -4759,19 +4501,13 @@
       <c r="AF43">
         <v>0</v>
       </c>
-      <c r="AG43">
-        <v>0</v>
-      </c>
-      <c r="AH43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:34">
+    </row>
+    <row r="44" spans="1:32">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4789,16 +4525,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J44" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="R44">
         <v>43</v>
       </c>
       <c r="S44" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T44">
         <v>23</v>
@@ -4807,13 +4543,13 @@
         <v>38</v>
       </c>
       <c r="V44" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="W44" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z44" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC44">
         <v>0</v>
@@ -4827,19 +4563,13 @@
       <c r="AF44">
         <v>0</v>
       </c>
-      <c r="AG44">
-        <v>0</v>
-      </c>
-      <c r="AH44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:34">
+    </row>
+    <row r="45" spans="1:32">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4857,16 +4587,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J45" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="R45">
         <v>44</v>
       </c>
       <c r="S45" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T45">
         <v>23</v>
@@ -4875,13 +4605,13 @@
         <v>38</v>
       </c>
       <c r="V45" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="W45" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z45" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC45">
         <v>0</v>
@@ -4895,19 +4625,13 @@
       <c r="AF45">
         <v>0</v>
       </c>
-      <c r="AG45">
-        <v>0</v>
-      </c>
-      <c r="AH45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:34">
+    </row>
+    <row r="46" spans="1:32">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4925,16 +4649,16 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J46" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="R46">
         <v>45</v>
       </c>
       <c r="S46" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T46">
         <v>23</v>
@@ -4943,13 +4667,13 @@
         <v>38</v>
       </c>
       <c r="V46" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="W46" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z46" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC46">
         <v>0</v>
@@ -4963,19 +4687,13 @@
       <c r="AF46">
         <v>0</v>
       </c>
-      <c r="AG46">
-        <v>0</v>
-      </c>
-      <c r="AH46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:34">
+    </row>
+    <row r="47" spans="1:32">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4993,16 +4711,16 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J47" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="R47">
         <v>46</v>
       </c>
       <c r="S47" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T47">
         <v>23</v>
@@ -5011,13 +4729,13 @@
         <v>38</v>
       </c>
       <c r="V47" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="W47" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z47" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC47">
         <v>0</v>
@@ -5031,19 +4749,13 @@
       <c r="AF47">
         <v>0</v>
       </c>
-      <c r="AG47">
-        <v>0</v>
-      </c>
-      <c r="AH47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:34">
+    </row>
+    <row r="48" spans="1:32">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B48" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -5061,16 +4773,16 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J48" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="R48">
         <v>47</v>
       </c>
       <c r="S48" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T48">
         <v>23</v>
@@ -5079,13 +4791,13 @@
         <v>38</v>
       </c>
       <c r="V48" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="W48" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z48" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC48">
         <v>0</v>
@@ -5099,19 +4811,13 @@
       <c r="AF48">
         <v>0</v>
       </c>
-      <c r="AG48">
-        <v>0</v>
-      </c>
-      <c r="AH48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:34">
+    </row>
+    <row r="49" spans="1:32">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -5129,16 +4835,16 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J49" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="R49">
         <v>48</v>
       </c>
       <c r="S49" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T49">
         <v>23</v>
@@ -5147,13 +4853,13 @@
         <v>38</v>
       </c>
       <c r="V49" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="W49" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z49" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC49">
         <v>0</v>
@@ -5167,19 +4873,13 @@
       <c r="AF49">
         <v>0</v>
       </c>
-      <c r="AG49">
-        <v>0</v>
-      </c>
-      <c r="AH49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:34">
+    </row>
+    <row r="50" spans="1:32">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -5197,16 +4897,16 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J50" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R50">
         <v>49</v>
       </c>
       <c r="S50" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T50">
         <v>23</v>
@@ -5215,13 +4915,13 @@
         <v>38</v>
       </c>
       <c r="V50" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="W50" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z50" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC50">
         <v>0</v>
@@ -5235,19 +4935,13 @@
       <c r="AF50">
         <v>0</v>
       </c>
-      <c r="AG50">
-        <v>0</v>
-      </c>
-      <c r="AH50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:34">
+    </row>
+    <row r="51" spans="1:32">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B51" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -5265,16 +4959,16 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J51" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="R51">
         <v>50</v>
       </c>
       <c r="S51" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T51">
         <v>23</v>
@@ -5283,13 +4977,13 @@
         <v>38</v>
       </c>
       <c r="V51" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="W51" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z51" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC51">
         <v>0</v>
@@ -5303,19 +4997,13 @@
       <c r="AF51">
         <v>0</v>
       </c>
-      <c r="AG51">
-        <v>0</v>
-      </c>
-      <c r="AH51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:34">
+    </row>
+    <row r="52" spans="1:32">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -5333,16 +5021,16 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J52" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="R52">
         <v>51</v>
       </c>
       <c r="S52" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T52">
         <v>23</v>
@@ -5351,13 +5039,13 @@
         <v>38</v>
       </c>
       <c r="V52" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="W52" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z52" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC52">
         <v>0</v>
@@ -5371,19 +5059,13 @@
       <c r="AF52">
         <v>0</v>
       </c>
-      <c r="AG52">
-        <v>0</v>
-      </c>
-      <c r="AH52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:34">
+    </row>
+    <row r="53" spans="1:32">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -5401,16 +5083,16 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J53" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="R53">
         <v>52</v>
       </c>
       <c r="S53" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T53">
         <v>23</v>
@@ -5419,13 +5101,13 @@
         <v>38</v>
       </c>
       <c r="V53" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="W53" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z53" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC53">
         <v>0</v>
@@ -5439,19 +5121,13 @@
       <c r="AF53">
         <v>0</v>
       </c>
-      <c r="AG53">
-        <v>0</v>
-      </c>
-      <c r="AH53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:34">
+    </row>
+    <row r="54" spans="1:32">
       <c r="A54" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -5469,16 +5145,16 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J54" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="R54">
         <v>53</v>
       </c>
       <c r="S54" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T54">
         <v>23</v>
@@ -5487,13 +5163,13 @@
         <v>38</v>
       </c>
       <c r="V54" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="W54" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z54" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC54">
         <v>0</v>
@@ -5507,19 +5183,13 @@
       <c r="AF54">
         <v>0</v>
       </c>
-      <c r="AG54">
-        <v>0</v>
-      </c>
-      <c r="AH54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:34">
+    </row>
+    <row r="55" spans="1:32">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B55" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -5537,16 +5207,16 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J55" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="R55">
         <v>54</v>
       </c>
       <c r="S55" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T55">
         <v>23</v>
@@ -5555,13 +5225,13 @@
         <v>38</v>
       </c>
       <c r="V55" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="W55" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z55" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC55">
         <v>0</v>
@@ -5575,19 +5245,13 @@
       <c r="AF55">
         <v>0</v>
       </c>
-      <c r="AG55">
-        <v>0</v>
-      </c>
-      <c r="AH55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:34">
+    </row>
+    <row r="56" spans="1:32">
       <c r="A56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B56" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -5605,16 +5269,16 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J56" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="R56">
         <v>55</v>
       </c>
       <c r="S56" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T56">
         <v>23</v>
@@ -5623,13 +5287,13 @@
         <v>38</v>
       </c>
       <c r="V56" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="W56" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z56" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC56">
         <v>0</v>
@@ -5643,19 +5307,13 @@
       <c r="AF56">
         <v>0</v>
       </c>
-      <c r="AG56">
-        <v>0</v>
-      </c>
-      <c r="AH56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:34">
+    </row>
+    <row r="57" spans="1:32">
       <c r="A57" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -5673,16 +5331,16 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J57" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="R57">
         <v>56</v>
       </c>
       <c r="S57" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T57">
         <v>23</v>
@@ -5691,13 +5349,13 @@
         <v>38</v>
       </c>
       <c r="V57" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="W57" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z57" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC57">
         <v>0</v>
@@ -5711,19 +5369,13 @@
       <c r="AF57">
         <v>0</v>
       </c>
-      <c r="AG57">
-        <v>0</v>
-      </c>
-      <c r="AH57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:34">
+    </row>
+    <row r="58" spans="1:32">
       <c r="A58" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B58" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -5741,16 +5393,16 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J58" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="R58">
         <v>57</v>
       </c>
       <c r="S58" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T58">
         <v>23</v>
@@ -5759,13 +5411,13 @@
         <v>38</v>
       </c>
       <c r="V58" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="W58" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z58" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC58">
         <v>0</v>
@@ -5779,19 +5431,13 @@
       <c r="AF58">
         <v>0</v>
       </c>
-      <c r="AG58">
-        <v>0</v>
-      </c>
-      <c r="AH58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:34">
+    </row>
+    <row r="59" spans="1:32">
       <c r="A59" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -5809,19 +5455,19 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I59" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J59" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="R59">
         <v>58</v>
       </c>
       <c r="S59" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T59">
         <v>24</v>
@@ -5830,13 +5476,13 @@
         <v>51</v>
       </c>
       <c r="V59" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="W59" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z59" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AC59">
         <v>0</v>
@@ -5850,19 +5496,13 @@
       <c r="AF59">
         <v>0</v>
       </c>
-      <c r="AG59">
-        <v>0</v>
-      </c>
-      <c r="AH59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:34">
+    </row>
+    <row r="60" spans="1:32">
       <c r="A60" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B60" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -5880,19 +5520,19 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I60" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J60" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="R60">
         <v>59</v>
       </c>
       <c r="S60" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T60">
         <v>24</v>
@@ -5901,13 +5541,13 @@
         <v>51</v>
       </c>
       <c r="V60" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="W60" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z60" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AC60">
         <v>0</v>
@@ -5921,19 +5561,13 @@
       <c r="AF60">
         <v>0</v>
       </c>
-      <c r="AG60">
-        <v>0</v>
-      </c>
-      <c r="AH60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:34">
+    </row>
+    <row r="61" spans="1:32">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B61" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -5951,19 +5585,19 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I61" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J61" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R61">
         <v>60</v>
       </c>
       <c r="S61" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T61">
         <v>24</v>
@@ -5972,13 +5606,13 @@
         <v>51</v>
       </c>
       <c r="V61" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="W61" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z61" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AC61">
         <v>0</v>
@@ -5992,19 +5626,13 @@
       <c r="AF61">
         <v>0</v>
       </c>
-      <c r="AG61">
-        <v>0</v>
-      </c>
-      <c r="AH61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:34">
+    </row>
+    <row r="62" spans="1:32">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B62" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -6022,19 +5650,19 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I62" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J62" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="R62">
         <v>61</v>
       </c>
       <c r="S62" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T62">
         <v>24</v>
@@ -6043,13 +5671,13 @@
         <v>51</v>
       </c>
       <c r="V62" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="W62" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z62" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AC62">
         <v>0</v>
@@ -6063,19 +5691,13 @@
       <c r="AF62">
         <v>0</v>
       </c>
-      <c r="AG62">
-        <v>0</v>
-      </c>
-      <c r="AH62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:34">
+    </row>
+    <row r="63" spans="1:32">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B63" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -6093,19 +5715,19 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I63" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J63" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="R63">
         <v>62</v>
       </c>
       <c r="S63" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T63">
         <v>24</v>
@@ -6114,13 +5736,13 @@
         <v>51</v>
       </c>
       <c r="V63" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="W63" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z63" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AC63">
         <v>0</v>
@@ -6134,19 +5756,13 @@
       <c r="AF63">
         <v>0</v>
       </c>
-      <c r="AG63">
-        <v>0</v>
-      </c>
-      <c r="AH63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:34">
+    </row>
+    <row r="64" spans="1:32">
       <c r="A64" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B64" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -6164,19 +5780,19 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I64" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J64" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="R64">
         <v>63</v>
       </c>
       <c r="S64" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T64">
         <v>24</v>
@@ -6185,13 +5801,13 @@
         <v>51</v>
       </c>
       <c r="V64" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="W64" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z64" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AC64">
         <v>0</v>
@@ -6205,19 +5821,13 @@
       <c r="AF64">
         <v>0</v>
       </c>
-      <c r="AG64">
-        <v>0</v>
-      </c>
-      <c r="AH64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:34">
+    </row>
+    <row r="65" spans="1:32">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B65" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -6235,16 +5845,16 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J65" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="R65">
         <v>64</v>
       </c>
       <c r="S65" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T65">
         <v>24</v>
@@ -6253,13 +5863,13 @@
         <v>51</v>
       </c>
       <c r="V65" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="W65" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z65" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AC65">
         <v>0</v>
@@ -6273,19 +5883,13 @@
       <c r="AF65">
         <v>0</v>
       </c>
-      <c r="AG65">
-        <v>0</v>
-      </c>
-      <c r="AH65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:34">
+    </row>
+    <row r="66" spans="1:32">
       <c r="A66" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B66" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -6303,19 +5907,19 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I66" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J66" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="R66">
         <v>65</v>
       </c>
       <c r="S66" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T66">
         <v>24</v>
@@ -6324,13 +5928,13 @@
         <v>51</v>
       </c>
       <c r="V66" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="W66" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z66" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AC66">
         <v>0</v>
@@ -6344,19 +5948,13 @@
       <c r="AF66">
         <v>0</v>
       </c>
-      <c r="AG66">
-        <v>0</v>
-      </c>
-      <c r="AH66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:34">
+    </row>
+    <row r="67" spans="1:32">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B67" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -6374,19 +5972,19 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I67" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J67" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="R67">
         <v>66</v>
       </c>
       <c r="S67" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T67">
         <v>24</v>
@@ -6395,13 +5993,13 @@
         <v>51</v>
       </c>
       <c r="V67" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="W67" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z67" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AC67">
         <v>0</v>
@@ -6415,19 +6013,13 @@
       <c r="AF67">
         <v>0</v>
       </c>
-      <c r="AG67">
-        <v>0</v>
-      </c>
-      <c r="AH67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:34">
+    </row>
+    <row r="68" spans="1:32">
       <c r="A68" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B68" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -6445,19 +6037,19 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I68" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J68" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="R68">
         <v>67</v>
       </c>
       <c r="S68" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T68">
         <v>24</v>
@@ -6466,13 +6058,13 @@
         <v>51</v>
       </c>
       <c r="V68" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="W68" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z68" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AC68">
         <v>0</v>
@@ -6486,19 +6078,13 @@
       <c r="AF68">
         <v>0</v>
       </c>
-      <c r="AG68">
-        <v>0</v>
-      </c>
-      <c r="AH68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:34">
+    </row>
+    <row r="69" spans="1:32">
       <c r="A69" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B69" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -6516,16 +6102,16 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J69" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="R69">
         <v>68</v>
       </c>
       <c r="S69" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T69">
         <v>26</v>
@@ -6534,13 +6120,13 @@
         <v>55</v>
       </c>
       <c r="V69" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="W69" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="Z69" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC69">
         <v>0</v>
@@ -6554,19 +6140,13 @@
       <c r="AF69">
         <v>0</v>
       </c>
-      <c r="AG69">
-        <v>0</v>
-      </c>
-      <c r="AH69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:34">
+    </row>
+    <row r="70" spans="1:32">
       <c r="A70" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B70" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -6584,16 +6164,16 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J70" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="R70">
         <v>69</v>
       </c>
       <c r="S70" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T70">
         <v>26</v>
@@ -6602,13 +6182,13 @@
         <v>55</v>
       </c>
       <c r="V70" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="W70" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="Z70" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC70">
         <v>0</v>
@@ -6622,19 +6202,13 @@
       <c r="AF70">
         <v>0</v>
       </c>
-      <c r="AG70">
-        <v>0</v>
-      </c>
-      <c r="AH70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:34">
+    </row>
+    <row r="71" spans="1:32">
       <c r="A71" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B71" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -6652,16 +6226,16 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J71" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="R71">
         <v>70</v>
       </c>
       <c r="S71" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T71">
         <v>26</v>
@@ -6670,13 +6244,13 @@
         <v>55</v>
       </c>
       <c r="V71" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="W71" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="Z71" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC71">
         <v>0</v>
@@ -6690,19 +6264,13 @@
       <c r="AF71">
         <v>0</v>
       </c>
-      <c r="AG71">
-        <v>0</v>
-      </c>
-      <c r="AH71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:34">
+    </row>
+    <row r="72" spans="1:32">
       <c r="A72" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B72" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -6720,19 +6288,19 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I72" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J72" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="R72">
         <v>71</v>
       </c>
       <c r="S72" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T72">
         <v>27</v>
@@ -6741,13 +6309,13 @@
         <v>56</v>
       </c>
       <c r="V72" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="W72" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="Z72" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC72">
         <v>0</v>
@@ -6761,19 +6329,13 @@
       <c r="AF72">
         <v>0</v>
       </c>
-      <c r="AG72">
-        <v>0</v>
-      </c>
-      <c r="AH72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:34">
+    </row>
+    <row r="73" spans="1:32">
       <c r="A73" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B73" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -6791,19 +6353,19 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I73" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J73" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="R73">
         <v>72</v>
       </c>
       <c r="S73" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T73">
         <v>28</v>
@@ -6812,13 +6374,13 @@
         <v>57</v>
       </c>
       <c r="V73" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="W73" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z73" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC73">
         <v>0</v>
@@ -6832,19 +6394,13 @@
       <c r="AF73">
         <v>0</v>
       </c>
-      <c r="AG73">
-        <v>0</v>
-      </c>
-      <c r="AH73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:34">
+    </row>
+    <row r="74" spans="1:32">
       <c r="A74" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B74" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -6862,19 +6418,19 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I74" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J74" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="R74">
         <v>73</v>
       </c>
       <c r="S74" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T74">
         <v>28</v>
@@ -6883,13 +6439,13 @@
         <v>57</v>
       </c>
       <c r="V74" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="W74" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z74" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC74">
         <v>0</v>
@@ -6903,19 +6459,13 @@
       <c r="AF74">
         <v>0</v>
       </c>
-      <c r="AG74">
-        <v>0</v>
-      </c>
-      <c r="AH74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:34">
+    </row>
+    <row r="75" spans="1:32">
       <c r="A75" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B75" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -6933,19 +6483,19 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I75" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J75" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="R75">
         <v>74</v>
       </c>
       <c r="S75" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T75">
         <v>28</v>
@@ -6954,13 +6504,13 @@
         <v>57</v>
       </c>
       <c r="V75" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="W75" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z75" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC75">
         <v>0</v>
@@ -6974,19 +6524,13 @@
       <c r="AF75">
         <v>0</v>
       </c>
-      <c r="AG75">
-        <v>0</v>
-      </c>
-      <c r="AH75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:34">
+    </row>
+    <row r="76" spans="1:32">
       <c r="A76" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B76" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -7004,16 +6548,16 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J76" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="R76">
         <v>75</v>
       </c>
       <c r="S76" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T76">
         <v>29</v>
@@ -7022,13 +6566,13 @@
         <v>58</v>
       </c>
       <c r="V76" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="W76" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Z76" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC76">
         <v>0</v>
@@ -7042,19 +6586,13 @@
       <c r="AF76">
         <v>0</v>
       </c>
-      <c r="AG76">
-        <v>0</v>
-      </c>
-      <c r="AH76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:34">
+    </row>
+    <row r="77" spans="1:32">
       <c r="A77" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B77" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -7072,16 +6610,16 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J77" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="R77">
         <v>76</v>
       </c>
       <c r="S77" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T77">
         <v>29</v>
@@ -7090,13 +6628,13 @@
         <v>58</v>
       </c>
       <c r="V77" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="W77" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Z77" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC77">
         <v>0</v>
@@ -7110,19 +6648,13 @@
       <c r="AF77">
         <v>0</v>
       </c>
-      <c r="AG77">
-        <v>0</v>
-      </c>
-      <c r="AH77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:34">
+    </row>
+    <row r="78" spans="1:32">
       <c r="A78" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B78" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -7140,16 +6672,16 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J78" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="R78">
         <v>77</v>
       </c>
       <c r="S78" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T78">
         <v>29</v>
@@ -7158,13 +6690,13 @@
         <v>58</v>
       </c>
       <c r="V78" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="W78" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Z78" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC78">
         <v>0</v>
@@ -7178,19 +6710,13 @@
       <c r="AF78">
         <v>0</v>
       </c>
-      <c r="AG78">
-        <v>0</v>
-      </c>
-      <c r="AH78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:34">
+    </row>
+    <row r="79" spans="1:32">
       <c r="A79" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B79" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -7208,16 +6734,16 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J79" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R79">
         <v>78</v>
       </c>
       <c r="S79" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T79">
         <v>29</v>
@@ -7226,13 +6752,13 @@
         <v>58</v>
       </c>
       <c r="V79" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="W79" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Z79" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC79">
         <v>0</v>
@@ -7246,19 +6772,13 @@
       <c r="AF79">
         <v>0</v>
       </c>
-      <c r="AG79">
-        <v>0</v>
-      </c>
-      <c r="AH79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:34">
+    </row>
+    <row r="80" spans="1:32">
       <c r="A80" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B80" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -7276,16 +6796,16 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J80" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R80">
         <v>79</v>
       </c>
       <c r="S80" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T80">
         <v>30</v>
@@ -7294,13 +6814,13 @@
         <v>59</v>
       </c>
       <c r="V80" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="W80" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z80" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC80">
         <v>0</v>
@@ -7314,19 +6834,13 @@
       <c r="AF80">
         <v>0</v>
       </c>
-      <c r="AG80">
-        <v>0</v>
-      </c>
-      <c r="AH80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:34">
+    </row>
+    <row r="81" spans="1:32">
       <c r="A81" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B81" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -7344,16 +6858,16 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J81" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="R81">
         <v>80</v>
       </c>
       <c r="S81" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T81">
         <v>30</v>
@@ -7362,13 +6876,13 @@
         <v>59</v>
       </c>
       <c r="V81" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="W81" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z81" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC81">
         <v>0</v>
@@ -7382,19 +6896,13 @@
       <c r="AF81">
         <v>0</v>
       </c>
-      <c r="AG81">
-        <v>0</v>
-      </c>
-      <c r="AH81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:34">
+    </row>
+    <row r="82" spans="1:32">
       <c r="A82" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -7412,16 +6920,16 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J82" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="R82">
         <v>81</v>
       </c>
       <c r="S82" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T82">
         <v>30</v>
@@ -7430,13 +6938,13 @@
         <v>59</v>
       </c>
       <c r="V82" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="W82" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z82" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC82">
         <v>0</v>
@@ -7450,19 +6958,13 @@
       <c r="AF82">
         <v>0</v>
       </c>
-      <c r="AG82">
-        <v>0</v>
-      </c>
-      <c r="AH82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:34">
+    </row>
+    <row r="83" spans="1:32">
       <c r="A83" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B83" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -7480,16 +6982,16 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J83" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="R83">
         <v>82</v>
       </c>
       <c r="S83" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T83">
         <v>30</v>
@@ -7498,13 +7000,13 @@
         <v>59</v>
       </c>
       <c r="V83" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="W83" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z83" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC83">
         <v>0</v>
@@ -7518,19 +7020,13 @@
       <c r="AF83">
         <v>0</v>
       </c>
-      <c r="AG83">
-        <v>0</v>
-      </c>
-      <c r="AH83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:34">
+    </row>
+    <row r="84" spans="1:32">
       <c r="A84" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B84" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -7548,16 +7044,16 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J84" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="R84">
         <v>83</v>
       </c>
       <c r="S84" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T84">
         <v>30</v>
@@ -7566,13 +7062,13 @@
         <v>59</v>
       </c>
       <c r="V84" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="W84" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z84" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC84">
         <v>0</v>
@@ -7586,19 +7082,13 @@
       <c r="AF84">
         <v>0</v>
       </c>
-      <c r="AG84">
-        <v>0</v>
-      </c>
-      <c r="AH84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:34">
+    </row>
+    <row r="85" spans="1:32">
       <c r="A85" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B85" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -7616,16 +7106,16 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J85" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="R85">
         <v>84</v>
       </c>
       <c r="S85" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T85">
         <v>31</v>
@@ -7634,13 +7124,13 @@
         <v>60</v>
       </c>
       <c r="V85" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="W85" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Z85" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC85">
         <v>0</v>
@@ -7654,19 +7144,13 @@
       <c r="AF85">
         <v>0</v>
       </c>
-      <c r="AG85">
-        <v>0</v>
-      </c>
-      <c r="AH85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:34">
+    </row>
+    <row r="86" spans="1:32">
       <c r="A86" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B86" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -7684,16 +7168,16 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J86" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="R86">
         <v>85</v>
       </c>
       <c r="S86" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T86">
         <v>32</v>
@@ -7702,13 +7186,13 @@
         <v>61</v>
       </c>
       <c r="V86" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="W86" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Z86" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC86">
         <v>0</v>
@@ -7722,19 +7206,13 @@
       <c r="AF86">
         <v>0</v>
       </c>
-      <c r="AG86">
-        <v>0</v>
-      </c>
-      <c r="AH86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:34">
+    </row>
+    <row r="87" spans="1:32">
       <c r="A87" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B87" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -7752,16 +7230,16 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J87" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="R87">
         <v>86</v>
       </c>
       <c r="S87" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T87">
         <v>33</v>
@@ -7770,13 +7248,13 @@
         <v>63</v>
       </c>
       <c r="V87" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="W87" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z87" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC87">
         <v>0</v>
@@ -7790,19 +7268,13 @@
       <c r="AF87">
         <v>0</v>
       </c>
-      <c r="AG87">
-        <v>0</v>
-      </c>
-      <c r="AH87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:34">
+    </row>
+    <row r="88" spans="1:32">
       <c r="A88" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B88" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -7820,16 +7292,16 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J88" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="R88">
         <v>87</v>
       </c>
       <c r="S88" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T88">
         <v>33</v>
@@ -7838,13 +7310,13 @@
         <v>63</v>
       </c>
       <c r="V88" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="W88" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z88" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC88">
         <v>0</v>
@@ -7858,19 +7330,13 @@
       <c r="AF88">
         <v>0</v>
       </c>
-      <c r="AG88">
-        <v>0</v>
-      </c>
-      <c r="AH88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:34">
+    </row>
+    <row r="89" spans="1:32">
       <c r="A89" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B89" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7888,16 +7354,16 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J89" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="R89">
         <v>88</v>
       </c>
       <c r="S89" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T89">
         <v>33</v>
@@ -7906,13 +7372,13 @@
         <v>63</v>
       </c>
       <c r="V89" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="W89" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z89" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC89">
         <v>0</v>
@@ -7926,19 +7392,13 @@
       <c r="AF89">
         <v>0</v>
       </c>
-      <c r="AG89">
-        <v>0</v>
-      </c>
-      <c r="AH89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:34">
+    </row>
+    <row r="90" spans="1:32">
       <c r="A90" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B90" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7956,16 +7416,16 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J90" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="R90">
         <v>89</v>
       </c>
       <c r="S90" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T90">
         <v>33</v>
@@ -7974,13 +7434,13 @@
         <v>63</v>
       </c>
       <c r="V90" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="W90" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z90" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC90">
         <v>0</v>
@@ -7994,19 +7454,13 @@
       <c r="AF90">
         <v>0</v>
       </c>
-      <c r="AG90">
-        <v>0</v>
-      </c>
-      <c r="AH90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:34">
+    </row>
+    <row r="91" spans="1:32">
       <c r="A91" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B91" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -8024,19 +7478,19 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I91" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J91" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="R91">
         <v>90</v>
       </c>
       <c r="S91" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T91">
         <v>33</v>
@@ -8045,13 +7499,13 @@
         <v>63</v>
       </c>
       <c r="V91" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="W91" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z91" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC91">
         <v>0</v>
@@ -8065,19 +7519,13 @@
       <c r="AF91">
         <v>0</v>
       </c>
-      <c r="AG91">
-        <v>0</v>
-      </c>
-      <c r="AH91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:34">
+    </row>
+    <row r="92" spans="1:32">
       <c r="A92" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -8095,16 +7543,16 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J92" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="R92">
         <v>91</v>
       </c>
       <c r="S92" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T92">
         <v>34</v>
@@ -8113,13 +7561,13 @@
         <v>64</v>
       </c>
       <c r="V92" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="W92" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="Z92" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC92">
         <v>0</v>
@@ -8133,19 +7581,13 @@
       <c r="AF92">
         <v>0</v>
       </c>
-      <c r="AG92">
-        <v>0</v>
-      </c>
-      <c r="AH92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:34">
+    </row>
+    <row r="93" spans="1:32">
       <c r="A93" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B93" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -8163,16 +7605,16 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J93" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="R93">
         <v>92</v>
       </c>
       <c r="S93" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T93">
         <v>34</v>
@@ -8181,13 +7623,13 @@
         <v>64</v>
       </c>
       <c r="V93" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="W93" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="Z93" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC93">
         <v>0</v>
@@ -8201,19 +7643,13 @@
       <c r="AF93">
         <v>0</v>
       </c>
-      <c r="AG93">
-        <v>0</v>
-      </c>
-      <c r="AH93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:34">
+    </row>
+    <row r="94" spans="1:32">
       <c r="A94" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B94" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -8231,16 +7667,16 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J94" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="R94">
         <v>93</v>
       </c>
       <c r="S94" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T94">
         <v>34</v>
@@ -8249,13 +7685,13 @@
         <v>64</v>
       </c>
       <c r="V94" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="W94" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="Z94" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC94">
         <v>0</v>
@@ -8269,19 +7705,13 @@
       <c r="AF94">
         <v>0</v>
       </c>
-      <c r="AG94">
-        <v>0</v>
-      </c>
-      <c r="AH94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:34">
+    </row>
+    <row r="95" spans="1:32">
       <c r="A95" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B95" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -8299,16 +7729,16 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J95" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="R95">
         <v>94</v>
       </c>
       <c r="S95" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T95">
         <v>34</v>
@@ -8317,13 +7747,13 @@
         <v>64</v>
       </c>
       <c r="V95" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="W95" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="Z95" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC95">
         <v>0</v>
@@ -8337,19 +7767,13 @@
       <c r="AF95">
         <v>0</v>
       </c>
-      <c r="AG95">
-        <v>0</v>
-      </c>
-      <c r="AH95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:34">
+    </row>
+    <row r="96" spans="1:32">
       <c r="A96" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B96" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -8367,16 +7791,16 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J96" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="R96">
         <v>95</v>
       </c>
       <c r="S96" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T96">
         <v>36</v>
@@ -8385,13 +7809,13 @@
         <v>77</v>
       </c>
       <c r="V96" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="W96" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z96" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC96">
         <v>0</v>
@@ -8405,19 +7829,13 @@
       <c r="AF96">
         <v>0</v>
       </c>
-      <c r="AG96">
-        <v>0</v>
-      </c>
-      <c r="AH96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:34">
+    </row>
+    <row r="97" spans="1:32">
       <c r="A97" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B97" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -8435,16 +7853,16 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J97" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="R97">
         <v>96</v>
       </c>
       <c r="S97" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T97">
         <v>36</v>
@@ -8453,13 +7871,13 @@
         <v>77</v>
       </c>
       <c r="V97" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="W97" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z97" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC97">
         <v>0</v>
@@ -8473,19 +7891,13 @@
       <c r="AF97">
         <v>0</v>
       </c>
-      <c r="AG97">
-        <v>0</v>
-      </c>
-      <c r="AH97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:34">
+    </row>
+    <row r="98" spans="1:32">
       <c r="A98" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -8503,16 +7915,16 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J98" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="R98">
         <v>97</v>
       </c>
       <c r="S98" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T98">
         <v>36</v>
@@ -8521,13 +7933,13 @@
         <v>77</v>
       </c>
       <c r="V98" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="W98" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z98" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC98">
         <v>0</v>
@@ -8541,19 +7953,13 @@
       <c r="AF98">
         <v>0</v>
       </c>
-      <c r="AG98">
-        <v>0</v>
-      </c>
-      <c r="AH98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:34">
+    </row>
+    <row r="99" spans="1:32">
       <c r="A99" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B99" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8571,19 +7977,19 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I99" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J99" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="R99">
         <v>98</v>
       </c>
       <c r="S99" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T99">
         <v>37</v>
@@ -8592,13 +7998,13 @@
         <v>78</v>
       </c>
       <c r="V99" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="W99" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="Z99" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC99">
         <v>0</v>
@@ -8612,19 +8018,13 @@
       <c r="AF99">
         <v>0</v>
       </c>
-      <c r="AG99">
-        <v>0</v>
-      </c>
-      <c r="AH99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:34">
+    </row>
+    <row r="100" spans="1:32">
       <c r="A100" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8642,16 +8042,16 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J100" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="R100">
         <v>99</v>
       </c>
       <c r="S100" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T100">
         <v>38</v>
@@ -8660,13 +8060,13 @@
         <v>80</v>
       </c>
       <c r="V100" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="W100" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="Z100" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC100">
         <v>0</v>
@@ -8680,19 +8080,13 @@
       <c r="AF100">
         <v>0</v>
       </c>
-      <c r="AG100">
-        <v>0</v>
-      </c>
-      <c r="AH100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:34">
+    </row>
+    <row r="101" spans="1:32">
       <c r="A101" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B101" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8710,19 +8104,19 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I101" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J101" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="R101">
         <v>100</v>
       </c>
       <c r="S101" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T101">
         <v>39</v>
@@ -8731,13 +8125,13 @@
         <v>81</v>
       </c>
       <c r="V101" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="W101" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z101" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC101">
         <v>0</v>
@@ -8751,19 +8145,13 @@
       <c r="AF101">
         <v>0</v>
       </c>
-      <c r="AG101">
-        <v>0</v>
-      </c>
-      <c r="AH101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:34">
+    </row>
+    <row r="102" spans="1:32">
       <c r="A102" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8781,19 +8169,19 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I102" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J102" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="R102">
         <v>101</v>
       </c>
       <c r="S102" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T102">
         <v>39</v>
@@ -8802,13 +8190,13 @@
         <v>81</v>
       </c>
       <c r="V102" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="W102" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z102" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC102">
         <v>0</v>
@@ -8822,19 +8210,13 @@
       <c r="AF102">
         <v>0</v>
       </c>
-      <c r="AG102">
-        <v>0</v>
-      </c>
-      <c r="AH102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:34">
+    </row>
+    <row r="103" spans="1:32">
       <c r="A103" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8852,19 +8234,19 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I103" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J103" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="R103">
         <v>102</v>
       </c>
       <c r="S103" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T103">
         <v>39</v>
@@ -8873,13 +8255,13 @@
         <v>81</v>
       </c>
       <c r="V103" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="W103" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z103" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC103">
         <v>0</v>
@@ -8893,19 +8275,13 @@
       <c r="AF103">
         <v>0</v>
       </c>
-      <c r="AG103">
-        <v>0</v>
-      </c>
-      <c r="AH103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:34">
+    </row>
+    <row r="104" spans="1:32">
       <c r="A104" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B104" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8923,19 +8299,19 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I104" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J104" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="R104">
         <v>103</v>
       </c>
       <c r="S104" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T104">
         <v>39</v>
@@ -8944,13 +8320,13 @@
         <v>81</v>
       </c>
       <c r="V104" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="W104" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z104" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC104">
         <v>0</v>
@@ -8964,19 +8340,13 @@
       <c r="AF104">
         <v>0</v>
       </c>
-      <c r="AG104">
-        <v>0</v>
-      </c>
-      <c r="AH104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:34">
+    </row>
+    <row r="105" spans="1:32">
       <c r="A105" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B105" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8994,19 +8364,19 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I105" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J105" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="R105">
         <v>104</v>
       </c>
       <c r="S105" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T105">
         <v>39</v>
@@ -9015,13 +8385,13 @@
         <v>81</v>
       </c>
       <c r="V105" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="W105" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z105" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC105">
         <v>0</v>
@@ -9035,19 +8405,13 @@
       <c r="AF105">
         <v>0</v>
       </c>
-      <c r="AG105">
-        <v>0</v>
-      </c>
-      <c r="AH105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:34">
+    </row>
+    <row r="106" spans="1:32">
       <c r="A106" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B106" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -9065,19 +8429,19 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I106" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J106" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="R106">
         <v>105</v>
       </c>
       <c r="S106" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T106">
         <v>39</v>
@@ -9086,13 +8450,13 @@
         <v>81</v>
       </c>
       <c r="V106" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="W106" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z106" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC106">
         <v>0</v>
@@ -9106,19 +8470,13 @@
       <c r="AF106">
         <v>0</v>
       </c>
-      <c r="AG106">
-        <v>0</v>
-      </c>
-      <c r="AH106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:34">
+    </row>
+    <row r="107" spans="1:32">
       <c r="A107" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B107" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -9136,19 +8494,19 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I107" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J107" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="R107">
         <v>106</v>
       </c>
       <c r="S107" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T107">
         <v>39</v>
@@ -9157,13 +8515,13 @@
         <v>81</v>
       </c>
       <c r="V107" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="W107" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z107" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC107">
         <v>0</v>
@@ -9177,19 +8535,13 @@
       <c r="AF107">
         <v>0</v>
       </c>
-      <c r="AG107">
-        <v>0</v>
-      </c>
-      <c r="AH107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:34">
+    </row>
+    <row r="108" spans="1:32">
       <c r="A108" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B108" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -9207,16 +8559,16 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J108" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="R108">
         <v>107</v>
       </c>
       <c r="S108" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T108">
         <v>39</v>
@@ -9225,13 +8577,13 @@
         <v>81</v>
       </c>
       <c r="V108" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="W108" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z108" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC108">
         <v>0</v>
@@ -9245,19 +8597,13 @@
       <c r="AF108">
         <v>0</v>
       </c>
-      <c r="AG108">
-        <v>0</v>
-      </c>
-      <c r="AH108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:34">
+    </row>
+    <row r="109" spans="1:32">
       <c r="A109" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B109" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -9275,16 +8621,16 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J109" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="R109">
         <v>108</v>
       </c>
       <c r="S109" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T109">
         <v>39</v>
@@ -9293,13 +8639,13 @@
         <v>81</v>
       </c>
       <c r="V109" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="W109" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z109" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC109">
         <v>0</v>
@@ -9313,19 +8659,13 @@
       <c r="AF109">
         <v>0</v>
       </c>
-      <c r="AG109">
-        <v>0</v>
-      </c>
-      <c r="AH109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:34">
+    </row>
+    <row r="110" spans="1:32">
       <c r="A110" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B110" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -9343,16 +8683,16 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J110" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="R110">
         <v>109</v>
       </c>
       <c r="S110" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T110">
         <v>39</v>
@@ -9361,13 +8701,13 @@
         <v>81</v>
       </c>
       <c r="V110" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="W110" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z110" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC110">
         <v>0</v>
@@ -9381,19 +8721,13 @@
       <c r="AF110">
         <v>0</v>
       </c>
-      <c r="AG110">
-        <v>0</v>
-      </c>
-      <c r="AH110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:34">
+    </row>
+    <row r="111" spans="1:32">
       <c r="A111" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B111" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -9411,16 +8745,16 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J111" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="R111">
         <v>110</v>
       </c>
       <c r="S111" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T111">
         <v>40</v>
@@ -9429,13 +8763,13 @@
         <v>82</v>
       </c>
       <c r="V111" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="W111" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="Z111" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC111">
         <v>0</v>
@@ -9449,19 +8783,13 @@
       <c r="AF111">
         <v>0</v>
       </c>
-      <c r="AG111">
-        <v>0</v>
-      </c>
-      <c r="AH111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:34">
+    </row>
+    <row r="112" spans="1:32">
       <c r="A112" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B112" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -9479,16 +8807,16 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J112" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="R112">
         <v>111</v>
       </c>
       <c r="S112" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T112">
         <v>40</v>
@@ -9497,13 +8825,13 @@
         <v>82</v>
       </c>
       <c r="V112" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="W112" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="Z112" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC112">
         <v>0</v>
@@ -9517,19 +8845,13 @@
       <c r="AF112">
         <v>0</v>
       </c>
-      <c r="AG112">
-        <v>0</v>
-      </c>
-      <c r="AH112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:34">
+    </row>
+    <row r="113" spans="1:32">
       <c r="A113" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B113" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -9547,16 +8869,16 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J113" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="R113">
         <v>112</v>
       </c>
       <c r="S113" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T113">
         <v>42</v>
@@ -9565,13 +8887,13 @@
         <v>84</v>
       </c>
       <c r="V113" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="W113" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Z113" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC113">
         <v>0</v>
@@ -9585,19 +8907,13 @@
       <c r="AF113">
         <v>0</v>
       </c>
-      <c r="AG113">
-        <v>0</v>
-      </c>
-      <c r="AH113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:34">
+    </row>
+    <row r="114" spans="1:32">
       <c r="A114" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B114" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -9615,16 +8931,16 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J114" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="R114">
         <v>113</v>
       </c>
       <c r="S114" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T114">
         <v>44</v>
@@ -9633,13 +8949,13 @@
         <v>87</v>
       </c>
       <c r="V114" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="W114" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z114" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC114">
         <v>0</v>
@@ -9653,19 +8969,13 @@
       <c r="AF114">
         <v>0</v>
       </c>
-      <c r="AG114">
-        <v>0</v>
-      </c>
-      <c r="AH114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:34">
+    </row>
+    <row r="115" spans="1:32">
       <c r="A115" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B115" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -9683,16 +8993,16 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J115" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="R115">
         <v>114</v>
       </c>
       <c r="S115" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T115">
         <v>44</v>
@@ -9701,13 +9011,13 @@
         <v>87</v>
       </c>
       <c r="V115" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="W115" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z115" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC115">
         <v>0</v>
@@ -9721,19 +9031,13 @@
       <c r="AF115">
         <v>0</v>
       </c>
-      <c r="AG115">
-        <v>0</v>
-      </c>
-      <c r="AH115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:34">
+    </row>
+    <row r="116" spans="1:32">
       <c r="A116" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B116" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -9751,16 +9055,16 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J116" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="R116">
         <v>115</v>
       </c>
       <c r="S116" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T116">
         <v>44</v>
@@ -9769,13 +9073,13 @@
         <v>87</v>
       </c>
       <c r="V116" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="W116" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z116" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC116">
         <v>0</v>
@@ -9789,19 +9093,13 @@
       <c r="AF116">
         <v>0</v>
       </c>
-      <c r="AG116">
-        <v>0</v>
-      </c>
-      <c r="AH116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:34">
+    </row>
+    <row r="117" spans="1:32">
       <c r="A117" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B117" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -9819,16 +9117,16 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J117" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="R117">
         <v>116</v>
       </c>
       <c r="S117" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T117">
         <v>44</v>
@@ -9837,13 +9135,13 @@
         <v>87</v>
       </c>
       <c r="V117" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="W117" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z117" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC117">
         <v>0</v>
@@ -9857,19 +9155,13 @@
       <c r="AF117">
         <v>0</v>
       </c>
-      <c r="AG117">
-        <v>0</v>
-      </c>
-      <c r="AH117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:34">
+    </row>
+    <row r="118" spans="1:32">
       <c r="A118" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B118" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -9887,16 +9179,16 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J118" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R118">
         <v>117</v>
       </c>
       <c r="S118" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T118">
         <v>44</v>
@@ -9905,13 +9197,13 @@
         <v>87</v>
       </c>
       <c r="V118" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="W118" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z118" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC118">
         <v>0</v>
@@ -9925,19 +9217,13 @@
       <c r="AF118">
         <v>0</v>
       </c>
-      <c r="AG118">
-        <v>0</v>
-      </c>
-      <c r="AH118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:34">
+    </row>
+    <row r="119" spans="1:32">
       <c r="A119" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B119" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9955,16 +9241,16 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J119" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="R119">
         <v>118</v>
       </c>
       <c r="S119" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T119">
         <v>45</v>
@@ -9973,13 +9259,13 @@
         <v>88</v>
       </c>
       <c r="V119" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="W119" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z119" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AC119">
         <v>0</v>
@@ -9993,19 +9279,13 @@
       <c r="AF119">
         <v>0</v>
       </c>
-      <c r="AG119">
-        <v>0</v>
-      </c>
-      <c r="AH119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:34">
+    </row>
+    <row r="120" spans="1:32">
       <c r="A120" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B120" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -10023,16 +9303,16 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J120" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="R120">
         <v>119</v>
       </c>
       <c r="S120" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T120">
         <v>45</v>
@@ -10041,13 +9321,13 @@
         <v>88</v>
       </c>
       <c r="V120" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="W120" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z120" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AC120">
         <v>0</v>
@@ -10061,19 +9341,13 @@
       <c r="AF120">
         <v>0</v>
       </c>
-      <c r="AG120">
-        <v>0</v>
-      </c>
-      <c r="AH120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:34">
+    </row>
+    <row r="121" spans="1:32">
       <c r="A121" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B121" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -10091,16 +9365,16 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J121" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="R121">
         <v>120</v>
       </c>
       <c r="S121" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T121">
         <v>46</v>
@@ -10109,13 +9383,13 @@
         <v>90</v>
       </c>
       <c r="V121" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="W121" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z121" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC121">
         <v>0</v>
@@ -10129,19 +9403,13 @@
       <c r="AF121">
         <v>0</v>
       </c>
-      <c r="AG121">
-        <v>0</v>
-      </c>
-      <c r="AH121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:34">
+    </row>
+    <row r="122" spans="1:32">
       <c r="A122" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B122" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -10159,16 +9427,16 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J122" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R122">
         <v>121</v>
       </c>
       <c r="S122" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T122">
         <v>46</v>
@@ -10177,13 +9445,13 @@
         <v>90</v>
       </c>
       <c r="V122" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="W122" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z122" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC122">
         <v>0</v>
@@ -10197,19 +9465,13 @@
       <c r="AF122">
         <v>0</v>
       </c>
-      <c r="AG122">
-        <v>0</v>
-      </c>
-      <c r="AH122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:34">
+    </row>
+    <row r="123" spans="1:32">
       <c r="A123" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B123" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -10227,16 +9489,16 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J123" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R123">
         <v>122</v>
       </c>
       <c r="S123" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T123">
         <v>46</v>
@@ -10245,13 +9507,13 @@
         <v>90</v>
       </c>
       <c r="V123" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="W123" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z123" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC123">
         <v>0</v>
@@ -10265,19 +9527,13 @@
       <c r="AF123">
         <v>0</v>
       </c>
-      <c r="AG123">
-        <v>0</v>
-      </c>
-      <c r="AH123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:34">
+    </row>
+    <row r="124" spans="1:32">
       <c r="A124" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B124" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -10295,16 +9551,16 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J124" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="R124">
         <v>123</v>
       </c>
       <c r="S124" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T124">
         <v>47</v>
@@ -10313,13 +9569,13 @@
         <v>91</v>
       </c>
       <c r="V124" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="W124" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Z124" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC124">
         <v>0</v>
@@ -10333,19 +9589,13 @@
       <c r="AF124">
         <v>0</v>
       </c>
-      <c r="AG124">
-        <v>0</v>
-      </c>
-      <c r="AH124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:34">
+    </row>
+    <row r="125" spans="1:32">
       <c r="A125" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B125" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -10363,16 +9613,16 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J125" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="R125">
         <v>124</v>
       </c>
       <c r="S125" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T125">
         <v>47</v>
@@ -10381,13 +9631,13 @@
         <v>91</v>
       </c>
       <c r="V125" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="W125" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Z125" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC125">
         <v>0</v>
@@ -10401,19 +9651,13 @@
       <c r="AF125">
         <v>0</v>
       </c>
-      <c r="AG125">
-        <v>0</v>
-      </c>
-      <c r="AH125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:34">
+    </row>
+    <row r="126" spans="1:32">
       <c r="A126" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B126" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -10431,16 +9675,16 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J126" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="R126">
         <v>125</v>
       </c>
       <c r="S126" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T126">
         <v>47</v>
@@ -10449,13 +9693,13 @@
         <v>91</v>
       </c>
       <c r="V126" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="W126" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Z126" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC126">
         <v>0</v>
@@ -10469,19 +9713,13 @@
       <c r="AF126">
         <v>0</v>
       </c>
-      <c r="AG126">
-        <v>0</v>
-      </c>
-      <c r="AH126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:34">
+    </row>
+    <row r="127" spans="1:32">
       <c r="A127" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B127" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -10499,16 +9737,16 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J127" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="R127">
         <v>126</v>
       </c>
       <c r="S127" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T127">
         <v>48</v>
@@ -10517,13 +9755,13 @@
         <v>92</v>
       </c>
       <c r="V127" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="W127" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="Z127" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC127">
         <v>0</v>
@@ -10537,19 +9775,13 @@
       <c r="AF127">
         <v>0</v>
       </c>
-      <c r="AG127">
-        <v>0</v>
-      </c>
-      <c r="AH127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:34">
+    </row>
+    <row r="128" spans="1:32">
       <c r="A128" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B128" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -10567,19 +9799,19 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I128" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J128" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="R128">
         <v>127</v>
       </c>
       <c r="S128" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T128">
         <v>49</v>
@@ -10588,13 +9820,13 @@
         <v>93</v>
       </c>
       <c r="V128" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="W128" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z128" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC128">
         <v>0</v>
@@ -10608,19 +9840,13 @@
       <c r="AF128">
         <v>0</v>
       </c>
-      <c r="AG128">
-        <v>0</v>
-      </c>
-      <c r="AH128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:34">
+    </row>
+    <row r="129" spans="1:32">
       <c r="A129" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B129" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -10638,19 +9864,19 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I129" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J129" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="R129">
         <v>128</v>
       </c>
       <c r="S129" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T129">
         <v>49</v>
@@ -10659,13 +9885,13 @@
         <v>93</v>
       </c>
       <c r="V129" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="W129" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z129" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC129">
         <v>0</v>
@@ -10679,19 +9905,13 @@
       <c r="AF129">
         <v>0</v>
       </c>
-      <c r="AG129">
-        <v>0</v>
-      </c>
-      <c r="AH129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:34">
+    </row>
+    <row r="130" spans="1:32">
       <c r="A130" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B130" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -10709,19 +9929,19 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I130" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J130" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="R130">
         <v>129</v>
       </c>
       <c r="S130" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T130">
         <v>49</v>
@@ -10730,13 +9950,13 @@
         <v>93</v>
       </c>
       <c r="V130" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="W130" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z130" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC130">
         <v>0</v>
@@ -10750,19 +9970,13 @@
       <c r="AF130">
         <v>0</v>
       </c>
-      <c r="AG130">
-        <v>0</v>
-      </c>
-      <c r="AH130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:34">
+    </row>
+    <row r="131" spans="1:32">
       <c r="A131" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B131" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -10780,19 +9994,19 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I131" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J131" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="R131">
         <v>130</v>
       </c>
       <c r="S131" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T131">
         <v>49</v>
@@ -10801,13 +10015,13 @@
         <v>93</v>
       </c>
       <c r="V131" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="W131" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z131" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC131">
         <v>0</v>
@@ -10821,19 +10035,13 @@
       <c r="AF131">
         <v>0</v>
       </c>
-      <c r="AG131">
-        <v>0</v>
-      </c>
-      <c r="AH131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:34">
+    </row>
+    <row r="132" spans="1:32">
       <c r="A132" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B132" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -10851,16 +10059,16 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J132" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="R132">
         <v>131</v>
       </c>
       <c r="S132" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T132">
         <v>50</v>
@@ -10869,13 +10077,13 @@
         <v>94</v>
       </c>
       <c r="V132" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="W132" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="Z132" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC132">
         <v>0</v>
@@ -10889,19 +10097,13 @@
       <c r="AF132">
         <v>0</v>
       </c>
-      <c r="AG132">
-        <v>0</v>
-      </c>
-      <c r="AH132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:34">
+    </row>
+    <row r="133" spans="1:32">
       <c r="A133" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B133" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -10919,16 +10121,16 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J133" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="R133">
         <v>132</v>
       </c>
       <c r="S133" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T133">
         <v>50</v>
@@ -10937,13 +10139,13 @@
         <v>94</v>
       </c>
       <c r="V133" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="W133" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="Z133" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC133">
         <v>0</v>
@@ -10957,19 +10159,13 @@
       <c r="AF133">
         <v>0</v>
       </c>
-      <c r="AG133">
-        <v>0</v>
-      </c>
-      <c r="AH133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:34">
+    </row>
+    <row r="134" spans="1:32">
       <c r="A134" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B134" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -10987,16 +10183,16 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J134" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="R134">
         <v>133</v>
       </c>
       <c r="S134" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T134">
         <v>50</v>
@@ -11005,13 +10201,13 @@
         <v>94</v>
       </c>
       <c r="V134" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="W134" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="Z134" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC134">
         <v>0</v>
@@ -11025,19 +10221,13 @@
       <c r="AF134">
         <v>0</v>
       </c>
-      <c r="AG134">
-        <v>0</v>
-      </c>
-      <c r="AH134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:34">
+    </row>
+    <row r="135" spans="1:32">
       <c r="A135" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B135" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -11055,16 +10245,16 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J135" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="R135">
         <v>134</v>
       </c>
       <c r="S135" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T135">
         <v>50</v>
@@ -11073,13 +10263,13 @@
         <v>94</v>
       </c>
       <c r="V135" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="W135" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="Z135" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC135">
         <v>0</v>
@@ -11093,19 +10283,13 @@
       <c r="AF135">
         <v>0</v>
       </c>
-      <c r="AG135">
-        <v>0</v>
-      </c>
-      <c r="AH135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:34">
+    </row>
+    <row r="136" spans="1:32">
       <c r="A136" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B136" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -11123,16 +10307,16 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J136" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="R136">
         <v>135</v>
       </c>
       <c r="S136" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T136">
         <v>51</v>
@@ -11141,13 +10325,13 @@
         <v>95</v>
       </c>
       <c r="V136" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="W136" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z136" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC136">
         <v>0</v>
@@ -11161,19 +10345,13 @@
       <c r="AF136">
         <v>0</v>
       </c>
-      <c r="AG136">
-        <v>0</v>
-      </c>
-      <c r="AH136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:34">
+    </row>
+    <row r="137" spans="1:32">
       <c r="A137" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B137" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -11191,16 +10369,16 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J137" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="R137">
         <v>136</v>
       </c>
       <c r="S137" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T137">
         <v>51</v>
@@ -11209,13 +10387,13 @@
         <v>95</v>
       </c>
       <c r="V137" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="W137" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z137" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC137">
         <v>0</v>
@@ -11229,19 +10407,13 @@
       <c r="AF137">
         <v>0</v>
       </c>
-      <c r="AG137">
-        <v>0</v>
-      </c>
-      <c r="AH137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:34">
+    </row>
+    <row r="138" spans="1:32">
       <c r="A138" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B138" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -11259,16 +10431,16 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J138" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="R138">
         <v>137</v>
       </c>
       <c r="S138" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T138">
         <v>52</v>
@@ -11277,13 +10449,13 @@
         <v>96</v>
       </c>
       <c r="V138" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="W138" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="Z138" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC138">
         <v>0</v>
@@ -11297,19 +10469,13 @@
       <c r="AF138">
         <v>0</v>
       </c>
-      <c r="AG138">
-        <v>0</v>
-      </c>
-      <c r="AH138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:34">
+    </row>
+    <row r="139" spans="1:32">
       <c r="A139" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B139" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -11327,16 +10493,16 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J139" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="R139">
         <v>138</v>
       </c>
       <c r="S139" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T139">
         <v>53</v>
@@ -11345,13 +10511,13 @@
         <v>98</v>
       </c>
       <c r="V139" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="W139" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="Z139" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AC139">
         <v>0</v>
@@ -11365,19 +10531,13 @@
       <c r="AF139">
         <v>0</v>
       </c>
-      <c r="AG139">
-        <v>0</v>
-      </c>
-      <c r="AH139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:34">
+    </row>
+    <row r="140" spans="1:32">
       <c r="A140" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B140" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -11395,16 +10555,16 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J140" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="R140">
         <v>139</v>
       </c>
       <c r="S140" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T140">
         <v>54</v>
@@ -11413,13 +10573,13 @@
         <v>99</v>
       </c>
       <c r="V140" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="W140" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z140" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC140">
         <v>0</v>
@@ -11433,19 +10593,13 @@
       <c r="AF140">
         <v>0</v>
       </c>
-      <c r="AG140">
-        <v>0</v>
-      </c>
-      <c r="AH140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:34">
+    </row>
+    <row r="141" spans="1:32">
       <c r="A141" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B141" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -11463,16 +10617,16 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J141" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="R141">
         <v>140</v>
       </c>
       <c r="S141" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T141">
         <v>54</v>
@@ -11481,13 +10635,13 @@
         <v>99</v>
       </c>
       <c r="V141" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="W141" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z141" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC141">
         <v>0</v>
@@ -11501,19 +10655,13 @@
       <c r="AF141">
         <v>0</v>
       </c>
-      <c r="AG141">
-        <v>0</v>
-      </c>
-      <c r="AH141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:34">
+    </row>
+    <row r="142" spans="1:32">
       <c r="A142" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B142" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -11531,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J142" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="R142">
         <v>141</v>
       </c>
       <c r="S142" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T142">
         <v>54</v>
@@ -11549,13 +10697,13 @@
         <v>99</v>
       </c>
       <c r="V142" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="W142" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z142" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC142">
         <v>0</v>
@@ -11569,19 +10717,13 @@
       <c r="AF142">
         <v>0</v>
       </c>
-      <c r="AG142">
-        <v>0</v>
-      </c>
-      <c r="AH142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:34">
+    </row>
+    <row r="143" spans="1:32">
       <c r="A143" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B143" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -11599,16 +10741,16 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J143" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="R143">
         <v>142</v>
       </c>
       <c r="S143" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T143">
         <v>54</v>
@@ -11617,13 +10759,13 @@
         <v>99</v>
       </c>
       <c r="V143" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="W143" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z143" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC143">
         <v>0</v>
@@ -11637,19 +10779,13 @@
       <c r="AF143">
         <v>0</v>
       </c>
-      <c r="AG143">
-        <v>0</v>
-      </c>
-      <c r="AH143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:34">
+    </row>
+    <row r="144" spans="1:32">
       <c r="A144" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B144" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -11667,16 +10803,16 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J144" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="R144">
         <v>143</v>
       </c>
       <c r="S144" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T144">
         <v>55</v>
@@ -11685,13 +10821,13 @@
         <v>100</v>
       </c>
       <c r="V144" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="W144" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z144" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC144">
         <v>0</v>
@@ -11705,19 +10841,13 @@
       <c r="AF144">
         <v>0</v>
       </c>
-      <c r="AG144">
-        <v>0</v>
-      </c>
-      <c r="AH144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:34">
+    </row>
+    <row r="145" spans="1:32">
       <c r="A145" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B145" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -11735,16 +10865,16 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J145" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="R145">
         <v>144</v>
       </c>
       <c r="S145" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T145">
         <v>55</v>
@@ -11753,13 +10883,13 @@
         <v>100</v>
       </c>
       <c r="V145" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="W145" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z145" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC145">
         <v>0</v>
@@ -11773,19 +10903,13 @@
       <c r="AF145">
         <v>0</v>
       </c>
-      <c r="AG145">
-        <v>0</v>
-      </c>
-      <c r="AH145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:34">
+    </row>
+    <row r="146" spans="1:32">
       <c r="A146" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B146" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -11803,16 +10927,16 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J146" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="R146">
         <v>145</v>
       </c>
       <c r="S146" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T146">
         <v>55</v>
@@ -11821,13 +10945,13 @@
         <v>100</v>
       </c>
       <c r="V146" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="W146" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z146" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC146">
         <v>0</v>
@@ -11841,19 +10965,13 @@
       <c r="AF146">
         <v>0</v>
       </c>
-      <c r="AG146">
-        <v>0</v>
-      </c>
-      <c r="AH146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:34">
+    </row>
+    <row r="147" spans="1:32">
       <c r="A147" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B147" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -11871,16 +10989,16 @@
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J147" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="R147">
         <v>146</v>
       </c>
       <c r="S147" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T147">
         <v>56</v>
@@ -11889,13 +11007,13 @@
         <v>101</v>
       </c>
       <c r="V147" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="W147" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Z147" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC147">
         <v>0</v>
@@ -11909,19 +11027,13 @@
       <c r="AF147">
         <v>0</v>
       </c>
-      <c r="AG147">
-        <v>0</v>
-      </c>
-      <c r="AH147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:34">
+    </row>
+    <row r="148" spans="1:32">
       <c r="A148" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B148" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -11939,16 +11051,16 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J148" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="R148">
         <v>147</v>
       </c>
       <c r="S148" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T148">
         <v>57</v>
@@ -11957,13 +11069,13 @@
         <v>102</v>
       </c>
       <c r="V148" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="W148" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Z148" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC148">
         <v>0</v>
@@ -11977,19 +11089,13 @@
       <c r="AF148">
         <v>0</v>
       </c>
-      <c r="AG148">
-        <v>0</v>
-      </c>
-      <c r="AH148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:34">
+    </row>
+    <row r="149" spans="1:32">
       <c r="A149" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B149" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -12007,16 +11113,16 @@
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J149" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="R149">
         <v>148</v>
       </c>
       <c r="S149" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T149">
         <v>57</v>
@@ -12025,13 +11131,13 @@
         <v>102</v>
       </c>
       <c r="V149" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="W149" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Z149" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC149">
         <v>0</v>
@@ -12045,19 +11151,13 @@
       <c r="AF149">
         <v>0</v>
       </c>
-      <c r="AG149">
-        <v>0</v>
-      </c>
-      <c r="AH149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:34">
+    </row>
+    <row r="150" spans="1:32">
       <c r="A150" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B150" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -12075,16 +11175,16 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J150" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="R150">
         <v>149</v>
       </c>
       <c r="S150" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T150">
         <v>57</v>
@@ -12093,13 +11193,13 @@
         <v>102</v>
       </c>
       <c r="V150" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="W150" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Z150" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC150">
         <v>0</v>
@@ -12113,19 +11213,13 @@
       <c r="AF150">
         <v>0</v>
       </c>
-      <c r="AG150">
-        <v>0</v>
-      </c>
-      <c r="AH150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:34">
+    </row>
+    <row r="151" spans="1:32">
       <c r="A151" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B151" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -12143,16 +11237,16 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J151" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="R151">
         <v>150</v>
       </c>
       <c r="S151" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T151">
         <v>58</v>
@@ -12161,13 +11255,13 @@
         <v>103</v>
       </c>
       <c r="V151" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="W151" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="Z151" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC151">
         <v>0</v>
@@ -12181,19 +11275,13 @@
       <c r="AF151">
         <v>0</v>
       </c>
-      <c r="AG151">
-        <v>0</v>
-      </c>
-      <c r="AH151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:34">
+    </row>
+    <row r="152" spans="1:32">
       <c r="A152" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B152" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -12211,16 +11299,16 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J152" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="R152">
         <v>151</v>
       </c>
       <c r="S152" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T152">
         <v>59</v>
@@ -12229,13 +11317,13 @@
         <v>104</v>
       </c>
       <c r="V152" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="W152" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z152" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC152">
         <v>0</v>
@@ -12249,19 +11337,13 @@
       <c r="AF152">
         <v>0</v>
       </c>
-      <c r="AG152">
-        <v>0</v>
-      </c>
-      <c r="AH152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:34">
+    </row>
+    <row r="153" spans="1:32">
       <c r="A153" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B153" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -12279,16 +11361,16 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J153" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="R153">
         <v>152</v>
       </c>
       <c r="S153" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T153">
         <v>59</v>
@@ -12297,13 +11379,13 @@
         <v>104</v>
       </c>
       <c r="V153" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="W153" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z153" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC153">
         <v>0</v>
@@ -12317,19 +11399,13 @@
       <c r="AF153">
         <v>0</v>
       </c>
-      <c r="AG153">
-        <v>0</v>
-      </c>
-      <c r="AH153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:34">
+    </row>
+    <row r="154" spans="1:32">
       <c r="A154" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B154" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -12347,16 +11423,16 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J154" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="R154">
         <v>153</v>
       </c>
       <c r="S154" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T154">
         <v>59</v>
@@ -12365,13 +11441,13 @@
         <v>104</v>
       </c>
       <c r="V154" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="W154" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z154" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC154">
         <v>0</v>
@@ -12385,19 +11461,13 @@
       <c r="AF154">
         <v>0</v>
       </c>
-      <c r="AG154">
-        <v>0</v>
-      </c>
-      <c r="AH154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:34">
+    </row>
+    <row r="155" spans="1:32">
       <c r="A155" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B155" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -12415,16 +11485,16 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J155" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="R155">
         <v>154</v>
       </c>
       <c r="S155" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T155">
         <v>59</v>
@@ -12433,13 +11503,13 @@
         <v>104</v>
       </c>
       <c r="V155" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="W155" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z155" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC155">
         <v>0</v>
@@ -12453,19 +11523,13 @@
       <c r="AF155">
         <v>0</v>
       </c>
-      <c r="AG155">
-        <v>0</v>
-      </c>
-      <c r="AH155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:34">
+    </row>
+    <row r="156" spans="1:32">
       <c r="A156" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B156" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -12483,16 +11547,16 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J156" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="R156">
         <v>155</v>
       </c>
       <c r="S156" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T156">
         <v>60</v>
@@ -12501,13 +11565,13 @@
         <v>105</v>
       </c>
       <c r="V156" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="W156" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="Z156" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC156">
         <v>0</v>
@@ -12521,19 +11585,13 @@
       <c r="AF156">
         <v>0</v>
       </c>
-      <c r="AG156">
-        <v>0</v>
-      </c>
-      <c r="AH156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:34">
+    </row>
+    <row r="157" spans="1:32">
       <c r="A157" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B157" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -12551,16 +11609,16 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J157" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="R157">
         <v>156</v>
       </c>
       <c r="S157" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T157">
         <v>61</v>
@@ -12569,13 +11627,13 @@
         <v>106</v>
       </c>
       <c r="V157" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="W157" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="Z157" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC157">
         <v>0</v>
@@ -12589,19 +11647,13 @@
       <c r="AF157">
         <v>0</v>
       </c>
-      <c r="AG157">
-        <v>0</v>
-      </c>
-      <c r="AH157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:34">
+    </row>
+    <row r="158" spans="1:32">
       <c r="A158" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B158" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -12619,16 +11671,16 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J158" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="R158">
         <v>157</v>
       </c>
       <c r="S158" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T158">
         <v>63</v>
@@ -12637,13 +11689,13 @@
         <v>110</v>
       </c>
       <c r="V158" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="W158" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="Z158" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC158">
         <v>0</v>
@@ -12657,19 +11709,13 @@
       <c r="AF158">
         <v>0</v>
       </c>
-      <c r="AG158">
-        <v>0</v>
-      </c>
-      <c r="AH158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:34">
+    </row>
+    <row r="159" spans="1:32">
       <c r="A159" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B159" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -12687,16 +11733,16 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J159" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R159">
         <v>158</v>
       </c>
       <c r="S159" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T159">
         <v>64</v>
@@ -12705,13 +11751,13 @@
         <v>111</v>
       </c>
       <c r="V159" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="W159" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="Z159" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC159">
         <v>0</v>
@@ -12725,19 +11771,13 @@
       <c r="AF159">
         <v>0</v>
       </c>
-      <c r="AG159">
-        <v>0</v>
-      </c>
-      <c r="AH159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:34">
+    </row>
+    <row r="160" spans="1:32">
       <c r="A160" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B160" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -12755,16 +11795,16 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J160" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="R160">
         <v>159</v>
       </c>
       <c r="S160" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T160">
         <v>65</v>
@@ -12773,13 +11813,13 @@
         <v>113</v>
       </c>
       <c r="V160" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="W160" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="Z160" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC160">
         <v>0</v>
@@ -12793,19 +11833,13 @@
       <c r="AF160">
         <v>0</v>
       </c>
-      <c r="AG160">
-        <v>0</v>
-      </c>
-      <c r="AH160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:34">
+    </row>
+    <row r="161" spans="1:32">
       <c r="A161" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B161" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -12823,19 +11857,19 @@
         <v>0</v>
       </c>
       <c r="H161" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I161" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J161" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="R161">
         <v>160</v>
       </c>
       <c r="S161" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T161">
         <v>67</v>
@@ -12844,13 +11878,13 @@
         <v>115</v>
       </c>
       <c r="V161" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="W161" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="Z161" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AC161">
         <v>0</v>
@@ -12864,19 +11898,13 @@
       <c r="AF161">
         <v>0</v>
       </c>
-      <c r="AG161">
-        <v>0</v>
-      </c>
-      <c r="AH161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:34">
+    </row>
+    <row r="162" spans="1:32">
       <c r="A162" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B162" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -12894,16 +11922,16 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J162" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="R162">
         <v>161</v>
       </c>
       <c r="S162" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T162">
         <v>70</v>
@@ -12912,13 +11940,13 @@
         <v>119</v>
       </c>
       <c r="V162" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="W162" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z162" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC162">
         <v>0</v>
@@ -12932,19 +11960,13 @@
       <c r="AF162">
         <v>0</v>
       </c>
-      <c r="AG162">
-        <v>0</v>
-      </c>
-      <c r="AH162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:34">
+    </row>
+    <row r="163" spans="1:32">
       <c r="A163" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B163" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -12962,16 +11984,16 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J163" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="R163">
         <v>162</v>
       </c>
       <c r="S163" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T163">
         <v>70</v>
@@ -12980,13 +12002,13 @@
         <v>119</v>
       </c>
       <c r="V163" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="W163" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z163" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC163">
         <v>0</v>
@@ -12998,12 +12020,6 @@
         <v>0</v>
       </c>
       <c r="AF163">
-        <v>0</v>
-      </c>
-      <c r="AG163">
-        <v>0</v>
-      </c>
-      <c r="AH163">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p16.xlsx
+++ b/files/separadas/repeat_p16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="460">
   <si>
     <t>p16_rom</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>c3</t>
+  </si>
+  <si>
+    <t>l1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1773,13 +1776,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF163"/>
+  <dimension ref="A1:AG163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1876,13 +1879,16 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:32">
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1900,16 +1906,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T2">
         <v>2</v>
@@ -1918,13 +1924,13 @@
         <v>6</v>
       </c>
       <c r="V2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="W2" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="Z2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1938,13 +1944,16 @@
       <c r="AF2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:32">
+      <c r="AG2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1962,16 +1971,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="R3">
         <v>2</v>
       </c>
       <c r="S3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T3">
         <v>3</v>
@@ -1980,13 +1989,13 @@
         <v>7</v>
       </c>
       <c r="V3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="W3" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="Z3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -2000,13 +2009,16 @@
       <c r="AF3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:32">
+      <c r="AG3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2024,16 +2036,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R4">
         <v>3</v>
       </c>
       <c r="S4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T4">
         <v>3</v>
@@ -2042,13 +2054,13 @@
         <v>7</v>
       </c>
       <c r="V4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="W4" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="Z4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -2062,13 +2074,16 @@
       <c r="AF4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:32">
+      <c r="AG4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2086,19 +2101,19 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R5">
         <v>4</v>
       </c>
       <c r="S5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T5">
         <v>4</v>
@@ -2107,13 +2122,13 @@
         <v>9</v>
       </c>
       <c r="V5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="W5" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="Z5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -2127,13 +2142,16 @@
       <c r="AF5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:32">
+      <c r="AG5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2151,16 +2169,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="R6">
         <v>5</v>
       </c>
       <c r="S6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T6">
         <v>5</v>
@@ -2169,13 +2187,13 @@
         <v>10</v>
       </c>
       <c r="V6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="W6" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -2189,13 +2207,16 @@
       <c r="AF6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:32">
+      <c r="AG6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2213,16 +2234,16 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R7">
         <v>6</v>
       </c>
       <c r="S7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T7">
         <v>5</v>
@@ -2231,13 +2252,13 @@
         <v>10</v>
       </c>
       <c r="V7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="W7" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -2251,13 +2272,16 @@
       <c r="AF7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:32">
+      <c r="AG7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2275,16 +2299,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="R8">
         <v>7</v>
       </c>
       <c r="S8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T8">
         <v>5</v>
@@ -2293,13 +2317,13 @@
         <v>10</v>
       </c>
       <c r="V8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="W8" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -2313,13 +2337,16 @@
       <c r="AF8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:32">
+      <c r="AG8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2337,16 +2364,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="R9">
         <v>8</v>
       </c>
       <c r="S9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T9">
         <v>5</v>
@@ -2355,13 +2382,13 @@
         <v>10</v>
       </c>
       <c r="V9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="W9" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -2375,13 +2402,16 @@
       <c r="AF9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:32">
+      <c r="AG9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2399,16 +2429,16 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="R10">
         <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T10">
         <v>5</v>
@@ -2417,13 +2447,13 @@
         <v>10</v>
       </c>
       <c r="V10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="W10" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -2437,13 +2467,16 @@
       <c r="AF10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:32">
+      <c r="AG10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2461,16 +2494,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R11">
         <v>10</v>
       </c>
       <c r="S11" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T11">
         <v>6</v>
@@ -2479,13 +2512,13 @@
         <v>12</v>
       </c>
       <c r="V11" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="W11" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="Z11" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -2499,13 +2532,16 @@
       <c r="AF11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:32">
+      <c r="AG11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2523,16 +2559,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R12">
         <v>11</v>
       </c>
       <c r="S12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T12">
         <v>7</v>
@@ -2541,13 +2577,13 @@
         <v>13</v>
       </c>
       <c r="V12" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="W12" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="Z12" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -2561,13 +2597,16 @@
       <c r="AF12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:32">
+      <c r="AG12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2585,16 +2624,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R13">
         <v>12</v>
       </c>
       <c r="S13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T13">
         <v>9</v>
@@ -2603,13 +2642,13 @@
         <v>15</v>
       </c>
       <c r="V13" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="W13" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Z13" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -2623,13 +2662,16 @@
       <c r="AF13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:32">
+      <c r="AG13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2647,16 +2689,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R14">
         <v>13</v>
       </c>
       <c r="S14" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T14">
         <v>9</v>
@@ -2665,13 +2707,13 @@
         <v>15</v>
       </c>
       <c r="V14" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="W14" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Z14" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -2685,13 +2727,16 @@
       <c r="AF14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:32">
+      <c r="AG14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2709,16 +2754,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R15">
         <v>14</v>
       </c>
       <c r="S15" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T15">
         <v>10</v>
@@ -2727,13 +2772,13 @@
         <v>16</v>
       </c>
       <c r="V15" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="W15" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="Z15" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -2747,13 +2792,16 @@
       <c r="AF15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:32">
+      <c r="AG15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2771,19 +2819,19 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J16" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R16">
         <v>15</v>
       </c>
       <c r="S16" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T16">
         <v>10</v>
@@ -2792,13 +2840,13 @@
         <v>16</v>
       </c>
       <c r="V16" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="W16" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="Z16" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -2812,13 +2860,16 @@
       <c r="AF16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:32">
+      <c r="AG16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2836,16 +2887,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J17" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="R17">
         <v>16</v>
       </c>
       <c r="S17" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T17">
         <v>11</v>
@@ -2854,13 +2905,13 @@
         <v>17</v>
       </c>
       <c r="V17" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="W17" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z17" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -2874,13 +2925,16 @@
       <c r="AF17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:32">
+      <c r="AG17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2898,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J18" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="R18">
         <v>17</v>
       </c>
       <c r="S18" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T18">
         <v>11</v>
@@ -2916,13 +2970,13 @@
         <v>17</v>
       </c>
       <c r="V18" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="W18" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z18" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC18">
         <v>0</v>
@@ -2936,13 +2990,16 @@
       <c r="AF18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:32">
+      <c r="AG18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2960,16 +3017,16 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="R19">
         <v>18</v>
       </c>
       <c r="S19" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T19">
         <v>11</v>
@@ -2978,13 +3035,13 @@
         <v>17</v>
       </c>
       <c r="V19" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="W19" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z19" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -2998,13 +3055,16 @@
       <c r="AF19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:32">
+      <c r="AG19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -3022,16 +3082,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J20" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R20">
         <v>19</v>
       </c>
       <c r="S20" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T20">
         <v>11</v>
@@ -3040,13 +3100,13 @@
         <v>17</v>
       </c>
       <c r="V20" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="W20" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z20" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -3060,13 +3120,16 @@
       <c r="AF20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:32">
+      <c r="AG20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -3084,16 +3147,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J21" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R21">
         <v>20</v>
       </c>
       <c r="S21" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T21">
         <v>11</v>
@@ -3102,13 +3165,13 @@
         <v>17</v>
       </c>
       <c r="V21" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="W21" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z21" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -3122,13 +3185,16 @@
       <c r="AF21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:32">
+      <c r="AG21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -3146,16 +3212,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="R22">
         <v>21</v>
       </c>
       <c r="S22" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T22">
         <v>11</v>
@@ -3164,13 +3230,13 @@
         <v>17</v>
       </c>
       <c r="V22" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="W22" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z22" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -3184,13 +3250,16 @@
       <c r="AF22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:32">
+      <c r="AG22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -3208,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J23" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="R23">
         <v>22</v>
       </c>
       <c r="S23" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T23">
         <v>11</v>
@@ -3226,13 +3295,13 @@
         <v>17</v>
       </c>
       <c r="V23" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="W23" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z23" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC23">
         <v>0</v>
@@ -3246,13 +3315,16 @@
       <c r="AF23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:32">
+      <c r="AG23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3270,16 +3342,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J24" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="R24">
         <v>23</v>
       </c>
       <c r="S24" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T24">
         <v>11</v>
@@ -3288,13 +3360,13 @@
         <v>17</v>
       </c>
       <c r="V24" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="W24" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z24" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -3308,13 +3380,16 @@
       <c r="AF24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:32">
+      <c r="AG24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -3332,19 +3407,19 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J25" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="R25">
         <v>24</v>
       </c>
       <c r="S25" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T25">
         <v>12</v>
@@ -3353,13 +3428,13 @@
         <v>18</v>
       </c>
       <c r="V25" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="W25" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="Z25" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -3373,13 +3448,16 @@
       <c r="AF25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:32">
+      <c r="AG25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -3397,16 +3475,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J26" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="R26">
         <v>25</v>
       </c>
       <c r="S26" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T26">
         <v>13</v>
@@ -3415,13 +3493,13 @@
         <v>20</v>
       </c>
       <c r="V26" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="W26" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="Z26" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -3435,13 +3513,16 @@
       <c r="AF26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:32">
+      <c r="AG26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -3459,16 +3540,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J27" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R27">
         <v>26</v>
       </c>
       <c r="S27" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T27">
         <v>13</v>
@@ -3477,13 +3558,13 @@
         <v>20</v>
       </c>
       <c r="V27" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="W27" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="Z27" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -3497,13 +3578,16 @@
       <c r="AF27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:32">
+      <c r="AG27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -3521,16 +3605,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J28" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="R28">
         <v>27</v>
       </c>
       <c r="S28" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T28">
         <v>14</v>
@@ -3539,13 +3623,13 @@
         <v>21</v>
       </c>
       <c r="V28" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="W28" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="Z28" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -3559,13 +3643,16 @@
       <c r="AF28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:32">
+      <c r="AG28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -3583,16 +3670,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J29" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="R29">
         <v>28</v>
       </c>
       <c r="S29" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T29">
         <v>15</v>
@@ -3601,13 +3688,13 @@
         <v>22</v>
       </c>
       <c r="V29" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="W29" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Z29" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -3621,13 +3708,16 @@
       <c r="AF29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:32">
+      <c r="AG29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -3645,16 +3735,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J30" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="R30">
         <v>29</v>
       </c>
       <c r="S30" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T30">
         <v>15</v>
@@ -3663,13 +3753,13 @@
         <v>22</v>
       </c>
       <c r="V30" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="W30" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Z30" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC30">
         <v>0</v>
@@ -3683,13 +3773,16 @@
       <c r="AF30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:32">
+      <c r="AG30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -3707,16 +3800,16 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J31" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="R31">
         <v>30</v>
       </c>
       <c r="S31" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T31">
         <v>15</v>
@@ -3725,13 +3818,13 @@
         <v>22</v>
       </c>
       <c r="V31" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="W31" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Z31" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -3745,13 +3838,16 @@
       <c r="AF31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:32">
+      <c r="AG31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3769,16 +3865,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J32" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="R32">
         <v>31</v>
       </c>
       <c r="S32" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T32">
         <v>16</v>
@@ -3787,13 +3883,13 @@
         <v>25</v>
       </c>
       <c r="V32" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="W32" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="Z32" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC32">
         <v>0</v>
@@ -3807,13 +3903,16 @@
       <c r="AF32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:32">
+      <c r="AG32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3831,16 +3930,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J33" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R33">
         <v>32</v>
       </c>
       <c r="S33" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T33">
         <v>17</v>
@@ -3849,13 +3948,13 @@
         <v>26</v>
       </c>
       <c r="V33" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="W33" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z33" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -3869,13 +3968,16 @@
       <c r="AF33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:32">
+      <c r="AG33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -3893,19 +3995,19 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I34" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J34" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="R34">
         <v>33</v>
       </c>
       <c r="S34" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T34">
         <v>18</v>
@@ -3914,13 +4016,13 @@
         <v>27</v>
       </c>
       <c r="V34" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="W34" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="Z34" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC34">
         <v>0</v>
@@ -3934,13 +4036,16 @@
       <c r="AF34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:32">
+      <c r="AG34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3958,19 +4063,19 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I35" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J35" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="R35">
         <v>34</v>
       </c>
       <c r="S35" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T35">
         <v>19</v>
@@ -3979,13 +4084,13 @@
         <v>30</v>
       </c>
       <c r="V35" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="W35" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z35" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC35">
         <v>0</v>
@@ -3999,13 +4104,16 @@
       <c r="AF35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:32">
+      <c r="AG35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -4023,19 +4131,19 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I36" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J36" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="R36">
         <v>35</v>
       </c>
       <c r="S36" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T36">
         <v>19</v>
@@ -4044,13 +4152,13 @@
         <v>30</v>
       </c>
       <c r="V36" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="W36" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z36" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC36">
         <v>0</v>
@@ -4064,13 +4172,16 @@
       <c r="AF36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:32">
+      <c r="AG36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -4088,19 +4199,19 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I37" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J37" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R37">
         <v>36</v>
       </c>
       <c r="S37" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T37">
         <v>19</v>
@@ -4109,13 +4220,13 @@
         <v>30</v>
       </c>
       <c r="V37" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="W37" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z37" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC37">
         <v>0</v>
@@ -4129,13 +4240,16 @@
       <c r="AF37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:32">
+      <c r="AG37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -4153,16 +4267,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J38" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="R38">
         <v>37</v>
       </c>
       <c r="S38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T38">
         <v>20</v>
@@ -4171,13 +4285,13 @@
         <v>33</v>
       </c>
       <c r="V38" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="W38" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="Z38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC38">
         <v>0</v>
@@ -4191,13 +4305,16 @@
       <c r="AF38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:32">
+      <c r="AG38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4215,16 +4332,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J39" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="R39">
         <v>38</v>
       </c>
       <c r="S39" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T39">
         <v>20</v>
@@ -4233,13 +4350,13 @@
         <v>33</v>
       </c>
       <c r="V39" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="W39" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="Z39" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC39">
         <v>0</v>
@@ -4253,13 +4370,16 @@
       <c r="AF39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:32">
+      <c r="AG39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -4277,16 +4397,16 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J40" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="R40">
         <v>39</v>
       </c>
       <c r="S40" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T40">
         <v>20</v>
@@ -4295,13 +4415,13 @@
         <v>33</v>
       </c>
       <c r="V40" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="W40" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="Z40" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC40">
         <v>0</v>
@@ -4315,13 +4435,16 @@
       <c r="AF40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:32">
+      <c r="AG40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -4339,16 +4462,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J41" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="R41">
         <v>40</v>
       </c>
       <c r="S41" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T41">
         <v>20</v>
@@ -4357,13 +4480,13 @@
         <v>33</v>
       </c>
       <c r="V41" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="W41" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="Z41" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC41">
         <v>0</v>
@@ -4377,13 +4500,16 @@
       <c r="AF41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:32">
+      <c r="AG41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -4401,16 +4527,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J42" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="R42">
         <v>41</v>
       </c>
       <c r="S42" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T42">
         <v>21</v>
@@ -4419,13 +4545,13 @@
         <v>34</v>
       </c>
       <c r="V42" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="W42" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Z42" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC42">
         <v>0</v>
@@ -4439,13 +4565,16 @@
       <c r="AF42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:32">
+      <c r="AG42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4463,16 +4592,16 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J43" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="R43">
         <v>42</v>
       </c>
       <c r="S43" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T43">
         <v>22</v>
@@ -4481,13 +4610,13 @@
         <v>37</v>
       </c>
       <c r="V43" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="W43" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z43" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC43">
         <v>0</v>
@@ -4501,13 +4630,16 @@
       <c r="AF43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:32">
+      <c r="AG43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4525,16 +4657,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J44" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="R44">
         <v>43</v>
       </c>
       <c r="S44" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T44">
         <v>23</v>
@@ -4543,13 +4675,13 @@
         <v>38</v>
       </c>
       <c r="V44" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W44" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z44" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC44">
         <v>0</v>
@@ -4563,13 +4695,16 @@
       <c r="AF44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:32">
+      <c r="AG44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4587,16 +4722,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J45" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="R45">
         <v>44</v>
       </c>
       <c r="S45" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T45">
         <v>23</v>
@@ -4605,13 +4740,13 @@
         <v>38</v>
       </c>
       <c r="V45" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W45" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z45" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC45">
         <v>0</v>
@@ -4625,13 +4760,16 @@
       <c r="AF45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:32">
+      <c r="AG45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4649,16 +4787,16 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J46" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R46">
         <v>45</v>
       </c>
       <c r="S46" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T46">
         <v>23</v>
@@ -4667,13 +4805,13 @@
         <v>38</v>
       </c>
       <c r="V46" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W46" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z46" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC46">
         <v>0</v>
@@ -4687,13 +4825,16 @@
       <c r="AF46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:32">
+      <c r="AG46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4711,16 +4852,16 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J47" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="R47">
         <v>46</v>
       </c>
       <c r="S47" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T47">
         <v>23</v>
@@ -4729,13 +4870,13 @@
         <v>38</v>
       </c>
       <c r="V47" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W47" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z47" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC47">
         <v>0</v>
@@ -4749,13 +4890,16 @@
       <c r="AF47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:32">
+      <c r="AG47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4773,16 +4917,16 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J48" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="R48">
         <v>47</v>
       </c>
       <c r="S48" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T48">
         <v>23</v>
@@ -4791,13 +4935,13 @@
         <v>38</v>
       </c>
       <c r="V48" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W48" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z48" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC48">
         <v>0</v>
@@ -4811,13 +4955,16 @@
       <c r="AF48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:32">
+      <c r="AG48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B49" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4835,16 +4982,16 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J49" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="R49">
         <v>48</v>
       </c>
       <c r="S49" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T49">
         <v>23</v>
@@ -4853,13 +5000,13 @@
         <v>38</v>
       </c>
       <c r="V49" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W49" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z49" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC49">
         <v>0</v>
@@ -4873,13 +5020,16 @@
       <c r="AF49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:32">
+      <c r="AG49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -4897,16 +5047,16 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J50" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="R50">
         <v>49</v>
       </c>
       <c r="S50" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T50">
         <v>23</v>
@@ -4915,13 +5065,13 @@
         <v>38</v>
       </c>
       <c r="V50" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W50" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z50" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC50">
         <v>0</v>
@@ -4935,13 +5085,16 @@
       <c r="AF50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:32">
+      <c r="AG50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4959,16 +5112,16 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J51" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="R51">
         <v>50</v>
       </c>
       <c r="S51" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T51">
         <v>23</v>
@@ -4977,13 +5130,13 @@
         <v>38</v>
       </c>
       <c r="V51" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W51" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z51" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC51">
         <v>0</v>
@@ -4997,13 +5150,16 @@
       <c r="AF51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:32">
+      <c r="AG51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -5021,16 +5177,16 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J52" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="R52">
         <v>51</v>
       </c>
       <c r="S52" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T52">
         <v>23</v>
@@ -5039,13 +5195,13 @@
         <v>38</v>
       </c>
       <c r="V52" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W52" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z52" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC52">
         <v>0</v>
@@ -5059,13 +5215,16 @@
       <c r="AF52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:32">
+      <c r="AG52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -5083,16 +5242,16 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J53" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="R53">
         <v>52</v>
       </c>
       <c r="S53" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T53">
         <v>23</v>
@@ -5101,13 +5260,13 @@
         <v>38</v>
       </c>
       <c r="V53" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W53" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z53" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC53">
         <v>0</v>
@@ -5121,13 +5280,16 @@
       <c r="AF53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:32">
+      <c r="AG53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -5145,16 +5307,16 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J54" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R54">
         <v>53</v>
       </c>
       <c r="S54" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T54">
         <v>23</v>
@@ -5163,13 +5325,13 @@
         <v>38</v>
       </c>
       <c r="V54" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W54" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z54" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC54">
         <v>0</v>
@@ -5183,13 +5345,16 @@
       <c r="AF54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:32">
+      <c r="AG54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B55" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -5207,16 +5372,16 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J55" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R55">
         <v>54</v>
       </c>
       <c r="S55" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T55">
         <v>23</v>
@@ -5225,13 +5390,13 @@
         <v>38</v>
       </c>
       <c r="V55" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W55" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z55" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC55">
         <v>0</v>
@@ -5245,13 +5410,16 @@
       <c r="AF55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:32">
+      <c r="AG55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -5269,16 +5437,16 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J56" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R56">
         <v>55</v>
       </c>
       <c r="S56" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T56">
         <v>23</v>
@@ -5287,13 +5455,13 @@
         <v>38</v>
       </c>
       <c r="V56" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W56" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z56" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC56">
         <v>0</v>
@@ -5307,13 +5475,16 @@
       <c r="AF56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:32">
+      <c r="AG56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B57" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -5331,16 +5502,16 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J57" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="R57">
         <v>56</v>
       </c>
       <c r="S57" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T57">
         <v>23</v>
@@ -5349,13 +5520,13 @@
         <v>38</v>
       </c>
       <c r="V57" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W57" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z57" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC57">
         <v>0</v>
@@ -5369,13 +5540,16 @@
       <c r="AF57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:32">
+      <c r="AG57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B58" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -5393,16 +5567,16 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J58" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R58">
         <v>57</v>
       </c>
       <c r="S58" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T58">
         <v>23</v>
@@ -5411,13 +5585,13 @@
         <v>38</v>
       </c>
       <c r="V58" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W58" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z58" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC58">
         <v>0</v>
@@ -5431,13 +5605,16 @@
       <c r="AF58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:32">
+      <c r="AG58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33">
       <c r="A59" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -5455,19 +5632,19 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I59" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J59" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R59">
         <v>58</v>
       </c>
       <c r="S59" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T59">
         <v>24</v>
@@ -5476,13 +5653,13 @@
         <v>51</v>
       </c>
       <c r="V59" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="W59" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z59" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC59">
         <v>0</v>
@@ -5496,13 +5673,16 @@
       <c r="AF59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:32">
+      <c r="AG59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33">
       <c r="A60" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -5520,19 +5700,19 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I60" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J60" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="R60">
         <v>59</v>
       </c>
       <c r="S60" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T60">
         <v>24</v>
@@ -5541,13 +5721,13 @@
         <v>51</v>
       </c>
       <c r="V60" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="W60" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z60" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC60">
         <v>0</v>
@@ -5561,13 +5741,16 @@
       <c r="AF60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:32">
+      <c r="AG60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B61" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -5585,19 +5768,19 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I61" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J61" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R61">
         <v>60</v>
       </c>
       <c r="S61" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T61">
         <v>24</v>
@@ -5606,13 +5789,13 @@
         <v>51</v>
       </c>
       <c r="V61" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="W61" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z61" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC61">
         <v>0</v>
@@ -5626,13 +5809,16 @@
       <c r="AF61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:32">
+      <c r="AG61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33">
       <c r="A62" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B62" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -5650,19 +5836,19 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I62" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J62" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R62">
         <v>61</v>
       </c>
       <c r="S62" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T62">
         <v>24</v>
@@ -5671,13 +5857,13 @@
         <v>51</v>
       </c>
       <c r="V62" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="W62" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z62" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC62">
         <v>0</v>
@@ -5691,13 +5877,16 @@
       <c r="AF62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:32">
+      <c r="AG62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33">
       <c r="A63" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B63" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -5715,19 +5904,19 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I63" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J63" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R63">
         <v>62</v>
       </c>
       <c r="S63" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T63">
         <v>24</v>
@@ -5736,13 +5925,13 @@
         <v>51</v>
       </c>
       <c r="V63" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="W63" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z63" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC63">
         <v>0</v>
@@ -5756,13 +5945,16 @@
       <c r="AF63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:32">
+      <c r="AG63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33">
       <c r="A64" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B64" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -5780,19 +5972,19 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I64" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J64" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R64">
         <v>63</v>
       </c>
       <c r="S64" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T64">
         <v>24</v>
@@ -5801,13 +5993,13 @@
         <v>51</v>
       </c>
       <c r="V64" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="W64" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z64" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC64">
         <v>0</v>
@@ -5821,13 +6013,16 @@
       <c r="AF64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:32">
+      <c r="AG64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B65" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -5845,16 +6040,16 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J65" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="R65">
         <v>64</v>
       </c>
       <c r="S65" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T65">
         <v>24</v>
@@ -5863,13 +6058,13 @@
         <v>51</v>
       </c>
       <c r="V65" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="W65" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z65" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC65">
         <v>0</v>
@@ -5883,13 +6078,16 @@
       <c r="AF65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:32">
+      <c r="AG65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33">
       <c r="A66" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B66" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -5907,19 +6105,19 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I66" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J66" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R66">
         <v>65</v>
       </c>
       <c r="S66" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T66">
         <v>24</v>
@@ -5928,13 +6126,13 @@
         <v>51</v>
       </c>
       <c r="V66" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="W66" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z66" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC66">
         <v>0</v>
@@ -5948,13 +6146,16 @@
       <c r="AF66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:32">
+      <c r="AG66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B67" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -5972,19 +6173,19 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I67" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J67" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R67">
         <v>66</v>
       </c>
       <c r="S67" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T67">
         <v>24</v>
@@ -5993,13 +6194,13 @@
         <v>51</v>
       </c>
       <c r="V67" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="W67" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z67" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC67">
         <v>0</v>
@@ -6013,13 +6214,16 @@
       <c r="AF67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:32">
+      <c r="AG67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B68" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -6037,19 +6241,19 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I68" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J68" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="R68">
         <v>67</v>
       </c>
       <c r="S68" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T68">
         <v>24</v>
@@ -6058,13 +6262,13 @@
         <v>51</v>
       </c>
       <c r="V68" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="W68" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z68" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC68">
         <v>0</v>
@@ -6078,13 +6282,16 @@
       <c r="AF68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:32">
+      <c r="AG68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B69" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -6102,16 +6309,16 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J69" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="R69">
         <v>68</v>
       </c>
       <c r="S69" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T69">
         <v>26</v>
@@ -6120,13 +6327,13 @@
         <v>55</v>
       </c>
       <c r="V69" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="W69" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="Z69" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC69">
         <v>0</v>
@@ -6140,13 +6347,16 @@
       <c r="AF69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:32">
+      <c r="AG69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B70" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -6164,16 +6374,16 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J70" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="R70">
         <v>69</v>
       </c>
       <c r="S70" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T70">
         <v>26</v>
@@ -6182,13 +6392,13 @@
         <v>55</v>
       </c>
       <c r="V70" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="W70" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="Z70" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC70">
         <v>0</v>
@@ -6202,13 +6412,16 @@
       <c r="AF70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:32">
+      <c r="AG70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33">
       <c r="A71" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B71" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -6226,16 +6439,16 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J71" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="R71">
         <v>70</v>
       </c>
       <c r="S71" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T71">
         <v>26</v>
@@ -6244,13 +6457,13 @@
         <v>55</v>
       </c>
       <c r="V71" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="W71" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="Z71" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC71">
         <v>0</v>
@@ -6264,13 +6477,16 @@
       <c r="AF71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:32">
+      <c r="AG71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33">
       <c r="A72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B72" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -6288,19 +6504,19 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I72" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J72" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="R72">
         <v>71</v>
       </c>
       <c r="S72" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T72">
         <v>27</v>
@@ -6309,13 +6525,13 @@
         <v>56</v>
       </c>
       <c r="V72" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="W72" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="Z72" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC72">
         <v>0</v>
@@ -6329,13 +6545,16 @@
       <c r="AF72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:32">
+      <c r="AG72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33">
       <c r="A73" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B73" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -6353,19 +6572,19 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I73" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J73" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="R73">
         <v>72</v>
       </c>
       <c r="S73" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T73">
         <v>28</v>
@@ -6374,13 +6593,13 @@
         <v>57</v>
       </c>
       <c r="V73" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="W73" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z73" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC73">
         <v>0</v>
@@ -6394,13 +6613,16 @@
       <c r="AF73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:32">
+      <c r="AG73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33">
       <c r="A74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B74" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -6418,19 +6640,19 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I74" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J74" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="R74">
         <v>73</v>
       </c>
       <c r="S74" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T74">
         <v>28</v>
@@ -6439,13 +6661,13 @@
         <v>57</v>
       </c>
       <c r="V74" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="W74" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z74" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC74">
         <v>0</v>
@@ -6459,13 +6681,16 @@
       <c r="AF74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:32">
+      <c r="AG74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B75" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -6483,19 +6708,19 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I75" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J75" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="R75">
         <v>74</v>
       </c>
       <c r="S75" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T75">
         <v>28</v>
@@ -6504,13 +6729,13 @@
         <v>57</v>
       </c>
       <c r="V75" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="W75" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z75" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC75">
         <v>0</v>
@@ -6524,13 +6749,16 @@
       <c r="AF75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:32">
+      <c r="AG75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B76" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -6548,16 +6776,16 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J76" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="R76">
         <v>75</v>
       </c>
       <c r="S76" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T76">
         <v>29</v>
@@ -6566,13 +6794,13 @@
         <v>58</v>
       </c>
       <c r="V76" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="W76" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Z76" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC76">
         <v>0</v>
@@ -6586,13 +6814,16 @@
       <c r="AF76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:32">
+      <c r="AG76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33">
       <c r="A77" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B77" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -6610,16 +6841,16 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J77" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R77">
         <v>76</v>
       </c>
       <c r="S77" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T77">
         <v>29</v>
@@ -6628,13 +6859,13 @@
         <v>58</v>
       </c>
       <c r="V77" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="W77" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Z77" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC77">
         <v>0</v>
@@ -6648,13 +6879,16 @@
       <c r="AF77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:32">
+      <c r="AG77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33">
       <c r="A78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -6672,16 +6906,16 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J78" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="R78">
         <v>77</v>
       </c>
       <c r="S78" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T78">
         <v>29</v>
@@ -6690,13 +6924,13 @@
         <v>58</v>
       </c>
       <c r="V78" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="W78" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Z78" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC78">
         <v>0</v>
@@ -6710,13 +6944,16 @@
       <c r="AF78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:32">
+      <c r="AG78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33">
       <c r="A79" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -6734,16 +6971,16 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J79" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R79">
         <v>78</v>
       </c>
       <c r="S79" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T79">
         <v>29</v>
@@ -6752,13 +6989,13 @@
         <v>58</v>
       </c>
       <c r="V79" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="W79" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Z79" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC79">
         <v>0</v>
@@ -6772,13 +7009,16 @@
       <c r="AF79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:32">
+      <c r="AG79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33">
       <c r="A80" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B80" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -6796,16 +7036,16 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J80" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="R80">
         <v>79</v>
       </c>
       <c r="S80" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T80">
         <v>30</v>
@@ -6814,13 +7054,13 @@
         <v>59</v>
       </c>
       <c r="V80" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="W80" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z80" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC80">
         <v>0</v>
@@ -6834,13 +7074,16 @@
       <c r="AF80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:32">
+      <c r="AG80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B81" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -6858,16 +7101,16 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J81" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="R81">
         <v>80</v>
       </c>
       <c r="S81" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T81">
         <v>30</v>
@@ -6876,13 +7119,13 @@
         <v>59</v>
       </c>
       <c r="V81" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="W81" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z81" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC81">
         <v>0</v>
@@ -6896,13 +7139,16 @@
       <c r="AF81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:32">
+      <c r="AG81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B82" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -6920,16 +7166,16 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J82" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="R82">
         <v>81</v>
       </c>
       <c r="S82" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T82">
         <v>30</v>
@@ -6938,13 +7184,13 @@
         <v>59</v>
       </c>
       <c r="V82" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="W82" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z82" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC82">
         <v>0</v>
@@ -6958,13 +7204,16 @@
       <c r="AF82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:32">
+      <c r="AG82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B83" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -6982,16 +7231,16 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J83" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="R83">
         <v>82</v>
       </c>
       <c r="S83" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T83">
         <v>30</v>
@@ -7000,13 +7249,13 @@
         <v>59</v>
       </c>
       <c r="V83" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="W83" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z83" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC83">
         <v>0</v>
@@ -7020,13 +7269,16 @@
       <c r="AF83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:32">
+      <c r="AG83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33">
       <c r="A84" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B84" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -7044,16 +7296,16 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J84" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="R84">
         <v>83</v>
       </c>
       <c r="S84" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T84">
         <v>30</v>
@@ -7062,13 +7314,13 @@
         <v>59</v>
       </c>
       <c r="V84" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="W84" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z84" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC84">
         <v>0</v>
@@ -7082,13 +7334,16 @@
       <c r="AF84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:32">
+      <c r="AG84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33">
       <c r="A85" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B85" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -7106,16 +7361,16 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J85" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="R85">
         <v>84</v>
       </c>
       <c r="S85" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T85">
         <v>31</v>
@@ -7124,13 +7379,13 @@
         <v>60</v>
       </c>
       <c r="V85" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="W85" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Z85" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC85">
         <v>0</v>
@@ -7144,13 +7399,16 @@
       <c r="AF85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:32">
+      <c r="AG85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33">
       <c r="A86" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B86" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -7168,16 +7426,16 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J86" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="R86">
         <v>85</v>
       </c>
       <c r="S86" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T86">
         <v>32</v>
@@ -7186,13 +7444,13 @@
         <v>61</v>
       </c>
       <c r="V86" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="W86" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Z86" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC86">
         <v>0</v>
@@ -7206,13 +7464,16 @@
       <c r="AF86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:32">
+      <c r="AG86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33">
       <c r="A87" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B87" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -7230,16 +7491,16 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J87" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="R87">
         <v>86</v>
       </c>
       <c r="S87" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T87">
         <v>33</v>
@@ -7248,13 +7509,13 @@
         <v>63</v>
       </c>
       <c r="V87" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="W87" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z87" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC87">
         <v>0</v>
@@ -7268,13 +7529,16 @@
       <c r="AF87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:32">
+      <c r="AG87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33">
       <c r="A88" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B88" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -7292,16 +7556,16 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J88" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R88">
         <v>87</v>
       </c>
       <c r="S88" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T88">
         <v>33</v>
@@ -7310,13 +7574,13 @@
         <v>63</v>
       </c>
       <c r="V88" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="W88" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z88" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC88">
         <v>0</v>
@@ -7330,13 +7594,16 @@
       <c r="AF88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:32">
+      <c r="AG88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33">
       <c r="A89" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B89" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7354,16 +7621,16 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J89" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="R89">
         <v>88</v>
       </c>
       <c r="S89" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T89">
         <v>33</v>
@@ -7372,13 +7639,13 @@
         <v>63</v>
       </c>
       <c r="V89" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="W89" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z89" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC89">
         <v>0</v>
@@ -7392,13 +7659,16 @@
       <c r="AF89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:32">
+      <c r="AG89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33">
       <c r="A90" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B90" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7416,16 +7686,16 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J90" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="R90">
         <v>89</v>
       </c>
       <c r="S90" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T90">
         <v>33</v>
@@ -7434,13 +7704,13 @@
         <v>63</v>
       </c>
       <c r="V90" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="W90" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z90" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC90">
         <v>0</v>
@@ -7454,13 +7724,16 @@
       <c r="AF90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:32">
+      <c r="AG90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33">
       <c r="A91" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B91" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7478,19 +7751,19 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I91" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J91" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="R91">
         <v>90</v>
       </c>
       <c r="S91" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T91">
         <v>33</v>
@@ -7499,13 +7772,13 @@
         <v>63</v>
       </c>
       <c r="V91" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="W91" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z91" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC91">
         <v>0</v>
@@ -7519,13 +7792,16 @@
       <c r="AF91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:32">
+      <c r="AG91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33">
       <c r="A92" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B92" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -7543,16 +7819,16 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J92" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R92">
         <v>91</v>
       </c>
       <c r="S92" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T92">
         <v>34</v>
@@ -7561,13 +7837,13 @@
         <v>64</v>
       </c>
       <c r="V92" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="W92" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="Z92" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC92">
         <v>0</v>
@@ -7581,13 +7857,16 @@
       <c r="AF92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:32">
+      <c r="AG92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33">
       <c r="A93" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B93" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -7605,16 +7884,16 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J93" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="R93">
         <v>92</v>
       </c>
       <c r="S93" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T93">
         <v>34</v>
@@ -7623,13 +7902,13 @@
         <v>64</v>
       </c>
       <c r="V93" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="W93" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="Z93" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC93">
         <v>0</v>
@@ -7643,13 +7922,16 @@
       <c r="AF93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:32">
+      <c r="AG93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33">
       <c r="A94" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B94" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -7667,16 +7949,16 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J94" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="R94">
         <v>93</v>
       </c>
       <c r="S94" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T94">
         <v>34</v>
@@ -7685,13 +7967,13 @@
         <v>64</v>
       </c>
       <c r="V94" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="W94" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="Z94" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC94">
         <v>0</v>
@@ -7705,13 +7987,16 @@
       <c r="AF94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:32">
+      <c r="AG94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33">
       <c r="A95" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B95" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -7729,16 +8014,16 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J95" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R95">
         <v>94</v>
       </c>
       <c r="S95" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T95">
         <v>34</v>
@@ -7747,13 +8032,13 @@
         <v>64</v>
       </c>
       <c r="V95" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="W95" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="Z95" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC95">
         <v>0</v>
@@ -7767,13 +8052,16 @@
       <c r="AF95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:32">
+      <c r="AG95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33">
       <c r="A96" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B96" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -7791,16 +8079,16 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J96" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="R96">
         <v>95</v>
       </c>
       <c r="S96" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T96">
         <v>36</v>
@@ -7809,13 +8097,13 @@
         <v>77</v>
       </c>
       <c r="V96" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="W96" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z96" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC96">
         <v>0</v>
@@ -7829,13 +8117,16 @@
       <c r="AF96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:32">
+      <c r="AG96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33">
       <c r="A97" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B97" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -7853,16 +8144,16 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J97" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R97">
         <v>96</v>
       </c>
       <c r="S97" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T97">
         <v>36</v>
@@ -7871,13 +8162,13 @@
         <v>77</v>
       </c>
       <c r="V97" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="W97" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z97" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC97">
         <v>0</v>
@@ -7891,13 +8182,16 @@
       <c r="AF97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:32">
+      <c r="AG97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33">
       <c r="A98" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B98" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -7915,16 +8209,16 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J98" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="R98">
         <v>97</v>
       </c>
       <c r="S98" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T98">
         <v>36</v>
@@ -7933,13 +8227,13 @@
         <v>77</v>
       </c>
       <c r="V98" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="W98" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z98" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC98">
         <v>0</v>
@@ -7953,13 +8247,16 @@
       <c r="AF98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:32">
+      <c r="AG98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33">
       <c r="A99" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B99" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -7977,19 +8274,19 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I99" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J99" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="R99">
         <v>98</v>
       </c>
       <c r="S99" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T99">
         <v>37</v>
@@ -7998,13 +8295,13 @@
         <v>78</v>
       </c>
       <c r="V99" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="W99" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="Z99" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC99">
         <v>0</v>
@@ -8018,13 +8315,16 @@
       <c r="AF99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:32">
+      <c r="AG99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33">
       <c r="A100" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B100" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8042,16 +8342,16 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J100" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R100">
         <v>99</v>
       </c>
       <c r="S100" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T100">
         <v>38</v>
@@ -8060,13 +8360,13 @@
         <v>80</v>
       </c>
       <c r="V100" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="W100" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="Z100" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC100">
         <v>0</v>
@@ -8080,13 +8380,16 @@
       <c r="AF100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:32">
+      <c r="AG100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33">
       <c r="A101" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B101" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8104,19 +8407,19 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I101" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J101" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="R101">
         <v>100</v>
       </c>
       <c r="S101" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T101">
         <v>39</v>
@@ -8125,13 +8428,13 @@
         <v>81</v>
       </c>
       <c r="V101" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="W101" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z101" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC101">
         <v>0</v>
@@ -8145,13 +8448,16 @@
       <c r="AF101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:32">
+      <c r="AG101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33">
       <c r="A102" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B102" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8169,19 +8475,19 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I102" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J102" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="R102">
         <v>101</v>
       </c>
       <c r="S102" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T102">
         <v>39</v>
@@ -8190,13 +8496,13 @@
         <v>81</v>
       </c>
       <c r="V102" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="W102" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z102" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC102">
         <v>0</v>
@@ -8210,13 +8516,16 @@
       <c r="AF102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:32">
+      <c r="AG102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33">
       <c r="A103" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B103" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8234,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I103" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J103" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R103">
         <v>102</v>
       </c>
       <c r="S103" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T103">
         <v>39</v>
@@ -8255,13 +8564,13 @@
         <v>81</v>
       </c>
       <c r="V103" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="W103" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z103" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC103">
         <v>0</v>
@@ -8275,13 +8584,16 @@
       <c r="AF103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:32">
+      <c r="AG103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33">
       <c r="A104" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B104" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8299,19 +8611,19 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I104" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J104" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R104">
         <v>103</v>
       </c>
       <c r="S104" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T104">
         <v>39</v>
@@ -8320,13 +8632,13 @@
         <v>81</v>
       </c>
       <c r="V104" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="W104" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z104" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC104">
         <v>0</v>
@@ -8340,13 +8652,16 @@
       <c r="AF104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:32">
+      <c r="AG104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33">
       <c r="A105" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B105" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8364,19 +8679,19 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I105" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J105" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R105">
         <v>104</v>
       </c>
       <c r="S105" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T105">
         <v>39</v>
@@ -8385,13 +8700,13 @@
         <v>81</v>
       </c>
       <c r="V105" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="W105" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z105" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC105">
         <v>0</v>
@@ -8405,13 +8720,16 @@
       <c r="AF105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:32">
+      <c r="AG105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33">
       <c r="A106" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B106" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8429,19 +8747,19 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I106" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J106" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="R106">
         <v>105</v>
       </c>
       <c r="S106" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T106">
         <v>39</v>
@@ -8450,13 +8768,13 @@
         <v>81</v>
       </c>
       <c r="V106" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="W106" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z106" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC106">
         <v>0</v>
@@ -8470,13 +8788,16 @@
       <c r="AF106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:32">
+      <c r="AG106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33">
       <c r="A107" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B107" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8494,19 +8815,19 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I107" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J107" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="R107">
         <v>106</v>
       </c>
       <c r="S107" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T107">
         <v>39</v>
@@ -8515,13 +8836,13 @@
         <v>81</v>
       </c>
       <c r="V107" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="W107" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z107" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC107">
         <v>0</v>
@@ -8535,13 +8856,16 @@
       <c r="AF107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:32">
+      <c r="AG107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33">
       <c r="A108" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B108" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -8559,16 +8883,16 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J108" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="R108">
         <v>107</v>
       </c>
       <c r="S108" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T108">
         <v>39</v>
@@ -8577,13 +8901,13 @@
         <v>81</v>
       </c>
       <c r="V108" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="W108" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z108" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC108">
         <v>0</v>
@@ -8597,13 +8921,16 @@
       <c r="AF108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:32">
+      <c r="AG108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33">
       <c r="A109" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B109" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -8621,16 +8948,16 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J109" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="R109">
         <v>108</v>
       </c>
       <c r="S109" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T109">
         <v>39</v>
@@ -8639,13 +8966,13 @@
         <v>81</v>
       </c>
       <c r="V109" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="W109" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z109" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC109">
         <v>0</v>
@@ -8659,13 +8986,16 @@
       <c r="AF109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:32">
+      <c r="AG109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33">
       <c r="A110" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B110" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8683,16 +9013,16 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J110" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="R110">
         <v>109</v>
       </c>
       <c r="S110" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T110">
         <v>39</v>
@@ -8701,13 +9031,13 @@
         <v>81</v>
       </c>
       <c r="V110" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="W110" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z110" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC110">
         <v>0</v>
@@ -8721,13 +9051,16 @@
       <c r="AF110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:32">
+      <c r="AG110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:33">
       <c r="A111" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B111" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8745,16 +9078,16 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J111" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="R111">
         <v>110</v>
       </c>
       <c r="S111" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T111">
         <v>40</v>
@@ -8763,13 +9096,13 @@
         <v>82</v>
       </c>
       <c r="V111" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="W111" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="Z111" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC111">
         <v>0</v>
@@ -8783,13 +9116,16 @@
       <c r="AF111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:32">
+      <c r="AG111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:33">
       <c r="A112" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B112" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8807,16 +9143,16 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J112" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="R112">
         <v>111</v>
       </c>
       <c r="S112" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T112">
         <v>40</v>
@@ -8825,13 +9161,13 @@
         <v>82</v>
       </c>
       <c r="V112" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="W112" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="Z112" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC112">
         <v>0</v>
@@ -8845,13 +9181,16 @@
       <c r="AF112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:32">
+      <c r="AG112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:33">
       <c r="A113" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B113" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8869,16 +9208,16 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J113" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="R113">
         <v>112</v>
       </c>
       <c r="S113" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T113">
         <v>42</v>
@@ -8887,13 +9226,13 @@
         <v>84</v>
       </c>
       <c r="V113" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="W113" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Z113" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC113">
         <v>0</v>
@@ -8907,13 +9246,16 @@
       <c r="AF113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:32">
+      <c r="AG113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:33">
       <c r="A114" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B114" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8931,16 +9273,16 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J114" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="R114">
         <v>113</v>
       </c>
       <c r="S114" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T114">
         <v>44</v>
@@ -8949,13 +9291,13 @@
         <v>87</v>
       </c>
       <c r="V114" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="W114" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z114" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC114">
         <v>0</v>
@@ -8969,13 +9311,16 @@
       <c r="AF114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:32">
+      <c r="AG114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:33">
       <c r="A115" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B115" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -8993,16 +9338,16 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J115" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="R115">
         <v>114</v>
       </c>
       <c r="S115" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T115">
         <v>44</v>
@@ -9011,13 +9356,13 @@
         <v>87</v>
       </c>
       <c r="V115" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="W115" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z115" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC115">
         <v>0</v>
@@ -9031,13 +9376,16 @@
       <c r="AF115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:32">
+      <c r="AG115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:33">
       <c r="A116" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B116" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -9055,16 +9403,16 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J116" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="R116">
         <v>115</v>
       </c>
       <c r="S116" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T116">
         <v>44</v>
@@ -9073,13 +9421,13 @@
         <v>87</v>
       </c>
       <c r="V116" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="W116" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z116" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC116">
         <v>0</v>
@@ -9093,13 +9441,16 @@
       <c r="AF116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:32">
+      <c r="AG116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:33">
       <c r="A117" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B117" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -9117,16 +9468,16 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J117" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="R117">
         <v>116</v>
       </c>
       <c r="S117" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T117">
         <v>44</v>
@@ -9135,13 +9486,13 @@
         <v>87</v>
       </c>
       <c r="V117" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="W117" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z117" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC117">
         <v>0</v>
@@ -9155,13 +9506,16 @@
       <c r="AF117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:32">
+      <c r="AG117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:33">
       <c r="A118" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B118" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -9179,16 +9533,16 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J118" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="R118">
         <v>117</v>
       </c>
       <c r="S118" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T118">
         <v>44</v>
@@ -9197,13 +9551,13 @@
         <v>87</v>
       </c>
       <c r="V118" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="W118" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z118" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC118">
         <v>0</v>
@@ -9217,13 +9571,16 @@
       <c r="AF118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:32">
+      <c r="AG118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:33">
       <c r="A119" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B119" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9241,16 +9598,16 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J119" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="R119">
         <v>118</v>
       </c>
       <c r="S119" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T119">
         <v>45</v>
@@ -9259,13 +9616,13 @@
         <v>88</v>
       </c>
       <c r="V119" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="W119" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z119" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC119">
         <v>0</v>
@@ -9279,13 +9636,16 @@
       <c r="AF119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:32">
+      <c r="AG119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:33">
       <c r="A120" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B120" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9303,16 +9663,16 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J120" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="R120">
         <v>119</v>
       </c>
       <c r="S120" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T120">
         <v>45</v>
@@ -9321,13 +9681,13 @@
         <v>88</v>
       </c>
       <c r="V120" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="W120" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z120" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC120">
         <v>0</v>
@@ -9341,13 +9701,16 @@
       <c r="AF120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:32">
+      <c r="AG120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:33">
       <c r="A121" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B121" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9365,16 +9728,16 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J121" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="R121">
         <v>120</v>
       </c>
       <c r="S121" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T121">
         <v>46</v>
@@ -9383,13 +9746,13 @@
         <v>90</v>
       </c>
       <c r="V121" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="W121" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z121" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC121">
         <v>0</v>
@@ -9403,13 +9766,16 @@
       <c r="AF121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:32">
+      <c r="AG121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:33">
       <c r="A122" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B122" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9427,16 +9793,16 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J122" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="R122">
         <v>121</v>
       </c>
       <c r="S122" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T122">
         <v>46</v>
@@ -9445,13 +9811,13 @@
         <v>90</v>
       </c>
       <c r="V122" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="W122" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z122" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC122">
         <v>0</v>
@@ -9465,13 +9831,16 @@
       <c r="AF122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:32">
+      <c r="AG122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:33">
       <c r="A123" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B123" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9489,16 +9858,16 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J123" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="R123">
         <v>122</v>
       </c>
       <c r="S123" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T123">
         <v>46</v>
@@ -9507,13 +9876,13 @@
         <v>90</v>
       </c>
       <c r="V123" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="W123" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z123" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC123">
         <v>0</v>
@@ -9527,13 +9896,16 @@
       <c r="AF123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:32">
+      <c r="AG123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:33">
       <c r="A124" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B124" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -9551,16 +9923,16 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J124" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="R124">
         <v>123</v>
       </c>
       <c r="S124" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T124">
         <v>47</v>
@@ -9569,13 +9941,13 @@
         <v>91</v>
       </c>
       <c r="V124" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="W124" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Z124" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC124">
         <v>0</v>
@@ -9589,13 +9961,16 @@
       <c r="AF124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:32">
+      <c r="AG124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:33">
       <c r="A125" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B125" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -9613,16 +9988,16 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J125" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="R125">
         <v>124</v>
       </c>
       <c r="S125" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T125">
         <v>47</v>
@@ -9631,13 +10006,13 @@
         <v>91</v>
       </c>
       <c r="V125" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="W125" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Z125" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC125">
         <v>0</v>
@@ -9651,13 +10026,16 @@
       <c r="AF125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:32">
+      <c r="AG125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:33">
       <c r="A126" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B126" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -9675,16 +10053,16 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J126" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="R126">
         <v>125</v>
       </c>
       <c r="S126" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T126">
         <v>47</v>
@@ -9693,13 +10071,13 @@
         <v>91</v>
       </c>
       <c r="V126" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="W126" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Z126" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC126">
         <v>0</v>
@@ -9713,13 +10091,16 @@
       <c r="AF126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:32">
+      <c r="AG126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:33">
       <c r="A127" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B127" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9737,16 +10118,16 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J127" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="R127">
         <v>126</v>
       </c>
       <c r="S127" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T127">
         <v>48</v>
@@ -9755,13 +10136,13 @@
         <v>92</v>
       </c>
       <c r="V127" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="W127" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="Z127" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC127">
         <v>0</v>
@@ -9775,13 +10156,16 @@
       <c r="AF127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:32">
+      <c r="AG127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:33">
       <c r="A128" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B128" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -9799,19 +10183,19 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I128" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J128" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="R128">
         <v>127</v>
       </c>
       <c r="S128" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T128">
         <v>49</v>
@@ -9820,13 +10204,13 @@
         <v>93</v>
       </c>
       <c r="V128" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="W128" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z128" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC128">
         <v>0</v>
@@ -9840,13 +10224,16 @@
       <c r="AF128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:32">
+      <c r="AG128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:33">
       <c r="A129" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B129" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -9864,19 +10251,19 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I129" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J129" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="R129">
         <v>128</v>
       </c>
       <c r="S129" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T129">
         <v>49</v>
@@ -9885,13 +10272,13 @@
         <v>93</v>
       </c>
       <c r="V129" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="W129" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z129" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC129">
         <v>0</v>
@@ -9905,13 +10292,16 @@
       <c r="AF129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:32">
+      <c r="AG129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:33">
       <c r="A130" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B130" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -9929,19 +10319,19 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I130" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J130" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="R130">
         <v>129</v>
       </c>
       <c r="S130" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T130">
         <v>49</v>
@@ -9950,13 +10340,13 @@
         <v>93</v>
       </c>
       <c r="V130" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="W130" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z130" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC130">
         <v>0</v>
@@ -9970,13 +10360,16 @@
       <c r="AF130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:32">
+      <c r="AG130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:33">
       <c r="A131" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B131" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -9994,19 +10387,19 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I131" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J131" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="R131">
         <v>130</v>
       </c>
       <c r="S131" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T131">
         <v>49</v>
@@ -10015,13 +10408,13 @@
         <v>93</v>
       </c>
       <c r="V131" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="W131" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z131" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC131">
         <v>0</v>
@@ -10035,13 +10428,16 @@
       <c r="AF131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:32">
+      <c r="AG131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:33">
       <c r="A132" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B132" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -10059,16 +10455,16 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J132" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="R132">
         <v>131</v>
       </c>
       <c r="S132" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T132">
         <v>50</v>
@@ -10077,13 +10473,13 @@
         <v>94</v>
       </c>
       <c r="V132" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="W132" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="Z132" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC132">
         <v>0</v>
@@ -10097,13 +10493,16 @@
       <c r="AF132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:32">
+      <c r="AG132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:33">
       <c r="A133" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B133" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -10121,16 +10520,16 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J133" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="R133">
         <v>132</v>
       </c>
       <c r="S133" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T133">
         <v>50</v>
@@ -10139,13 +10538,13 @@
         <v>94</v>
       </c>
       <c r="V133" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="W133" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="Z133" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC133">
         <v>0</v>
@@ -10159,13 +10558,16 @@
       <c r="AF133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:32">
+      <c r="AG133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:33">
       <c r="A134" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B134" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -10183,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J134" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="R134">
         <v>133</v>
       </c>
       <c r="S134" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T134">
         <v>50</v>
@@ -10201,13 +10603,13 @@
         <v>94</v>
       </c>
       <c r="V134" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="W134" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="Z134" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC134">
         <v>0</v>
@@ -10221,13 +10623,16 @@
       <c r="AF134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:32">
+      <c r="AG134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:33">
       <c r="A135" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B135" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -10245,16 +10650,16 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J135" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="R135">
         <v>134</v>
       </c>
       <c r="S135" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T135">
         <v>50</v>
@@ -10263,13 +10668,13 @@
         <v>94</v>
       </c>
       <c r="V135" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="W135" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="Z135" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC135">
         <v>0</v>
@@ -10283,13 +10688,16 @@
       <c r="AF135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:32">
+      <c r="AG135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:33">
       <c r="A136" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B136" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10307,16 +10715,16 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J136" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="R136">
         <v>135</v>
       </c>
       <c r="S136" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T136">
         <v>51</v>
@@ -10325,13 +10733,13 @@
         <v>95</v>
       </c>
       <c r="V136" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="W136" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z136" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC136">
         <v>0</v>
@@ -10345,13 +10753,16 @@
       <c r="AF136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:32">
+      <c r="AG136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:33">
       <c r="A137" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B137" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10369,16 +10780,16 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J137" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="R137">
         <v>136</v>
       </c>
       <c r="S137" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T137">
         <v>51</v>
@@ -10387,13 +10798,13 @@
         <v>95</v>
       </c>
       <c r="V137" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="W137" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z137" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC137">
         <v>0</v>
@@ -10407,13 +10818,16 @@
       <c r="AF137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:32">
+      <c r="AG137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:33">
       <c r="A138" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B138" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10431,16 +10845,16 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J138" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="R138">
         <v>137</v>
       </c>
       <c r="S138" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T138">
         <v>52</v>
@@ -10449,13 +10863,13 @@
         <v>96</v>
       </c>
       <c r="V138" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="W138" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="Z138" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC138">
         <v>0</v>
@@ -10469,13 +10883,16 @@
       <c r="AF138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:32">
+      <c r="AG138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:33">
       <c r="A139" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B139" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -10493,16 +10910,16 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J139" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="R139">
         <v>138</v>
       </c>
       <c r="S139" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T139">
         <v>53</v>
@@ -10511,13 +10928,13 @@
         <v>98</v>
       </c>
       <c r="V139" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="W139" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="Z139" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC139">
         <v>0</v>
@@ -10531,13 +10948,16 @@
       <c r="AF139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:32">
+      <c r="AG139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:33">
       <c r="A140" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B140" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10555,16 +10975,16 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J140" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="R140">
         <v>139</v>
       </c>
       <c r="S140" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T140">
         <v>54</v>
@@ -10573,13 +10993,13 @@
         <v>99</v>
       </c>
       <c r="V140" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="W140" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z140" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC140">
         <v>0</v>
@@ -10593,13 +11013,16 @@
       <c r="AF140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:32">
+      <c r="AG140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:33">
       <c r="A141" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B141" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10617,16 +11040,16 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J141" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="R141">
         <v>140</v>
       </c>
       <c r="S141" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T141">
         <v>54</v>
@@ -10635,13 +11058,13 @@
         <v>99</v>
       </c>
       <c r="V141" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="W141" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z141" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC141">
         <v>0</v>
@@ -10655,13 +11078,16 @@
       <c r="AF141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:32">
+      <c r="AG141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:33">
       <c r="A142" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B142" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10679,16 +11105,16 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J142" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="R142">
         <v>141</v>
       </c>
       <c r="S142" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T142">
         <v>54</v>
@@ -10697,13 +11123,13 @@
         <v>99</v>
       </c>
       <c r="V142" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="W142" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z142" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC142">
         <v>0</v>
@@ -10717,13 +11143,16 @@
       <c r="AF142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:32">
+      <c r="AG142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:33">
       <c r="A143" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B143" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10741,16 +11170,16 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J143" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="R143">
         <v>142</v>
       </c>
       <c r="S143" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T143">
         <v>54</v>
@@ -10759,13 +11188,13 @@
         <v>99</v>
       </c>
       <c r="V143" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="W143" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z143" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC143">
         <v>0</v>
@@ -10779,13 +11208,16 @@
       <c r="AF143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:32">
+      <c r="AG143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:33">
       <c r="A144" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B144" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -10803,16 +11235,16 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J144" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="R144">
         <v>143</v>
       </c>
       <c r="S144" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T144">
         <v>55</v>
@@ -10821,13 +11253,13 @@
         <v>100</v>
       </c>
       <c r="V144" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="W144" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z144" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC144">
         <v>0</v>
@@ -10841,13 +11273,16 @@
       <c r="AF144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:32">
+      <c r="AG144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:33">
       <c r="A145" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B145" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -10865,16 +11300,16 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J145" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="R145">
         <v>144</v>
       </c>
       <c r="S145" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T145">
         <v>55</v>
@@ -10883,13 +11318,13 @@
         <v>100</v>
       </c>
       <c r="V145" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="W145" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z145" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC145">
         <v>0</v>
@@ -10903,13 +11338,16 @@
       <c r="AF145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:32">
+      <c r="AG145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:33">
       <c r="A146" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B146" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -10927,16 +11365,16 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J146" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="R146">
         <v>145</v>
       </c>
       <c r="S146" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T146">
         <v>55</v>
@@ -10945,13 +11383,13 @@
         <v>100</v>
       </c>
       <c r="V146" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="W146" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z146" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC146">
         <v>0</v>
@@ -10965,13 +11403,16 @@
       <c r="AF146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:32">
+      <c r="AG146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:33">
       <c r="A147" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B147" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -10989,16 +11430,16 @@
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J147" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="R147">
         <v>146</v>
       </c>
       <c r="S147" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T147">
         <v>56</v>
@@ -11007,13 +11448,13 @@
         <v>101</v>
       </c>
       <c r="V147" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="W147" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Z147" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC147">
         <v>0</v>
@@ -11027,13 +11468,16 @@
       <c r="AF147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:32">
+      <c r="AG147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:33">
       <c r="A148" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B148" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -11051,16 +11495,16 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J148" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="R148">
         <v>147</v>
       </c>
       <c r="S148" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T148">
         <v>57</v>
@@ -11069,13 +11513,13 @@
         <v>102</v>
       </c>
       <c r="V148" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="W148" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Z148" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC148">
         <v>0</v>
@@ -11089,13 +11533,16 @@
       <c r="AF148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:32">
+      <c r="AG148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:33">
       <c r="A149" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B149" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -11113,16 +11560,16 @@
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J149" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="R149">
         <v>148</v>
       </c>
       <c r="S149" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T149">
         <v>57</v>
@@ -11131,13 +11578,13 @@
         <v>102</v>
       </c>
       <c r="V149" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="W149" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Z149" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC149">
         <v>0</v>
@@ -11151,13 +11598,16 @@
       <c r="AF149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:32">
+      <c r="AG149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:33">
       <c r="A150" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B150" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -11175,16 +11625,16 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J150" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="R150">
         <v>149</v>
       </c>
       <c r="S150" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T150">
         <v>57</v>
@@ -11193,13 +11643,13 @@
         <v>102</v>
       </c>
       <c r="V150" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="W150" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Z150" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC150">
         <v>0</v>
@@ -11213,13 +11663,16 @@
       <c r="AF150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:32">
+      <c r="AG150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:33">
       <c r="A151" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B151" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -11237,16 +11690,16 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J151" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="R151">
         <v>150</v>
       </c>
       <c r="S151" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T151">
         <v>58</v>
@@ -11255,13 +11708,13 @@
         <v>103</v>
       </c>
       <c r="V151" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="W151" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="Z151" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC151">
         <v>0</v>
@@ -11275,13 +11728,16 @@
       <c r="AF151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:32">
+      <c r="AG151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:33">
       <c r="A152" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B152" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -11299,16 +11755,16 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J152" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="R152">
         <v>151</v>
       </c>
       <c r="S152" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T152">
         <v>59</v>
@@ -11317,13 +11773,13 @@
         <v>104</v>
       </c>
       <c r="V152" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="W152" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z152" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC152">
         <v>0</v>
@@ -11337,13 +11793,16 @@
       <c r="AF152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:32">
+      <c r="AG152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:33">
       <c r="A153" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B153" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -11361,16 +11820,16 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J153" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="R153">
         <v>152</v>
       </c>
       <c r="S153" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T153">
         <v>59</v>
@@ -11379,13 +11838,13 @@
         <v>104</v>
       </c>
       <c r="V153" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="W153" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z153" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC153">
         <v>0</v>
@@ -11399,13 +11858,16 @@
       <c r="AF153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:32">
+      <c r="AG153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:33">
       <c r="A154" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B154" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -11423,16 +11885,16 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J154" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="R154">
         <v>153</v>
       </c>
       <c r="S154" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T154">
         <v>59</v>
@@ -11441,13 +11903,13 @@
         <v>104</v>
       </c>
       <c r="V154" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="W154" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z154" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC154">
         <v>0</v>
@@ -11461,13 +11923,16 @@
       <c r="AF154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:32">
+      <c r="AG154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:33">
       <c r="A155" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B155" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -11485,16 +11950,16 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J155" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="R155">
         <v>154</v>
       </c>
       <c r="S155" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T155">
         <v>59</v>
@@ -11503,13 +11968,13 @@
         <v>104</v>
       </c>
       <c r="V155" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="W155" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z155" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC155">
         <v>0</v>
@@ -11523,13 +11988,16 @@
       <c r="AF155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:32">
+      <c r="AG155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:33">
       <c r="A156" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B156" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -11547,16 +12015,16 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J156" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="R156">
         <v>155</v>
       </c>
       <c r="S156" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T156">
         <v>60</v>
@@ -11565,13 +12033,13 @@
         <v>105</v>
       </c>
       <c r="V156" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="W156" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="Z156" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC156">
         <v>0</v>
@@ -11585,13 +12053,16 @@
       <c r="AF156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:32">
+      <c r="AG156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:33">
       <c r="A157" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B157" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -11609,16 +12080,16 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J157" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="R157">
         <v>156</v>
       </c>
       <c r="S157" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T157">
         <v>61</v>
@@ -11627,13 +12098,13 @@
         <v>106</v>
       </c>
       <c r="V157" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="W157" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="Z157" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC157">
         <v>0</v>
@@ -11647,13 +12118,16 @@
       <c r="AF157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:32">
+      <c r="AG157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:33">
       <c r="A158" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B158" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -11671,16 +12145,16 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J158" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="R158">
         <v>157</v>
       </c>
       <c r="S158" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T158">
         <v>63</v>
@@ -11689,13 +12163,13 @@
         <v>110</v>
       </c>
       <c r="V158" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="W158" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="Z158" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC158">
         <v>0</v>
@@ -11709,13 +12183,16 @@
       <c r="AF158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:32">
+      <c r="AG158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:33">
       <c r="A159" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B159" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -11733,16 +12210,16 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J159" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="R159">
         <v>158</v>
       </c>
       <c r="S159" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T159">
         <v>64</v>
@@ -11751,13 +12228,13 @@
         <v>111</v>
       </c>
       <c r="V159" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="W159" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="Z159" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC159">
         <v>0</v>
@@ -11771,13 +12248,16 @@
       <c r="AF159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:32">
+      <c r="AG159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:33">
       <c r="A160" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B160" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -11795,16 +12275,16 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J160" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="R160">
         <v>159</v>
       </c>
       <c r="S160" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T160">
         <v>65</v>
@@ -11813,13 +12293,13 @@
         <v>113</v>
       </c>
       <c r="V160" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="W160" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="Z160" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC160">
         <v>0</v>
@@ -11833,13 +12313,16 @@
       <c r="AF160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:32">
+      <c r="AG160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:33">
       <c r="A161" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B161" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -11857,19 +12340,19 @@
         <v>0</v>
       </c>
       <c r="H161" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I161" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J161" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="R161">
         <v>160</v>
       </c>
       <c r="S161" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T161">
         <v>67</v>
@@ -11878,13 +12361,13 @@
         <v>115</v>
       </c>
       <c r="V161" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="W161" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="Z161" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC161">
         <v>0</v>
@@ -11898,13 +12381,16 @@
       <c r="AF161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:32">
+      <c r="AG161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:33">
       <c r="A162" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B162" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -11922,16 +12408,16 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J162" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="R162">
         <v>161</v>
       </c>
       <c r="S162" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T162">
         <v>70</v>
@@ -11940,13 +12426,13 @@
         <v>119</v>
       </c>
       <c r="V162" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="W162" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z162" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC162">
         <v>0</v>
@@ -11960,13 +12446,16 @@
       <c r="AF162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:32">
+      <c r="AG162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:33">
       <c r="A163" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B163" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -11984,16 +12473,16 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J163" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="R163">
         <v>162</v>
       </c>
       <c r="S163" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T163">
         <v>70</v>
@@ -12002,13 +12491,13 @@
         <v>119</v>
       </c>
       <c r="V163" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="W163" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z163" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC163">
         <v>0</v>
@@ -12020,6 +12509,9 @@
         <v>0</v>
       </c>
       <c r="AF163">
+        <v>0</v>
+      </c>
+      <c r="AG163">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p16.xlsx
+++ b/files/separadas/repeat_p16.xlsx
@@ -8112,13 +8112,13 @@
         <v>0</v>
       </c>
       <c r="AE96">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF96">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG96">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="97" spans="1:33">
@@ -8171,7 +8171,7 @@
         <v>458</v>
       </c>
       <c r="AC97">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD97">
         <v>0</v>
@@ -8180,10 +8180,10 @@
         <v>0</v>
       </c>
       <c r="AF97">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG97">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="98" spans="1:33">
@@ -8236,19 +8236,19 @@
         <v>458</v>
       </c>
       <c r="AC98">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD98">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE98">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AF98">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG98">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="99" spans="1:33">

--- a/files/separadas/repeat_p16.xlsx
+++ b/files/separadas/repeat_p16.xlsx
@@ -9300,19 +9300,19 @@
         <v>458</v>
       </c>
       <c r="AC114">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD114">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE114">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AF114">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG114">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="115" spans="1:33">
@@ -9371,13 +9371,13 @@
         <v>0</v>
       </c>
       <c r="AE115">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AF115">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AG115">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="116" spans="1:33">
@@ -9436,13 +9436,13 @@
         <v>0</v>
       </c>
       <c r="AE116">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AF116">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AG116">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="117" spans="1:33">
@@ -9501,13 +9501,13 @@
         <v>0</v>
       </c>
       <c r="AE117">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AF117">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AG117">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="118" spans="1:33">
@@ -9566,13 +9566,13 @@
         <v>0</v>
       </c>
       <c r="AE118">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AF118">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AG118">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="119" spans="1:33">

--- a/files/separadas/repeat_p16.xlsx
+++ b/files/separadas/repeat_p16.xlsx
@@ -8112,13 +8112,13 @@
         <v>0</v>
       </c>
       <c r="AE96">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AF96">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AG96">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="97" spans="1:33">
@@ -9300,19 +9300,19 @@
         <v>458</v>
       </c>
       <c r="AC114">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD114">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AE114">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AF114">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AG114">
-        <v>1.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:33">
@@ -9371,13 +9371,13 @@
         <v>0</v>
       </c>
       <c r="AE115">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AF115">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AG115">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:33">
@@ -9436,13 +9436,13 @@
         <v>0</v>
       </c>
       <c r="AE116">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AF116">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AG116">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:33">
@@ -9501,13 +9501,13 @@
         <v>0</v>
       </c>
       <c r="AE117">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AF117">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AG117">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:33">
@@ -9566,13 +9566,13 @@
         <v>0</v>
       </c>
       <c r="AE118">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AF118">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AG118">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:33">

--- a/files/separadas/repeat_p16.xlsx
+++ b/files/separadas/repeat_p16.xlsx
@@ -6346,7 +6346,7 @@
       <c r="AA73" t="inlineStr"/>
       <c r="AB73" t="inlineStr"/>
       <c r="AC73" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="74">
@@ -6429,7 +6429,7 @@
       <c r="AA74" t="inlineStr"/>
       <c r="AB74" t="inlineStr"/>
       <c r="AC74" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="75">
@@ -6512,7 +6512,7 @@
       <c r="AA75" t="inlineStr"/>
       <c r="AB75" t="inlineStr"/>
       <c r="AC75" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="76">

--- a/files/separadas/repeat_p16.xlsx
+++ b/files/separadas/repeat_p16.xlsx
@@ -1378,7 +1378,7 @@
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1457,7 +1457,7 @@
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="13">
@@ -9390,7 +9390,7 @@
       <c r="AA111" t="inlineStr"/>
       <c r="AB111" t="inlineStr"/>
       <c r="AC111" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="112">
@@ -9469,7 +9469,7 @@
       <c r="AA112" t="inlineStr"/>
       <c r="AB112" t="inlineStr"/>
       <c r="AC112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -11697,7 +11697,7 @@
       <c r="AA140" t="inlineStr"/>
       <c r="AB140" t="inlineStr"/>
       <c r="AC140" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="141">
@@ -11776,7 +11776,7 @@
       <c r="AA141" t="inlineStr"/>
       <c r="AB141" t="inlineStr"/>
       <c r="AC141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -11855,7 +11855,7 @@
       <c r="AA142" t="inlineStr"/>
       <c r="AB142" t="inlineStr"/>
       <c r="AC142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -11934,7 +11934,7 @@
       <c r="AA143" t="inlineStr"/>
       <c r="AB143" t="inlineStr"/>
       <c r="AC143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -12645,7 +12645,7 @@
       <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="inlineStr"/>
       <c r="AC152" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="153">
@@ -12724,7 +12724,7 @@
       <c r="AA153" t="inlineStr"/>
       <c r="AB153" t="inlineStr"/>
       <c r="AC153" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="154">
@@ -12803,7 +12803,7 @@
       <c r="AA154" t="inlineStr"/>
       <c r="AB154" t="inlineStr"/>
       <c r="AC154" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="155">
@@ -12882,7 +12882,7 @@
       <c r="AA155" t="inlineStr"/>
       <c r="AB155" t="inlineStr"/>
       <c r="AC155" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="156">
@@ -13041,7 +13041,7 @@
       <c r="AA157" t="inlineStr"/>
       <c r="AB157" t="inlineStr"/>
       <c r="AC157" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="158">
@@ -13120,7 +13120,7 @@
       <c r="AA158" t="inlineStr"/>
       <c r="AB158" t="inlineStr"/>
       <c r="AC158" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="159">
